--- a/data_elimosum/Aug2022Bicarb_AA_MFA_1.xlsx
+++ b/data_elimosum/Aug2022Bicarb_AA_MFA_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xoots/__Experiment_Data/C1MFA/data_Elimosum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xoots/__Experiment_Data/Carbon-Flux-Team/data_elimosum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289592AF-3997-DE4E-8019-B6175AE32E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D51A286-E985-754F-AF66-CE4A9FF308E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="27240" windowHeight="15320" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="27240" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug2022Bicarb_AA_MFA_1" sheetId="1" r:id="rId1"/>
@@ -300,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1134,7 +1134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD275"/>
   <sheetViews>
     <sheetView topLeftCell="A204" workbookViewId="0">
@@ -8867,11 +8867,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data_elimosum/Aug2022Bicarb_AA_MFA_1.xlsx
+++ b/data_elimosum/Aug2022Bicarb_AA_MFA_1.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xoots/__Experiment_Data/Carbon-Flux-Team/data_elimosum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D51A286-E985-754F-AF66-CE4A9FF308E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238264D5-9C93-5F4D-A4C2-2AE60DE83BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="27240" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6760" yWindow="1000" windowWidth="27240" windowHeight="15320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug2022Bicarb_AA_MFA_1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="data_format" sheetId="4" r:id="rId2"/>
+    <sheet name="data_MDV" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="94">
   <si>
     <t>Cysteine</t>
   </si>
@@ -295,6 +297,27 @@
   </si>
   <si>
     <t>Asp</t>
+  </si>
+  <si>
+    <t>Phe</t>
+  </si>
+  <si>
+    <t>Gly</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Ser</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>Tyr</t>
+  </si>
+  <si>
+    <t>Thr</t>
   </si>
 </sst>
 </file>
@@ -1137,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD275"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8867,11 +8890,6201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4CD2E1-FD2E-ED49-9111-911CCC6E3DB0}">
+  <dimension ref="A1:M108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>122.02703</v>
+      </c>
+      <c r="D3">
+        <v>123.03037999999999</v>
+      </c>
+      <c r="E3">
+        <v>124.03373999999999</v>
+      </c>
+      <c r="F3">
+        <v>125.03709000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>1924</v>
+      </c>
+      <c r="D4">
+        <v>1655</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>7972</v>
+      </c>
+      <c r="D5">
+        <v>6111</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>14083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>3177</v>
+      </c>
+      <c r="D6">
+        <v>4003</v>
+      </c>
+      <c r="E6">
+        <v>4355</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>11535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>166.08626000000001</v>
+      </c>
+      <c r="D9">
+        <v>167.08960999999999</v>
+      </c>
+      <c r="E9">
+        <v>168.09296000000001</v>
+      </c>
+      <c r="F9">
+        <v>169.09631999999999</v>
+      </c>
+      <c r="G9">
+        <v>170.09967</v>
+      </c>
+      <c r="H9">
+        <v>171.10302999999999</v>
+      </c>
+      <c r="I9">
+        <v>172.10638</v>
+      </c>
+      <c r="J9">
+        <v>173.10973999999999</v>
+      </c>
+      <c r="K9">
+        <v>174.11309</v>
+      </c>
+      <c r="L9">
+        <v>175.11644999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3527777</v>
+      </c>
+      <c r="E10">
+        <v>8998945</v>
+      </c>
+      <c r="F10">
+        <v>15263410</v>
+      </c>
+      <c r="G10">
+        <v>18761130</v>
+      </c>
+      <c r="H10">
+        <v>14140160</v>
+      </c>
+      <c r="I10">
+        <v>6220892</v>
+      </c>
+      <c r="J10">
+        <v>1445611</v>
+      </c>
+      <c r="K10">
+        <v>206261</v>
+      </c>
+      <c r="L10">
+        <v>19753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2957832</v>
+      </c>
+      <c r="E11">
+        <v>8150306</v>
+      </c>
+      <c r="F11">
+        <v>14460460</v>
+      </c>
+      <c r="G11">
+        <v>17806720</v>
+      </c>
+      <c r="H11">
+        <v>13266000</v>
+      </c>
+      <c r="I11">
+        <v>5687514</v>
+      </c>
+      <c r="J11">
+        <v>1251757</v>
+      </c>
+      <c r="K11">
+        <v>164223</v>
+      </c>
+      <c r="L11">
+        <v>13022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>431550</v>
+      </c>
+      <c r="D12">
+        <v>961270</v>
+      </c>
+      <c r="E12">
+        <v>2619946</v>
+      </c>
+      <c r="F12">
+        <v>4656433</v>
+      </c>
+      <c r="G12">
+        <v>5761429</v>
+      </c>
+      <c r="H12">
+        <v>4246544</v>
+      </c>
+      <c r="I12">
+        <v>1839766</v>
+      </c>
+      <c r="J12">
+        <v>436694</v>
+      </c>
+      <c r="K12">
+        <v>59128</v>
+      </c>
+      <c r="L12">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>132.10191</v>
+      </c>
+      <c r="D15">
+        <v>133.10525999999999</v>
+      </c>
+      <c r="E15">
+        <v>134.10861</v>
+      </c>
+      <c r="F15">
+        <v>135.11197000000001</v>
+      </c>
+      <c r="G15">
+        <v>136.11532</v>
+      </c>
+      <c r="H15">
+        <v>137.11868000000001</v>
+      </c>
+      <c r="I15">
+        <v>138.12203</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>2347755</v>
+      </c>
+      <c r="D16">
+        <v>12032620</v>
+      </c>
+      <c r="E16">
+        <v>18382420</v>
+      </c>
+      <c r="F16">
+        <v>12804240</v>
+      </c>
+      <c r="G16">
+        <v>3689185</v>
+      </c>
+      <c r="H16">
+        <v>550416</v>
+      </c>
+      <c r="I16">
+        <v>44176</v>
+      </c>
+      <c r="J16">
+        <v>49850806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>2438619</v>
+      </c>
+      <c r="D17">
+        <v>12388390</v>
+      </c>
+      <c r="E17">
+        <v>19285830</v>
+      </c>
+      <c r="F17">
+        <v>13251000</v>
+      </c>
+      <c r="G17">
+        <v>3642235</v>
+      </c>
+      <c r="H17">
+        <v>520231</v>
+      </c>
+      <c r="I17">
+        <v>36018</v>
+      </c>
+      <c r="J17">
+        <v>51562314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>2652480</v>
+      </c>
+      <c r="D18">
+        <v>13880940</v>
+      </c>
+      <c r="E18">
+        <v>19828530</v>
+      </c>
+      <c r="F18">
+        <v>15021240</v>
+      </c>
+      <c r="G18">
+        <v>4197435</v>
+      </c>
+      <c r="H18">
+        <v>613288</v>
+      </c>
+      <c r="I18">
+        <v>45589</v>
+      </c>
+      <c r="J18">
+        <v>56239497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>132.10191</v>
+      </c>
+      <c r="D21">
+        <v>133.10525999999999</v>
+      </c>
+      <c r="E21">
+        <v>134.10861</v>
+      </c>
+      <c r="F21">
+        <v>135.11197000000001</v>
+      </c>
+      <c r="G21">
+        <v>136.11532</v>
+      </c>
+      <c r="H21">
+        <v>137.11868000000001</v>
+      </c>
+      <c r="I21">
+        <v>138.12203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>2670348</v>
+      </c>
+      <c r="D22">
+        <v>14155150</v>
+      </c>
+      <c r="E22">
+        <v>22310140</v>
+      </c>
+      <c r="F22">
+        <v>17149360</v>
+      </c>
+      <c r="G22">
+        <v>5899627</v>
+      </c>
+      <c r="H22">
+        <v>976257</v>
+      </c>
+      <c r="I22">
+        <v>83086</v>
+      </c>
+      <c r="J22">
+        <v>63243958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>2718460</v>
+      </c>
+      <c r="D23">
+        <v>14434720</v>
+      </c>
+      <c r="E23">
+        <v>23639440</v>
+      </c>
+      <c r="F23">
+        <v>18407770</v>
+      </c>
+      <c r="G23">
+        <v>6170211</v>
+      </c>
+      <c r="H23">
+        <v>965480</v>
+      </c>
+      <c r="I23">
+        <v>81475</v>
+      </c>
+      <c r="J23">
+        <v>66417557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>2617092</v>
+      </c>
+      <c r="D24">
+        <v>14168670</v>
+      </c>
+      <c r="E24">
+        <v>22503870</v>
+      </c>
+      <c r="F24">
+        <v>17626920</v>
+      </c>
+      <c r="G24">
+        <v>5971599</v>
+      </c>
+      <c r="H24">
+        <v>960292</v>
+      </c>
+      <c r="I24">
+        <v>80407</v>
+      </c>
+      <c r="J24">
+        <v>63928852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>150.05833000000001</v>
+      </c>
+      <c r="D27">
+        <v>151.06168</v>
+      </c>
+      <c r="E27">
+        <v>152.06504000000001</v>
+      </c>
+      <c r="F27">
+        <v>153.06838999999999</v>
+      </c>
+      <c r="G27">
+        <v>154.07175000000001</v>
+      </c>
+      <c r="H27">
+        <v>155.07509999999999</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>446967</v>
+      </c>
+      <c r="D28">
+        <v>2367643</v>
+      </c>
+      <c r="E28">
+        <v>4097452</v>
+      </c>
+      <c r="F28">
+        <v>3220225</v>
+      </c>
+      <c r="G28">
+        <v>803027</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10935312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>306867</v>
+      </c>
+      <c r="D29">
+        <v>1471179</v>
+      </c>
+      <c r="E29">
+        <v>2601598</v>
+      </c>
+      <c r="F29">
+        <v>1987759</v>
+      </c>
+      <c r="G29">
+        <v>495831</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6863233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>490001</v>
+      </c>
+      <c r="D30">
+        <v>2524356</v>
+      </c>
+      <c r="E30">
+        <v>4486508</v>
+      </c>
+      <c r="F30">
+        <v>3457144</v>
+      </c>
+      <c r="G30">
+        <v>853365</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>11811373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>182.08116999999999</v>
+      </c>
+      <c r="D33">
+        <v>183.08452</v>
+      </c>
+      <c r="E33">
+        <v>184.08788000000001</v>
+      </c>
+      <c r="F33">
+        <v>185.09123</v>
+      </c>
+      <c r="G33">
+        <v>186.09459000000001</v>
+      </c>
+      <c r="H33">
+        <v>187.09793999999999</v>
+      </c>
+      <c r="I33">
+        <v>188.10130000000001</v>
+      </c>
+      <c r="J33">
+        <v>189.10464999999999</v>
+      </c>
+      <c r="K33">
+        <v>190.10801000000001</v>
+      </c>
+      <c r="L33">
+        <v>191.11135999999999</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>103765</v>
+      </c>
+      <c r="D34">
+        <v>244850</v>
+      </c>
+      <c r="E34">
+        <v>688256</v>
+      </c>
+      <c r="F34">
+        <v>1137937</v>
+      </c>
+      <c r="G34">
+        <v>1389528</v>
+      </c>
+      <c r="H34">
+        <v>1111153</v>
+      </c>
+      <c r="I34">
+        <v>507656</v>
+      </c>
+      <c r="J34">
+        <v>138069</v>
+      </c>
+      <c r="K34">
+        <v>20136</v>
+      </c>
+      <c r="L34">
+        <v>3157</v>
+      </c>
+      <c r="M34">
+        <v>5344508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>150370</v>
+      </c>
+      <c r="D35">
+        <v>354229</v>
+      </c>
+      <c r="E35">
+        <v>987293</v>
+      </c>
+      <c r="F35">
+        <v>1765012</v>
+      </c>
+      <c r="G35">
+        <v>2126262</v>
+      </c>
+      <c r="H35">
+        <v>1650626</v>
+      </c>
+      <c r="I35">
+        <v>739475</v>
+      </c>
+      <c r="J35">
+        <v>194957</v>
+      </c>
+      <c r="K35">
+        <v>29523</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>7997747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>190902</v>
+      </c>
+      <c r="D36">
+        <v>399310</v>
+      </c>
+      <c r="E36">
+        <v>1059600</v>
+      </c>
+      <c r="F36">
+        <v>1810016</v>
+      </c>
+      <c r="G36">
+        <v>2208950</v>
+      </c>
+      <c r="H36">
+        <v>1806957</v>
+      </c>
+      <c r="I36">
+        <v>796940</v>
+      </c>
+      <c r="J36">
+        <v>223237</v>
+      </c>
+      <c r="K36">
+        <v>35451</v>
+      </c>
+      <c r="L36">
+        <v>4037</v>
+      </c>
+      <c r="M36">
+        <v>8535399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>118.08626</v>
+      </c>
+      <c r="D39">
+        <v>119.08960999999999</v>
+      </c>
+      <c r="E39">
+        <v>120.09296000000001</v>
+      </c>
+      <c r="F39">
+        <v>121.09632000000001</v>
+      </c>
+      <c r="G39">
+        <v>122.09967</v>
+      </c>
+      <c r="H39">
+        <v>123.10303</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>2983867</v>
+      </c>
+      <c r="D40">
+        <v>6092442</v>
+      </c>
+      <c r="E40">
+        <v>7802845</v>
+      </c>
+      <c r="F40">
+        <v>4921003</v>
+      </c>
+      <c r="G40">
+        <v>1116692</v>
+      </c>
+      <c r="H40">
+        <v>99000</v>
+      </c>
+      <c r="I40">
+        <v>23015849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>3290448</v>
+      </c>
+      <c r="D41">
+        <v>6709086</v>
+      </c>
+      <c r="E41">
+        <v>8770011</v>
+      </c>
+      <c r="F41">
+        <v>5547353</v>
+      </c>
+      <c r="G41">
+        <v>1162706</v>
+      </c>
+      <c r="H41">
+        <v>102013</v>
+      </c>
+      <c r="I41">
+        <v>25581617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>3719117</v>
+      </c>
+      <c r="D42">
+        <v>7301882</v>
+      </c>
+      <c r="E42">
+        <v>9470697</v>
+      </c>
+      <c r="F42">
+        <v>6171859</v>
+      </c>
+      <c r="G42">
+        <v>1350152</v>
+      </c>
+      <c r="H42">
+        <v>114769</v>
+      </c>
+      <c r="I42">
+        <v>28128475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>116.0706</v>
+      </c>
+      <c r="D45">
+        <v>117.07396</v>
+      </c>
+      <c r="E45">
+        <v>118.07731</v>
+      </c>
+      <c r="F45">
+        <v>119.08067</v>
+      </c>
+      <c r="G45">
+        <v>120.08402</v>
+      </c>
+      <c r="H45">
+        <v>121.08738</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>1997136</v>
+      </c>
+      <c r="D46">
+        <v>10942590</v>
+      </c>
+      <c r="E46">
+        <v>29372330</v>
+      </c>
+      <c r="F46">
+        <v>21695070</v>
+      </c>
+      <c r="G46">
+        <v>4765646</v>
+      </c>
+      <c r="H46">
+        <v>404491</v>
+      </c>
+      <c r="I46">
+        <v>69177258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>1757609</v>
+      </c>
+      <c r="D47">
+        <v>9589674</v>
+      </c>
+      <c r="E47">
+        <v>23531090</v>
+      </c>
+      <c r="F47">
+        <v>17648800</v>
+      </c>
+      <c r="G47">
+        <v>3776677</v>
+      </c>
+      <c r="H47">
+        <v>307000</v>
+      </c>
+      <c r="I47">
+        <v>56610846</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>1661084</v>
+      </c>
+      <c r="D48">
+        <v>9063484</v>
+      </c>
+      <c r="E48">
+        <v>24566010</v>
+      </c>
+      <c r="F48">
+        <v>18529480</v>
+      </c>
+      <c r="G48">
+        <v>3997478</v>
+      </c>
+      <c r="H48">
+        <v>339032</v>
+      </c>
+      <c r="I48">
+        <v>58156573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>120.06552000000001</v>
+      </c>
+      <c r="D51">
+        <v>121.06887</v>
+      </c>
+      <c r="E51">
+        <v>122.07223</v>
+      </c>
+      <c r="F51">
+        <v>123.07558</v>
+      </c>
+      <c r="G51">
+        <v>124.07894</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>413063</v>
+      </c>
+      <c r="D52">
+        <v>1992578</v>
+      </c>
+      <c r="E52">
+        <v>3124972</v>
+      </c>
+      <c r="F52">
+        <v>2289943</v>
+      </c>
+      <c r="G52">
+        <v>276908</v>
+      </c>
+      <c r="H52">
+        <v>8097463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>386070</v>
+      </c>
+      <c r="D53">
+        <v>1786318</v>
+      </c>
+      <c r="E53">
+        <v>2811434</v>
+      </c>
+      <c r="F53">
+        <v>2008402</v>
+      </c>
+      <c r="G53">
+        <v>230629</v>
+      </c>
+      <c r="H53">
+        <v>7222852</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>384624</v>
+      </c>
+      <c r="D54">
+        <v>1861104</v>
+      </c>
+      <c r="E54">
+        <v>2910807</v>
+      </c>
+      <c r="F54">
+        <v>2163166</v>
+      </c>
+      <c r="G54">
+        <v>286846</v>
+      </c>
+      <c r="H54">
+        <v>7606546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>90.054950000000005</v>
+      </c>
+      <c r="D57">
+        <v>91.058310000000006</v>
+      </c>
+      <c r="E57">
+        <v>92.061660000000003</v>
+      </c>
+      <c r="F57">
+        <v>93.065020000000004</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58">
+        <v>602622</v>
+      </c>
+      <c r="D58">
+        <v>1262747</v>
+      </c>
+      <c r="E58">
+        <v>1353827</v>
+      </c>
+      <c r="F58">
+        <v>238326</v>
+      </c>
+      <c r="G58">
+        <v>3457522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>507612</v>
+      </c>
+      <c r="D59">
+        <v>1130054</v>
+      </c>
+      <c r="E59">
+        <v>1208512</v>
+      </c>
+      <c r="F59">
+        <v>198512</v>
+      </c>
+      <c r="G59">
+        <v>3044690</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>522417</v>
+      </c>
+      <c r="D60">
+        <v>1100846</v>
+      </c>
+      <c r="E60">
+        <v>1206078</v>
+      </c>
+      <c r="F60">
+        <v>200773</v>
+      </c>
+      <c r="G60">
+        <v>3030114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>76.039299999999997</v>
+      </c>
+      <c r="D63">
+        <v>77.042659999999998</v>
+      </c>
+      <c r="E63">
+        <v>78.046009999999995</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>24145</v>
+      </c>
+      <c r="D64">
+        <v>56328</v>
+      </c>
+      <c r="E64">
+        <v>42823</v>
+      </c>
+      <c r="F64">
+        <v>123296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>22764</v>
+      </c>
+      <c r="D65">
+        <v>51630</v>
+      </c>
+      <c r="E65">
+        <v>44412</v>
+      </c>
+      <c r="F65">
+        <v>118807</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66">
+        <v>26157</v>
+      </c>
+      <c r="D66">
+        <v>44323</v>
+      </c>
+      <c r="E66">
+        <v>40262</v>
+      </c>
+      <c r="F66">
+        <v>110742</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>106.04987</v>
+      </c>
+      <c r="D69">
+        <v>107.05322</v>
+      </c>
+      <c r="E69">
+        <v>108.05658</v>
+      </c>
+      <c r="F69">
+        <v>109.05992999999999</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70">
+        <v>527515</v>
+      </c>
+      <c r="D70">
+        <v>1048777</v>
+      </c>
+      <c r="E70">
+        <v>949742</v>
+      </c>
+      <c r="F70">
+        <v>161907</v>
+      </c>
+      <c r="G70">
+        <v>2687940</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71">
+        <v>504688</v>
+      </c>
+      <c r="D71">
+        <v>1071287</v>
+      </c>
+      <c r="E71">
+        <v>948853</v>
+      </c>
+      <c r="F71">
+        <v>156709</v>
+      </c>
+      <c r="G71">
+        <v>2681536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72">
+        <v>573025</v>
+      </c>
+      <c r="D72">
+        <v>1103292</v>
+      </c>
+      <c r="E72">
+        <v>1035137</v>
+      </c>
+      <c r="F72">
+        <v>169746</v>
+      </c>
+      <c r="G72">
+        <v>2881200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>148.06043</v>
+      </c>
+      <c r="D75">
+        <v>149.06379000000001</v>
+      </c>
+      <c r="E75">
+        <v>150.06713999999999</v>
+      </c>
+      <c r="F75">
+        <v>151.07050000000001</v>
+      </c>
+      <c r="G75">
+        <v>152.07384999999999</v>
+      </c>
+      <c r="H75">
+        <v>153.07721000000001</v>
+      </c>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76">
+        <v>1369779</v>
+      </c>
+      <c r="D76">
+        <v>7756767</v>
+      </c>
+      <c r="E76">
+        <v>22058780</v>
+      </c>
+      <c r="F76">
+        <v>15731630</v>
+      </c>
+      <c r="G76">
+        <v>3669463</v>
+      </c>
+      <c r="H76">
+        <v>351256</v>
+      </c>
+      <c r="I76">
+        <v>50937680</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77">
+        <v>1475837</v>
+      </c>
+      <c r="D77">
+        <v>8098094</v>
+      </c>
+      <c r="E77">
+        <v>21627430</v>
+      </c>
+      <c r="F77">
+        <v>15214030</v>
+      </c>
+      <c r="G77">
+        <v>3359977</v>
+      </c>
+      <c r="H77">
+        <v>314610</v>
+      </c>
+      <c r="I77">
+        <v>50089977</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>1336059</v>
+      </c>
+      <c r="D78">
+        <v>6846287</v>
+      </c>
+      <c r="E78">
+        <v>21051480</v>
+      </c>
+      <c r="F78">
+        <v>14993910</v>
+      </c>
+      <c r="G78">
+        <v>3467995</v>
+      </c>
+      <c r="H78">
+        <v>331491</v>
+      </c>
+      <c r="I78">
+        <v>48027220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>133.06076999999999</v>
+      </c>
+      <c r="D81">
+        <v>134.06412</v>
+      </c>
+      <c r="E81">
+        <v>135.06747999999999</v>
+      </c>
+      <c r="F81">
+        <v>136.07083</v>
+      </c>
+      <c r="G81">
+        <v>137.07418999999999</v>
+      </c>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82">
+        <v>839068</v>
+      </c>
+      <c r="D82">
+        <v>205307</v>
+      </c>
+      <c r="E82">
+        <v>21433</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1065807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83">
+        <v>819029</v>
+      </c>
+      <c r="D83">
+        <v>183097</v>
+      </c>
+      <c r="E83">
+        <v>18486</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1020612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84">
+        <v>809988</v>
+      </c>
+      <c r="D84">
+        <v>189242</v>
+      </c>
+      <c r="E84">
+        <v>23700</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1022930</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>134.04478</v>
+      </c>
+      <c r="D87">
+        <v>135.04813999999999</v>
+      </c>
+      <c r="E87">
+        <v>136.05149</v>
+      </c>
+      <c r="F87">
+        <v>137.05484999999999</v>
+      </c>
+      <c r="G87">
+        <v>138.0582</v>
+      </c>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88">
+        <v>500835</v>
+      </c>
+      <c r="D88">
+        <v>2382854</v>
+      </c>
+      <c r="E88">
+        <v>4024802</v>
+      </c>
+      <c r="F88">
+        <v>3026666</v>
+      </c>
+      <c r="G88">
+        <v>438073</v>
+      </c>
+      <c r="H88">
+        <v>10373230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89">
+        <v>520605</v>
+      </c>
+      <c r="D89">
+        <v>2326592</v>
+      </c>
+      <c r="E89">
+        <v>4049611</v>
+      </c>
+      <c r="F89">
+        <v>2909066</v>
+      </c>
+      <c r="G89">
+        <v>426687</v>
+      </c>
+      <c r="H89">
+        <v>10232560</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>501717</v>
+      </c>
+      <c r="D90">
+        <v>2366657</v>
+      </c>
+      <c r="E90">
+        <v>4024957</v>
+      </c>
+      <c r="F90">
+        <v>3050824</v>
+      </c>
+      <c r="G90">
+        <v>448811</v>
+      </c>
+      <c r="H90">
+        <v>10392965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s">
+        <v>73</v>
+      </c>
+      <c r="I91" t="s">
+        <v>73</v>
+      </c>
+      <c r="J91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" t="s">
+        <v>43</v>
+      </c>
+      <c r="I92" t="s">
+        <v>44</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>156.07675</v>
+      </c>
+      <c r="D93">
+        <v>157.08010999999999</v>
+      </c>
+      <c r="E93">
+        <v>158.08346</v>
+      </c>
+      <c r="F93">
+        <v>159.08681999999999</v>
+      </c>
+      <c r="G93">
+        <v>160.09017</v>
+      </c>
+      <c r="H93">
+        <v>161.09352999999999</v>
+      </c>
+      <c r="I93">
+        <v>162.09688</v>
+      </c>
+      <c r="J93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94">
+        <v>3092871</v>
+      </c>
+      <c r="D94">
+        <v>9692605</v>
+      </c>
+      <c r="E94">
+        <v>16957970</v>
+      </c>
+      <c r="F94">
+        <v>16880330</v>
+      </c>
+      <c r="G94">
+        <v>8302599</v>
+      </c>
+      <c r="H94">
+        <v>2107666</v>
+      </c>
+      <c r="I94">
+        <v>221673</v>
+      </c>
+      <c r="J94">
+        <v>57255715</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>2987303</v>
+      </c>
+      <c r="D95">
+        <v>9399014</v>
+      </c>
+      <c r="E95">
+        <v>16822020</v>
+      </c>
+      <c r="F95">
+        <v>16690010</v>
+      </c>
+      <c r="G95">
+        <v>7969411</v>
+      </c>
+      <c r="H95">
+        <v>1960793</v>
+      </c>
+      <c r="I95">
+        <v>192318</v>
+      </c>
+      <c r="J95">
+        <v>56020873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96">
+        <v>3199301</v>
+      </c>
+      <c r="D96">
+        <v>9582573</v>
+      </c>
+      <c r="E96">
+        <v>16676340</v>
+      </c>
+      <c r="F96">
+        <v>17137830</v>
+      </c>
+      <c r="G96">
+        <v>8139053</v>
+      </c>
+      <c r="H96">
+        <v>2098565</v>
+      </c>
+      <c r="I96">
+        <v>224027</v>
+      </c>
+      <c r="J96">
+        <v>57057688</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" t="s">
+        <v>75</v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s">
+        <v>75</v>
+      </c>
+      <c r="I97" t="s">
+        <v>75</v>
+      </c>
+      <c r="J97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" t="s">
+        <v>43</v>
+      </c>
+      <c r="I98" t="s">
+        <v>44</v>
+      </c>
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99">
+        <v>175.11895000000001</v>
+      </c>
+      <c r="D99">
+        <v>176.12231</v>
+      </c>
+      <c r="E99">
+        <v>177.12566000000001</v>
+      </c>
+      <c r="F99">
+        <v>178.12902</v>
+      </c>
+      <c r="G99">
+        <v>179.13237000000001</v>
+      </c>
+      <c r="H99">
+        <v>180.13573</v>
+      </c>
+      <c r="I99">
+        <v>181.13908000000001</v>
+      </c>
+      <c r="J99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100">
+        <v>1078941</v>
+      </c>
+      <c r="D100">
+        <v>3400051</v>
+      </c>
+      <c r="E100">
+        <v>14549150</v>
+      </c>
+      <c r="F100">
+        <v>27603700</v>
+      </c>
+      <c r="G100">
+        <v>17001030</v>
+      </c>
+      <c r="H100">
+        <v>3756819</v>
+      </c>
+      <c r="I100">
+        <v>344258</v>
+      </c>
+      <c r="J100">
+        <v>67733955</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101">
+        <v>1192830</v>
+      </c>
+      <c r="D101">
+        <v>3541138</v>
+      </c>
+      <c r="E101">
+        <v>14268140</v>
+      </c>
+      <c r="F101">
+        <v>25907270</v>
+      </c>
+      <c r="G101">
+        <v>15657120</v>
+      </c>
+      <c r="H101">
+        <v>3293557</v>
+      </c>
+      <c r="I101">
+        <v>295697</v>
+      </c>
+      <c r="J101">
+        <v>64155745</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <v>1180236</v>
+      </c>
+      <c r="D102">
+        <v>2949230</v>
+      </c>
+      <c r="E102">
+        <v>12648330</v>
+      </c>
+      <c r="F102">
+        <v>24608230</v>
+      </c>
+      <c r="G102">
+        <v>15173970</v>
+      </c>
+      <c r="H102">
+        <v>3290759</v>
+      </c>
+      <c r="I102">
+        <v>304435</v>
+      </c>
+      <c r="J102">
+        <v>60155189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" t="s">
+        <v>77</v>
+      </c>
+      <c r="E103" t="s">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" t="s">
+        <v>43</v>
+      </c>
+      <c r="I104" t="s">
+        <v>44</v>
+      </c>
+      <c r="J104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>147.11279999999999</v>
+      </c>
+      <c r="D105">
+        <v>148.11616000000001</v>
+      </c>
+      <c r="E105">
+        <v>149.11950999999999</v>
+      </c>
+      <c r="F105">
+        <v>150.12287000000001</v>
+      </c>
+      <c r="G105">
+        <v>151.12621999999999</v>
+      </c>
+      <c r="H105">
+        <v>152.12958</v>
+      </c>
+      <c r="I105">
+        <v>153.13292999999999</v>
+      </c>
+      <c r="J105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106">
+        <v>1893954</v>
+      </c>
+      <c r="D106">
+        <v>11377870</v>
+      </c>
+      <c r="E106">
+        <v>24398200</v>
+      </c>
+      <c r="F106">
+        <v>27722670</v>
+      </c>
+      <c r="G106">
+        <v>14885240</v>
+      </c>
+      <c r="H106">
+        <v>3281929</v>
+      </c>
+      <c r="I106">
+        <v>282122</v>
+      </c>
+      <c r="J106">
+        <v>83841985</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107">
+        <v>1907565</v>
+      </c>
+      <c r="D107">
+        <v>10758380</v>
+      </c>
+      <c r="E107">
+        <v>23397980</v>
+      </c>
+      <c r="F107">
+        <v>26473130</v>
+      </c>
+      <c r="G107">
+        <v>14330770</v>
+      </c>
+      <c r="H107">
+        <v>2954188</v>
+      </c>
+      <c r="I107">
+        <v>247021</v>
+      </c>
+      <c r="J107">
+        <v>80069036</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108">
+        <v>1792734</v>
+      </c>
+      <c r="D108">
+        <v>10416470</v>
+      </c>
+      <c r="E108">
+        <v>21377250</v>
+      </c>
+      <c r="F108">
+        <v>24178070</v>
+      </c>
+      <c r="G108">
+        <v>13605290</v>
+      </c>
+      <c r="H108">
+        <v>2926392</v>
+      </c>
+      <c r="I108">
+        <v>250150</v>
+      </c>
+      <c r="J108">
+        <v>74546357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AED07-3647-944B-BE68-722308862AE3}">
+  <dimension ref="A1:M108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>122.02703</v>
+      </c>
+      <c r="D3">
+        <v>123.03037999999999</v>
+      </c>
+      <c r="E3">
+        <v>124.03373999999999</v>
+      </c>
+      <c r="F3">
+        <v>125.03709000000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <f>data_format!C4/data_format!$G$4</f>
+        <v>0.53773057574063721</v>
+      </c>
+      <c r="D4">
+        <f>data_format!D4/data_format!$G$4</f>
+        <v>0.46254891000558973</v>
+      </c>
+      <c r="E4">
+        <f>data_format!E4/data_format!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>data_format!F4/data_format!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f>data_format!C5/data_format!$G$4</f>
+        <v>2.2280603689211849</v>
+      </c>
+      <c r="D5">
+        <f>data_format!D5/data_format!$G$4</f>
+        <v>1.7079373951928452</v>
+      </c>
+      <c r="E5">
+        <f>data_format!E5/data_format!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>data_format!F5/data_format!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>14083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <f>data_format!C6/data_format!$G$4</f>
+        <v>0.88792621576299613</v>
+      </c>
+      <c r="D6">
+        <f>data_format!D6/data_format!$G$4</f>
+        <v>1.1187814421464506</v>
+      </c>
+      <c r="E6">
+        <f>data_format!E6/data_format!$G$4</f>
+        <v>1.2171604248183343</v>
+      </c>
+      <c r="F6">
+        <f>data_format!F6/data_format!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>11535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>166.08626000000001</v>
+      </c>
+      <c r="D9">
+        <v>167.08960999999999</v>
+      </c>
+      <c r="E9">
+        <v>168.09296000000001</v>
+      </c>
+      <c r="F9">
+        <v>169.09631999999999</v>
+      </c>
+      <c r="G9">
+        <v>170.09967</v>
+      </c>
+      <c r="H9">
+        <v>171.10302999999999</v>
+      </c>
+      <c r="I9">
+        <v>172.10638</v>
+      </c>
+      <c r="J9">
+        <v>173.10973999999999</v>
+      </c>
+      <c r="K9">
+        <v>174.11309</v>
+      </c>
+      <c r="L9">
+        <v>175.11644999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3527777</v>
+      </c>
+      <c r="E10">
+        <v>8998945</v>
+      </c>
+      <c r="F10">
+        <v>15263410</v>
+      </c>
+      <c r="G10">
+        <v>18761130</v>
+      </c>
+      <c r="H10">
+        <v>14140160</v>
+      </c>
+      <c r="I10">
+        <v>6220892</v>
+      </c>
+      <c r="J10">
+        <v>1445611</v>
+      </c>
+      <c r="K10">
+        <v>206261</v>
+      </c>
+      <c r="L10">
+        <v>19753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2957832</v>
+      </c>
+      <c r="E11">
+        <v>8150306</v>
+      </c>
+      <c r="F11">
+        <v>14460460</v>
+      </c>
+      <c r="G11">
+        <v>17806720</v>
+      </c>
+      <c r="H11">
+        <v>13266000</v>
+      </c>
+      <c r="I11">
+        <v>5687514</v>
+      </c>
+      <c r="J11">
+        <v>1251757</v>
+      </c>
+      <c r="K11">
+        <v>164223</v>
+      </c>
+      <c r="L11">
+        <v>13022</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>431550</v>
+      </c>
+      <c r="D12">
+        <v>961270</v>
+      </c>
+      <c r="E12">
+        <v>2619946</v>
+      </c>
+      <c r="F12">
+        <v>4656433</v>
+      </c>
+      <c r="G12">
+        <v>5761429</v>
+      </c>
+      <c r="H12">
+        <v>4246544</v>
+      </c>
+      <c r="I12">
+        <v>1839766</v>
+      </c>
+      <c r="J12">
+        <v>436694</v>
+      </c>
+      <c r="K12">
+        <v>59128</v>
+      </c>
+      <c r="L12">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>132.10191</v>
+      </c>
+      <c r="D15">
+        <v>133.10525999999999</v>
+      </c>
+      <c r="E15">
+        <v>134.10861</v>
+      </c>
+      <c r="F15">
+        <v>135.11197000000001</v>
+      </c>
+      <c r="G15">
+        <v>136.11532</v>
+      </c>
+      <c r="H15">
+        <v>137.11868000000001</v>
+      </c>
+      <c r="I15">
+        <v>138.12203</v>
+      </c>
+      <c r="J15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16">
+        <v>2347755</v>
+      </c>
+      <c r="D16">
+        <v>12032620</v>
+      </c>
+      <c r="E16">
+        <v>18382420</v>
+      </c>
+      <c r="F16">
+        <v>12804240</v>
+      </c>
+      <c r="G16">
+        <v>3689185</v>
+      </c>
+      <c r="H16">
+        <v>550416</v>
+      </c>
+      <c r="I16">
+        <v>44176</v>
+      </c>
+      <c r="J16">
+        <v>49850806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>2438619</v>
+      </c>
+      <c r="D17">
+        <v>12388390</v>
+      </c>
+      <c r="E17">
+        <v>19285830</v>
+      </c>
+      <c r="F17">
+        <v>13251000</v>
+      </c>
+      <c r="G17">
+        <v>3642235</v>
+      </c>
+      <c r="H17">
+        <v>520231</v>
+      </c>
+      <c r="I17">
+        <v>36018</v>
+      </c>
+      <c r="J17">
+        <v>51562314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>2652480</v>
+      </c>
+      <c r="D18">
+        <v>13880940</v>
+      </c>
+      <c r="E18">
+        <v>19828530</v>
+      </c>
+      <c r="F18">
+        <v>15021240</v>
+      </c>
+      <c r="G18">
+        <v>4197435</v>
+      </c>
+      <c r="H18">
+        <v>613288</v>
+      </c>
+      <c r="I18">
+        <v>45589</v>
+      </c>
+      <c r="J18">
+        <v>56239497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>132.10191</v>
+      </c>
+      <c r="D21">
+        <v>133.10525999999999</v>
+      </c>
+      <c r="E21">
+        <v>134.10861</v>
+      </c>
+      <c r="F21">
+        <v>135.11197000000001</v>
+      </c>
+      <c r="G21">
+        <v>136.11532</v>
+      </c>
+      <c r="H21">
+        <v>137.11868000000001</v>
+      </c>
+      <c r="I21">
+        <v>138.12203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>2670348</v>
+      </c>
+      <c r="D22">
+        <v>14155150</v>
+      </c>
+      <c r="E22">
+        <v>22310140</v>
+      </c>
+      <c r="F22">
+        <v>17149360</v>
+      </c>
+      <c r="G22">
+        <v>5899627</v>
+      </c>
+      <c r="H22">
+        <v>976257</v>
+      </c>
+      <c r="I22">
+        <v>83086</v>
+      </c>
+      <c r="J22">
+        <v>63243958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>2718460</v>
+      </c>
+      <c r="D23">
+        <v>14434720</v>
+      </c>
+      <c r="E23">
+        <v>23639440</v>
+      </c>
+      <c r="F23">
+        <v>18407770</v>
+      </c>
+      <c r="G23">
+        <v>6170211</v>
+      </c>
+      <c r="H23">
+        <v>965480</v>
+      </c>
+      <c r="I23">
+        <v>81475</v>
+      </c>
+      <c r="J23">
+        <v>66417557</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>2617092</v>
+      </c>
+      <c r="D24">
+        <v>14168670</v>
+      </c>
+      <c r="E24">
+        <v>22503870</v>
+      </c>
+      <c r="F24">
+        <v>17626920</v>
+      </c>
+      <c r="G24">
+        <v>5971599</v>
+      </c>
+      <c r="H24">
+        <v>960292</v>
+      </c>
+      <c r="I24">
+        <v>80407</v>
+      </c>
+      <c r="J24">
+        <v>63928852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>150.05833000000001</v>
+      </c>
+      <c r="D27">
+        <v>151.06168</v>
+      </c>
+      <c r="E27">
+        <v>152.06504000000001</v>
+      </c>
+      <c r="F27">
+        <v>153.06838999999999</v>
+      </c>
+      <c r="G27">
+        <v>154.07175000000001</v>
+      </c>
+      <c r="H27">
+        <v>155.07509999999999</v>
+      </c>
+      <c r="I27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>446967</v>
+      </c>
+      <c r="D28">
+        <v>2367643</v>
+      </c>
+      <c r="E28">
+        <v>4097452</v>
+      </c>
+      <c r="F28">
+        <v>3220225</v>
+      </c>
+      <c r="G28">
+        <v>803027</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10935312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>306867</v>
+      </c>
+      <c r="D29">
+        <v>1471179</v>
+      </c>
+      <c r="E29">
+        <v>2601598</v>
+      </c>
+      <c r="F29">
+        <v>1987759</v>
+      </c>
+      <c r="G29">
+        <v>495831</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6863233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>490001</v>
+      </c>
+      <c r="D30">
+        <v>2524356</v>
+      </c>
+      <c r="E30">
+        <v>4486508</v>
+      </c>
+      <c r="F30">
+        <v>3457144</v>
+      </c>
+      <c r="G30">
+        <v>853365</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>11811373</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L31" t="s">
+        <v>53</v>
+      </c>
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>47</v>
+      </c>
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>182.08116999999999</v>
+      </c>
+      <c r="D33">
+        <v>183.08452</v>
+      </c>
+      <c r="E33">
+        <v>184.08788000000001</v>
+      </c>
+      <c r="F33">
+        <v>185.09123</v>
+      </c>
+      <c r="G33">
+        <v>186.09459000000001</v>
+      </c>
+      <c r="H33">
+        <v>187.09793999999999</v>
+      </c>
+      <c r="I33">
+        <v>188.10130000000001</v>
+      </c>
+      <c r="J33">
+        <v>189.10464999999999</v>
+      </c>
+      <c r="K33">
+        <v>190.10801000000001</v>
+      </c>
+      <c r="L33">
+        <v>191.11135999999999</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>103765</v>
+      </c>
+      <c r="D34">
+        <v>244850</v>
+      </c>
+      <c r="E34">
+        <v>688256</v>
+      </c>
+      <c r="F34">
+        <v>1137937</v>
+      </c>
+      <c r="G34">
+        <v>1389528</v>
+      </c>
+      <c r="H34">
+        <v>1111153</v>
+      </c>
+      <c r="I34">
+        <v>507656</v>
+      </c>
+      <c r="J34">
+        <v>138069</v>
+      </c>
+      <c r="K34">
+        <v>20136</v>
+      </c>
+      <c r="L34">
+        <v>3157</v>
+      </c>
+      <c r="M34">
+        <v>5344508</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <v>150370</v>
+      </c>
+      <c r="D35">
+        <v>354229</v>
+      </c>
+      <c r="E35">
+        <v>987293</v>
+      </c>
+      <c r="F35">
+        <v>1765012</v>
+      </c>
+      <c r="G35">
+        <v>2126262</v>
+      </c>
+      <c r="H35">
+        <v>1650626</v>
+      </c>
+      <c r="I35">
+        <v>739475</v>
+      </c>
+      <c r="J35">
+        <v>194957</v>
+      </c>
+      <c r="K35">
+        <v>29523</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>7997747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>190902</v>
+      </c>
+      <c r="D36">
+        <v>399310</v>
+      </c>
+      <c r="E36">
+        <v>1059600</v>
+      </c>
+      <c r="F36">
+        <v>1810016</v>
+      </c>
+      <c r="G36">
+        <v>2208950</v>
+      </c>
+      <c r="H36">
+        <v>1806957</v>
+      </c>
+      <c r="I36">
+        <v>796940</v>
+      </c>
+      <c r="J36">
+        <v>223237</v>
+      </c>
+      <c r="K36">
+        <v>35451</v>
+      </c>
+      <c r="L36">
+        <v>4037</v>
+      </c>
+      <c r="M36">
+        <v>8535399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39">
+        <v>118.08626</v>
+      </c>
+      <c r="D39">
+        <v>119.08960999999999</v>
+      </c>
+      <c r="E39">
+        <v>120.09296000000001</v>
+      </c>
+      <c r="F39">
+        <v>121.09632000000001</v>
+      </c>
+      <c r="G39">
+        <v>122.09967</v>
+      </c>
+      <c r="H39">
+        <v>123.10303</v>
+      </c>
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>2983867</v>
+      </c>
+      <c r="D40">
+        <v>6092442</v>
+      </c>
+      <c r="E40">
+        <v>7802845</v>
+      </c>
+      <c r="F40">
+        <v>4921003</v>
+      </c>
+      <c r="G40">
+        <v>1116692</v>
+      </c>
+      <c r="H40">
+        <v>99000</v>
+      </c>
+      <c r="I40">
+        <v>23015849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41">
+        <v>3290448</v>
+      </c>
+      <c r="D41">
+        <v>6709086</v>
+      </c>
+      <c r="E41">
+        <v>8770011</v>
+      </c>
+      <c r="F41">
+        <v>5547353</v>
+      </c>
+      <c r="G41">
+        <v>1162706</v>
+      </c>
+      <c r="H41">
+        <v>102013</v>
+      </c>
+      <c r="I41">
+        <v>25581617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42">
+        <v>3719117</v>
+      </c>
+      <c r="D42">
+        <v>7301882</v>
+      </c>
+      <c r="E42">
+        <v>9470697</v>
+      </c>
+      <c r="F42">
+        <v>6171859</v>
+      </c>
+      <c r="G42">
+        <v>1350152</v>
+      </c>
+      <c r="H42">
+        <v>114769</v>
+      </c>
+      <c r="I42">
+        <v>28128475</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
+      </c>
+      <c r="H43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>42</v>
+      </c>
+      <c r="H44" t="s">
+        <v>43</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>116.0706</v>
+      </c>
+      <c r="D45">
+        <v>117.07396</v>
+      </c>
+      <c r="E45">
+        <v>118.07731</v>
+      </c>
+      <c r="F45">
+        <v>119.08067</v>
+      </c>
+      <c r="G45">
+        <v>120.08402</v>
+      </c>
+      <c r="H45">
+        <v>121.08738</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>1997136</v>
+      </c>
+      <c r="D46">
+        <v>10942590</v>
+      </c>
+      <c r="E46">
+        <v>29372330</v>
+      </c>
+      <c r="F46">
+        <v>21695070</v>
+      </c>
+      <c r="G46">
+        <v>4765646</v>
+      </c>
+      <c r="H46">
+        <v>404491</v>
+      </c>
+      <c r="I46">
+        <v>69177258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>1757609</v>
+      </c>
+      <c r="D47">
+        <v>9589674</v>
+      </c>
+      <c r="E47">
+        <v>23531090</v>
+      </c>
+      <c r="F47">
+        <v>17648800</v>
+      </c>
+      <c r="G47">
+        <v>3776677</v>
+      </c>
+      <c r="H47">
+        <v>307000</v>
+      </c>
+      <c r="I47">
+        <v>56610846</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>1661084</v>
+      </c>
+      <c r="D48">
+        <v>9063484</v>
+      </c>
+      <c r="E48">
+        <v>24566010</v>
+      </c>
+      <c r="F48">
+        <v>18529480</v>
+      </c>
+      <c r="G48">
+        <v>3997478</v>
+      </c>
+      <c r="H48">
+        <v>339032</v>
+      </c>
+      <c r="I48">
+        <v>58156573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51">
+        <v>120.06552000000001</v>
+      </c>
+      <c r="D51">
+        <v>121.06887</v>
+      </c>
+      <c r="E51">
+        <v>122.07223</v>
+      </c>
+      <c r="F51">
+        <v>123.07558</v>
+      </c>
+      <c r="G51">
+        <v>124.07894</v>
+      </c>
+      <c r="H51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>413063</v>
+      </c>
+      <c r="D52">
+        <v>1992578</v>
+      </c>
+      <c r="E52">
+        <v>3124972</v>
+      </c>
+      <c r="F52">
+        <v>2289943</v>
+      </c>
+      <c r="G52">
+        <v>276908</v>
+      </c>
+      <c r="H52">
+        <v>8097463</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53">
+        <v>386070</v>
+      </c>
+      <c r="D53">
+        <v>1786318</v>
+      </c>
+      <c r="E53">
+        <v>2811434</v>
+      </c>
+      <c r="F53">
+        <v>2008402</v>
+      </c>
+      <c r="G53">
+        <v>230629</v>
+      </c>
+      <c r="H53">
+        <v>7222852</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54">
+        <v>384624</v>
+      </c>
+      <c r="D54">
+        <v>1861104</v>
+      </c>
+      <c r="E54">
+        <v>2910807</v>
+      </c>
+      <c r="F54">
+        <v>2163166</v>
+      </c>
+      <c r="G54">
+        <v>286846</v>
+      </c>
+      <c r="H54">
+        <v>7606546</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F55" t="s">
+        <v>61</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>90.054950000000005</v>
+      </c>
+      <c r="D57">
+        <v>91.058310000000006</v>
+      </c>
+      <c r="E57">
+        <v>92.061660000000003</v>
+      </c>
+      <c r="F57">
+        <v>93.065020000000004</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58">
+        <v>602622</v>
+      </c>
+      <c r="D58">
+        <v>1262747</v>
+      </c>
+      <c r="E58">
+        <v>1353827</v>
+      </c>
+      <c r="F58">
+        <v>238326</v>
+      </c>
+      <c r="G58">
+        <v>3457522</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59">
+        <v>507612</v>
+      </c>
+      <c r="D59">
+        <v>1130054</v>
+      </c>
+      <c r="E59">
+        <v>1208512</v>
+      </c>
+      <c r="F59">
+        <v>198512</v>
+      </c>
+      <c r="G59">
+        <v>3044690</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>522417</v>
+      </c>
+      <c r="D60">
+        <v>1100846</v>
+      </c>
+      <c r="E60">
+        <v>1206078</v>
+      </c>
+      <c r="F60">
+        <v>200773</v>
+      </c>
+      <c r="G60">
+        <v>3030114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>76.039299999999997</v>
+      </c>
+      <c r="D63">
+        <v>77.042659999999998</v>
+      </c>
+      <c r="E63">
+        <v>78.046009999999995</v>
+      </c>
+      <c r="F63" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>24145</v>
+      </c>
+      <c r="D64">
+        <v>56328</v>
+      </c>
+      <c r="E64">
+        <v>42823</v>
+      </c>
+      <c r="F64">
+        <v>123296</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65">
+        <v>22764</v>
+      </c>
+      <c r="D65">
+        <v>51630</v>
+      </c>
+      <c r="E65">
+        <v>44412</v>
+      </c>
+      <c r="F65">
+        <v>118807</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66">
+        <v>26157</v>
+      </c>
+      <c r="D66">
+        <v>44323</v>
+      </c>
+      <c r="E66">
+        <v>40262</v>
+      </c>
+      <c r="F66">
+        <v>110742</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" t="s">
+        <v>65</v>
+      </c>
+      <c r="F67" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>65</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>106.04987</v>
+      </c>
+      <c r="D69">
+        <v>107.05322</v>
+      </c>
+      <c r="E69">
+        <v>108.05658</v>
+      </c>
+      <c r="F69">
+        <v>109.05992999999999</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C70">
+        <v>527515</v>
+      </c>
+      <c r="D70">
+        <v>1048777</v>
+      </c>
+      <c r="E70">
+        <v>949742</v>
+      </c>
+      <c r="F70">
+        <v>161907</v>
+      </c>
+      <c r="G70">
+        <v>2687940</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71">
+        <v>504688</v>
+      </c>
+      <c r="D71">
+        <v>1071287</v>
+      </c>
+      <c r="E71">
+        <v>948853</v>
+      </c>
+      <c r="F71">
+        <v>156709</v>
+      </c>
+      <c r="G71">
+        <v>2681536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72">
+        <v>573025</v>
+      </c>
+      <c r="D72">
+        <v>1103292</v>
+      </c>
+      <c r="E72">
+        <v>1035137</v>
+      </c>
+      <c r="F72">
+        <v>169746</v>
+      </c>
+      <c r="G72">
+        <v>2881200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" t="s">
+        <v>67</v>
+      </c>
+      <c r="C73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G73" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>67</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+      <c r="E74" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s">
+        <v>43</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>148.06043</v>
+      </c>
+      <c r="D75">
+        <v>149.06379000000001</v>
+      </c>
+      <c r="E75">
+        <v>150.06713999999999</v>
+      </c>
+      <c r="F75">
+        <v>151.07050000000001</v>
+      </c>
+      <c r="G75">
+        <v>152.07384999999999</v>
+      </c>
+      <c r="H75">
+        <v>153.07721000000001</v>
+      </c>
+      <c r="I75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76">
+        <v>1369779</v>
+      </c>
+      <c r="D76">
+        <v>7756767</v>
+      </c>
+      <c r="E76">
+        <v>22058780</v>
+      </c>
+      <c r="F76">
+        <v>15731630</v>
+      </c>
+      <c r="G76">
+        <v>3669463</v>
+      </c>
+      <c r="H76">
+        <v>351256</v>
+      </c>
+      <c r="I76">
+        <v>50937680</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77">
+        <v>1475837</v>
+      </c>
+      <c r="D77">
+        <v>8098094</v>
+      </c>
+      <c r="E77">
+        <v>21627430</v>
+      </c>
+      <c r="F77">
+        <v>15214030</v>
+      </c>
+      <c r="G77">
+        <v>3359977</v>
+      </c>
+      <c r="H77">
+        <v>314610</v>
+      </c>
+      <c r="I77">
+        <v>50089977</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78">
+        <v>1336059</v>
+      </c>
+      <c r="D78">
+        <v>6846287</v>
+      </c>
+      <c r="E78">
+        <v>21051480</v>
+      </c>
+      <c r="F78">
+        <v>14993910</v>
+      </c>
+      <c r="G78">
+        <v>3467995</v>
+      </c>
+      <c r="H78">
+        <v>331491</v>
+      </c>
+      <c r="I78">
+        <v>48027220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" t="s">
+        <v>69</v>
+      </c>
+      <c r="F79" t="s">
+        <v>69</v>
+      </c>
+      <c r="G79" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>42</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81">
+        <v>133.06076999999999</v>
+      </c>
+      <c r="D81">
+        <v>134.06412</v>
+      </c>
+      <c r="E81">
+        <v>135.06747999999999</v>
+      </c>
+      <c r="F81">
+        <v>136.07083</v>
+      </c>
+      <c r="G81">
+        <v>137.07418999999999</v>
+      </c>
+      <c r="H81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82">
+        <v>839068</v>
+      </c>
+      <c r="D82">
+        <v>205307</v>
+      </c>
+      <c r="E82">
+        <v>21433</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>1065807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83">
+        <v>819029</v>
+      </c>
+      <c r="D83">
+        <v>183097</v>
+      </c>
+      <c r="E83">
+        <v>18486</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>1020612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84">
+        <v>809988</v>
+      </c>
+      <c r="D84">
+        <v>189242</v>
+      </c>
+      <c r="E84">
+        <v>23700</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>1022930</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>71</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+      <c r="E86" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>42</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>134.04478</v>
+      </c>
+      <c r="D87">
+        <v>135.04813999999999</v>
+      </c>
+      <c r="E87">
+        <v>136.05149</v>
+      </c>
+      <c r="F87">
+        <v>137.05484999999999</v>
+      </c>
+      <c r="G87">
+        <v>138.0582</v>
+      </c>
+      <c r="H87" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" t="s">
+        <v>31</v>
+      </c>
+      <c r="C88">
+        <v>500835</v>
+      </c>
+      <c r="D88">
+        <v>2382854</v>
+      </c>
+      <c r="E88">
+        <v>4024802</v>
+      </c>
+      <c r="F88">
+        <v>3026666</v>
+      </c>
+      <c r="G88">
+        <v>438073</v>
+      </c>
+      <c r="H88">
+        <v>10373230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89">
+        <v>520605</v>
+      </c>
+      <c r="D89">
+        <v>2326592</v>
+      </c>
+      <c r="E89">
+        <v>4049611</v>
+      </c>
+      <c r="F89">
+        <v>2909066</v>
+      </c>
+      <c r="G89">
+        <v>426687</v>
+      </c>
+      <c r="H89">
+        <v>10232560</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>501717</v>
+      </c>
+      <c r="D90">
+        <v>2366657</v>
+      </c>
+      <c r="E90">
+        <v>4024957</v>
+      </c>
+      <c r="F90">
+        <v>3050824</v>
+      </c>
+      <c r="G90">
+        <v>448811</v>
+      </c>
+      <c r="H90">
+        <v>10392965</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" t="s">
+        <v>73</v>
+      </c>
+      <c r="D91" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" t="s">
+        <v>73</v>
+      </c>
+      <c r="G91" t="s">
+        <v>73</v>
+      </c>
+      <c r="H91" t="s">
+        <v>73</v>
+      </c>
+      <c r="I91" t="s">
+        <v>73</v>
+      </c>
+      <c r="J91" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>42</v>
+      </c>
+      <c r="H92" t="s">
+        <v>43</v>
+      </c>
+      <c r="I92" t="s">
+        <v>44</v>
+      </c>
+      <c r="J92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93">
+        <v>156.07675</v>
+      </c>
+      <c r="D93">
+        <v>157.08010999999999</v>
+      </c>
+      <c r="E93">
+        <v>158.08346</v>
+      </c>
+      <c r="F93">
+        <v>159.08681999999999</v>
+      </c>
+      <c r="G93">
+        <v>160.09017</v>
+      </c>
+      <c r="H93">
+        <v>161.09352999999999</v>
+      </c>
+      <c r="I93">
+        <v>162.09688</v>
+      </c>
+      <c r="J93" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" t="s">
+        <v>31</v>
+      </c>
+      <c r="C94">
+        <v>3092871</v>
+      </c>
+      <c r="D94">
+        <v>9692605</v>
+      </c>
+      <c r="E94">
+        <v>16957970</v>
+      </c>
+      <c r="F94">
+        <v>16880330</v>
+      </c>
+      <c r="G94">
+        <v>8302599</v>
+      </c>
+      <c r="H94">
+        <v>2107666</v>
+      </c>
+      <c r="I94">
+        <v>221673</v>
+      </c>
+      <c r="J94">
+        <v>57255715</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95">
+        <v>2987303</v>
+      </c>
+      <c r="D95">
+        <v>9399014</v>
+      </c>
+      <c r="E95">
+        <v>16822020</v>
+      </c>
+      <c r="F95">
+        <v>16690010</v>
+      </c>
+      <c r="G95">
+        <v>7969411</v>
+      </c>
+      <c r="H95">
+        <v>1960793</v>
+      </c>
+      <c r="I95">
+        <v>192318</v>
+      </c>
+      <c r="J95">
+        <v>56020873</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96">
+        <v>3199301</v>
+      </c>
+      <c r="D96">
+        <v>9582573</v>
+      </c>
+      <c r="E96">
+        <v>16676340</v>
+      </c>
+      <c r="F96">
+        <v>17137830</v>
+      </c>
+      <c r="G96">
+        <v>8139053</v>
+      </c>
+      <c r="H96">
+        <v>2098565</v>
+      </c>
+      <c r="I96">
+        <v>224027</v>
+      </c>
+      <c r="J96">
+        <v>57057688</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+      <c r="C97" t="s">
+        <v>75</v>
+      </c>
+      <c r="D97" t="s">
+        <v>75</v>
+      </c>
+      <c r="E97" t="s">
+        <v>75</v>
+      </c>
+      <c r="F97" t="s">
+        <v>75</v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s">
+        <v>75</v>
+      </c>
+      <c r="I97" t="s">
+        <v>75</v>
+      </c>
+      <c r="J97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>75</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>42</v>
+      </c>
+      <c r="H98" t="s">
+        <v>43</v>
+      </c>
+      <c r="I98" t="s">
+        <v>44</v>
+      </c>
+      <c r="J98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99">
+        <v>175.11895000000001</v>
+      </c>
+      <c r="D99">
+        <v>176.12231</v>
+      </c>
+      <c r="E99">
+        <v>177.12566000000001</v>
+      </c>
+      <c r="F99">
+        <v>178.12902</v>
+      </c>
+      <c r="G99">
+        <v>179.13237000000001</v>
+      </c>
+      <c r="H99">
+        <v>180.13573</v>
+      </c>
+      <c r="I99">
+        <v>181.13908000000001</v>
+      </c>
+      <c r="J99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100" t="s">
+        <v>31</v>
+      </c>
+      <c r="C100">
+        <v>1078941</v>
+      </c>
+      <c r="D100">
+        <v>3400051</v>
+      </c>
+      <c r="E100">
+        <v>14549150</v>
+      </c>
+      <c r="F100">
+        <v>27603700</v>
+      </c>
+      <c r="G100">
+        <v>17001030</v>
+      </c>
+      <c r="H100">
+        <v>3756819</v>
+      </c>
+      <c r="I100">
+        <v>344258</v>
+      </c>
+      <c r="J100">
+        <v>67733955</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101">
+        <v>1192830</v>
+      </c>
+      <c r="D101">
+        <v>3541138</v>
+      </c>
+      <c r="E101">
+        <v>14268140</v>
+      </c>
+      <c r="F101">
+        <v>25907270</v>
+      </c>
+      <c r="G101">
+        <v>15657120</v>
+      </c>
+      <c r="H101">
+        <v>3293557</v>
+      </c>
+      <c r="I101">
+        <v>295697</v>
+      </c>
+      <c r="J101">
+        <v>64155745</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <v>1180236</v>
+      </c>
+      <c r="D102">
+        <v>2949230</v>
+      </c>
+      <c r="E102">
+        <v>12648330</v>
+      </c>
+      <c r="F102">
+        <v>24608230</v>
+      </c>
+      <c r="G102">
+        <v>15173970</v>
+      </c>
+      <c r="H102">
+        <v>3290759</v>
+      </c>
+      <c r="I102">
+        <v>304435</v>
+      </c>
+      <c r="J102">
+        <v>60155189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>77</v>
+      </c>
+      <c r="C103" t="s">
+        <v>77</v>
+      </c>
+      <c r="D103" t="s">
+        <v>77</v>
+      </c>
+      <c r="E103" t="s">
+        <v>77</v>
+      </c>
+      <c r="F103" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>42</v>
+      </c>
+      <c r="H104" t="s">
+        <v>43</v>
+      </c>
+      <c r="I104" t="s">
+        <v>44</v>
+      </c>
+      <c r="J104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>147.11279999999999</v>
+      </c>
+      <c r="D105">
+        <v>148.11616000000001</v>
+      </c>
+      <c r="E105">
+        <v>149.11950999999999</v>
+      </c>
+      <c r="F105">
+        <v>150.12287000000001</v>
+      </c>
+      <c r="G105">
+        <v>151.12621999999999</v>
+      </c>
+      <c r="H105">
+        <v>152.12958</v>
+      </c>
+      <c r="I105">
+        <v>153.13292999999999</v>
+      </c>
+      <c r="J105" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>31</v>
+      </c>
+      <c r="C106">
+        <v>1893954</v>
+      </c>
+      <c r="D106">
+        <v>11377870</v>
+      </c>
+      <c r="E106">
+        <v>24398200</v>
+      </c>
+      <c r="F106">
+        <v>27722670</v>
+      </c>
+      <c r="G106">
+        <v>14885240</v>
+      </c>
+      <c r="H106">
+        <v>3281929</v>
+      </c>
+      <c r="I106">
+        <v>282122</v>
+      </c>
+      <c r="J106">
+        <v>83841985</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>32</v>
+      </c>
+      <c r="C107">
+        <v>1907565</v>
+      </c>
+      <c r="D107">
+        <v>10758380</v>
+      </c>
+      <c r="E107">
+        <v>23397980</v>
+      </c>
+      <c r="F107">
+        <v>26473130</v>
+      </c>
+      <c r="G107">
+        <v>14330770</v>
+      </c>
+      <c r="H107">
+        <v>2954188</v>
+      </c>
+      <c r="I107">
+        <v>247021</v>
+      </c>
+      <c r="J107">
+        <v>80069036</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108">
+        <v>1792734</v>
+      </c>
+      <c r="D108">
+        <v>10416470</v>
+      </c>
+      <c r="E108">
+        <v>21377250</v>
+      </c>
+      <c r="F108">
+        <v>24178070</v>
+      </c>
+      <c r="G108">
+        <v>13605290</v>
+      </c>
+      <c r="H108">
+        <v>2926392</v>
+      </c>
+      <c r="I108">
+        <v>250150</v>
+      </c>
+      <c r="J108">
+        <v>74546357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8967,7 +15180,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -8976,8 +15189,8 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <f>Aug2022Bicarb_AA_MFA_1!F195/Aug2022Bicarb_AA_MFA_1!L195</f>
-        <v>2.6891271844339985E-2</v>
+        <f>Aug2022Bicarb_AA_MFA_1!F225/Aug2022Bicarb_AA_MFA_1!K225</f>
+        <v>4.8281489950574699E-2</v>
       </c>
       <c r="E6">
         <v>0.01</v>
@@ -8985,7 +15198,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -8994,8 +15207,8 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <f>Aug2022Bicarb_AA_MFA_1!G195/Aug2022Bicarb_AA_MFA_1!L195</f>
-        <v>0.15227955022686546</v>
+        <f>Aug2022Bicarb_AA_MFA_1!G225/Aug2022Bicarb_AA_MFA_1!K225</f>
+        <v>0.22971186409633257</v>
       </c>
       <c r="E7">
         <v>0.01</v>
@@ -9003,7 +15216,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -9012,8 +15225,8 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <f>Aug2022Bicarb_AA_MFA_1!H195/Aug2022Bicarb_AA_MFA_1!L195</f>
-        <v>0.43305427337876401</v>
+        <f>Aug2022Bicarb_AA_MFA_1!H225/Aug2022Bicarb_AA_MFA_1!K225</f>
+        <v>0.38799891644164836</v>
       </c>
       <c r="E8">
         <v>0.01</v>
@@ -9021,7 +15234,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -9030,8 +15243,8 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <f>Aug2022Bicarb_AA_MFA_1!I195/Aug2022Bicarb_AA_MFA_1!L195</f>
-        <v>0.30884072458737816</v>
+        <f>Aug2022Bicarb_AA_MFA_1!I225/Aug2022Bicarb_AA_MFA_1!K225</f>
+        <v>0.29177662116814146</v>
       </c>
       <c r="E9">
         <v>0.01</v>
@@ -9039,17 +15252,17 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f>Aug2022Bicarb_AA_MFA_1!J195/Aug2022Bicarb_AA_MFA_1!L195</f>
-        <v>7.2038282858583269E-2</v>
+        <f>Aug2022Bicarb_AA_MFA_1!J225/Aug2022Bicarb_AA_MFA_1!K225</f>
+        <v>4.2231108343302903E-2</v>
       </c>
       <c r="E10">
         <v>0.01</v>
@@ -9060,107 +15273,142 @@
         <v>85</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>Aug2022Bicarb_AA_MFA_1!F195/Aug2022Bicarb_AA_MFA_1!L195</f>
+        <v>2.6891271844339985E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>Aug2022Bicarb_AA_MFA_1!G195/Aug2022Bicarb_AA_MFA_1!L195</f>
+        <v>0.15227955022686546</v>
+      </c>
+      <c r="E12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>Aug2022Bicarb_AA_MFA_1!H195/Aug2022Bicarb_AA_MFA_1!L195</f>
+        <v>0.43305427337876401</v>
+      </c>
+      <c r="E13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>Aug2022Bicarb_AA_MFA_1!I195/Aug2022Bicarb_AA_MFA_1!L195</f>
+        <v>0.30884072458737816</v>
+      </c>
+      <c r="E14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>Aug2022Bicarb_AA_MFA_1!J195/Aug2022Bicarb_AA_MFA_1!L195</f>
+        <v>7.2038282858583269E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C16">
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D16">
         <f>Aug2022Bicarb_AA_MFA_1!K195/Aug2022Bicarb_AA_MFA_1!L195</f>
         <v>6.8957989449067959E-3</v>
       </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <f>Aug2022Bicarb_AA_MFA_1!F225/Aug2022Bicarb_AA_MFA_1!K225</f>
-        <v>4.8281489950574699E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <f>Aug2022Bicarb_AA_MFA_1!G225/Aug2022Bicarb_AA_MFA_1!K225</f>
-        <v>0.22971186409633257</v>
-      </c>
-      <c r="E13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>Aug2022Bicarb_AA_MFA_1!H225/Aug2022Bicarb_AA_MFA_1!K225</f>
-        <v>0.38799891644164836</v>
-      </c>
-      <c r="E14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <f>Aug2022Bicarb_AA_MFA_1!I225/Aug2022Bicarb_AA_MFA_1!K225</f>
-        <v>0.29177662116814146</v>
-      </c>
-      <c r="E15">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>Aug2022Bicarb_AA_MFA_1!J225/Aug2022Bicarb_AA_MFA_1!K225</f>
-        <v>4.2231108343302903E-2</v>
-      </c>
       <c r="E16">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/data_elimosum/Aug2022Bicarb_AA_MFA_1.xlsx
+++ b/data_elimosum/Aug2022Bicarb_AA_MFA_1.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xoots/__Experiment_Data/Carbon-Flux-Team/data_elimosum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238264D5-9C93-5F4D-A4C2-2AE60DE83BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D3DB1C-9021-6742-BA98-6DC89368DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="1000" windowWidth="27240" windowHeight="15320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38300" yWindow="460" windowWidth="38300" windowHeight="19700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aug2022Bicarb_AA_MFA_1" sheetId="1" r:id="rId1"/>
     <sheet name="data_format" sheetId="4" r:id="rId2"/>
     <sheet name="data_MDV" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="mdv_avg" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="110">
   <si>
     <t>Cysteine</t>
   </si>
@@ -319,6 +321,54 @@
   <si>
     <t>Thr</t>
   </si>
+  <si>
+    <t>Ala[M-90]</t>
+  </si>
+  <si>
+    <t>Asp[M-134]</t>
+  </si>
+  <si>
+    <t>Glu[M-148]</t>
+  </si>
+  <si>
+    <t>Phe[M-166]</t>
+  </si>
+  <si>
+    <t>Gly[M-76]</t>
+  </si>
+  <si>
+    <t>Ile[M-132]</t>
+  </si>
+  <si>
+    <t>Ser[M-106]</t>
+  </si>
+  <si>
+    <t>Val[M-118]</t>
+  </si>
+  <si>
+    <t>Tyr[M-182]</t>
+  </si>
+  <si>
+    <t>Thr[M-120]</t>
+  </si>
+  <si>
+    <t>NEED TO CHECK LITERATURE FOR FRAGMENT IDS FOR FULL COMPOUND</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>m+</t>
+  </si>
+  <si>
+    <t>Isotopologue</t>
+  </si>
+  <si>
+    <t>mdv_avg</t>
+  </si>
+  <si>
+    <t>mdv_std</t>
+  </si>
 </sst>
 </file>
 
@@ -460,7 +510,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +690,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -801,8 +857,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1161,7 +1218,7 @@
   <dimension ref="A1:AD275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="P22" sqref="P22:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8894,12 +8951,12 @@
   <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M8" sqref="M8:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8919,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8939,7 +8996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8962,7 +9019,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8985,7 +9042,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -9008,7 +9065,7 @@
         <v>14083</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -9031,7 +9088,7 @@
         <v>11535</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -9069,7 +9126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -9103,8 +9160,11 @@
       <c r="L8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -9141,8 +9201,11 @@
       <c r="L9">
         <v>175.11644999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -9179,8 +9242,11 @@
       <c r="L10">
         <v>19753</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>68583942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -9217,8 +9283,11 @@
       <c r="L11">
         <v>13022</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>63757833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -9255,8 +9324,11 @@
       <c r="L12">
         <v>5124</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>21017881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -9288,7 +9360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -9317,7 +9389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -9349,7 +9421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -11983,11 +12055,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3AED07-3647-944B-BE68-722308862AE3}">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106:J108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12007,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12027,7 +12101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -12050,7 +12124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -12058,26 +12132,22 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <f>data_format!C4/data_format!$G$4</f>
-        <v>0.53773057574063721</v>
+        <v>1924</v>
       </c>
       <c r="D4">
-        <f>data_format!D4/data_format!$G$4</f>
-        <v>0.46254891000558973</v>
+        <v>1655</v>
       </c>
       <c r="E4">
-        <f>data_format!E4/data_format!$G$4</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>data_format!F4/data_format!$G$4</f>
         <v>0</v>
       </c>
       <c r="G4">
         <v>3578</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -12085,26 +12155,22 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <f>data_format!C5/data_format!$G$4</f>
-        <v>2.2280603689211849</v>
+        <v>7972</v>
       </c>
       <c r="D5">
-        <f>data_format!D5/data_format!$G$4</f>
-        <v>1.7079373951928452</v>
+        <v>6111</v>
       </c>
       <c r="E5">
-        <f>data_format!E5/data_format!$G$4</f>
         <v>0</v>
       </c>
       <c r="F5">
-        <f>data_format!F5/data_format!$G$4</f>
         <v>0</v>
       </c>
       <c r="G5">
         <v>14083</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -12112,26 +12178,22 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <f>data_format!C6/data_format!$G$4</f>
-        <v>0.88792621576299613</v>
+        <v>3177</v>
       </c>
       <c r="D6">
-        <f>data_format!D6/data_format!$G$4</f>
-        <v>1.1187814421464506</v>
+        <v>4003</v>
       </c>
       <c r="E6">
-        <f>data_format!E6/data_format!$G$4</f>
-        <v>1.2171604248183343</v>
+        <v>4355</v>
       </c>
       <c r="F6">
-        <f>data_format!F6/data_format!$G$4</f>
         <v>0</v>
       </c>
       <c r="G6">
         <v>11535</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -12169,7 +12231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -12203,8 +12265,11 @@
       <c r="L8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -12241,8 +12306,11 @@
       <c r="L9">
         <v>175.11644999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -12279,8 +12347,11 @@
       <c r="L10">
         <v>19753</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10">
+        <v>68583942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -12317,8 +12388,11 @@
       <c r="L11">
         <v>13022</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11">
+        <v>63757833</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -12355,8 +12429,11 @@
       <c r="L12">
         <v>5124</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12">
+        <v>21017881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -12388,7 +12465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -12417,7 +12494,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -12449,7 +12526,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -15080,11 +15157,7238 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DBD27F2-D3E1-7745-B958-0F36AD501DA8}">
+  <dimension ref="A2:BC95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:BC95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" t="s">
+        <v>48</v>
+      </c>
+      <c r="L36" t="s">
+        <v>48</v>
+      </c>
+      <c r="M36" t="s">
+        <v>48</v>
+      </c>
+      <c r="N36" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>53</v>
+      </c>
+      <c r="R36" t="s">
+        <v>53</v>
+      </c>
+      <c r="S36" t="s">
+        <v>53</v>
+      </c>
+      <c r="T36" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" t="s">
+        <v>57</v>
+      </c>
+      <c r="X36" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" t="s">
+        <v>32</v>
+      </c>
+      <c r="P37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" t="s">
+        <v>32</v>
+      </c>
+      <c r="S37" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" t="s">
+        <v>31</v>
+      </c>
+      <c r="U37" t="s">
+        <v>32</v>
+      </c>
+      <c r="V37" t="s">
+        <v>33</v>
+      </c>
+      <c r="W37" t="s">
+        <v>31</v>
+      </c>
+      <c r="X37" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB37" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>1924</v>
+      </c>
+      <c r="C38">
+        <v>7972</v>
+      </c>
+      <c r="D38">
+        <v>3177</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>431550</v>
+      </c>
+      <c r="H38">
+        <v>2347755</v>
+      </c>
+      <c r="I38">
+        <v>2438619</v>
+      </c>
+      <c r="J38">
+        <v>2652480</v>
+      </c>
+      <c r="K38">
+        <v>2670348</v>
+      </c>
+      <c r="L38">
+        <v>2718460</v>
+      </c>
+      <c r="M38">
+        <v>2617092</v>
+      </c>
+      <c r="N38">
+        <v>446967</v>
+      </c>
+      <c r="O38">
+        <v>306867</v>
+      </c>
+      <c r="P38">
+        <v>490001</v>
+      </c>
+      <c r="Q38">
+        <v>103765</v>
+      </c>
+      <c r="R38">
+        <v>150370</v>
+      </c>
+      <c r="S38">
+        <v>190902</v>
+      </c>
+      <c r="T38">
+        <v>2983867</v>
+      </c>
+      <c r="U38">
+        <v>3290448</v>
+      </c>
+      <c r="V38">
+        <v>3719117</v>
+      </c>
+      <c r="W38">
+        <v>1997136</v>
+      </c>
+      <c r="X38">
+        <v>1757609</v>
+      </c>
+      <c r="Y38">
+        <v>1661084</v>
+      </c>
+      <c r="Z38">
+        <v>413063</v>
+      </c>
+      <c r="AA38">
+        <v>386070</v>
+      </c>
+      <c r="AB38">
+        <v>384624</v>
+      </c>
+      <c r="AC38">
+        <v>602622</v>
+      </c>
+      <c r="AD38">
+        <v>507612</v>
+      </c>
+      <c r="AE38">
+        <v>522417</v>
+      </c>
+      <c r="AF38">
+        <v>24145</v>
+      </c>
+      <c r="AG38">
+        <v>22764</v>
+      </c>
+      <c r="AH38">
+        <v>26157</v>
+      </c>
+      <c r="AI38">
+        <v>527515</v>
+      </c>
+      <c r="AJ38">
+        <v>504688</v>
+      </c>
+      <c r="AK38">
+        <v>573025</v>
+      </c>
+      <c r="AL38">
+        <v>1369779</v>
+      </c>
+      <c r="AM38">
+        <v>1475837</v>
+      </c>
+      <c r="AN38">
+        <v>1336059</v>
+      </c>
+      <c r="AO38">
+        <v>839068</v>
+      </c>
+      <c r="AP38">
+        <v>819029</v>
+      </c>
+      <c r="AQ38">
+        <v>809988</v>
+      </c>
+      <c r="AR38">
+        <v>500835</v>
+      </c>
+      <c r="AS38">
+        <v>520605</v>
+      </c>
+      <c r="AT38">
+        <v>501717</v>
+      </c>
+      <c r="AU38">
+        <v>3092871</v>
+      </c>
+      <c r="AV38">
+        <v>2987303</v>
+      </c>
+      <c r="AW38">
+        <v>3199301</v>
+      </c>
+      <c r="AX38">
+        <v>1078941</v>
+      </c>
+      <c r="AY38">
+        <v>1192830</v>
+      </c>
+      <c r="AZ38">
+        <v>1180236</v>
+      </c>
+      <c r="BA38">
+        <v>1893954</v>
+      </c>
+      <c r="BB38">
+        <v>1907565</v>
+      </c>
+      <c r="BC38">
+        <v>1792734</v>
+      </c>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1655</v>
+      </c>
+      <c r="C39">
+        <v>6111</v>
+      </c>
+      <c r="D39">
+        <v>4003</v>
+      </c>
+      <c r="E39">
+        <v>3527777</v>
+      </c>
+      <c r="F39">
+        <v>2957832</v>
+      </c>
+      <c r="G39">
+        <v>961270</v>
+      </c>
+      <c r="H39">
+        <v>12032620</v>
+      </c>
+      <c r="I39">
+        <v>12388390</v>
+      </c>
+      <c r="J39">
+        <v>13880940</v>
+      </c>
+      <c r="K39">
+        <v>14155150</v>
+      </c>
+      <c r="L39">
+        <v>14434720</v>
+      </c>
+      <c r="M39">
+        <v>14168670</v>
+      </c>
+      <c r="N39">
+        <v>2367643</v>
+      </c>
+      <c r="O39">
+        <v>1471179</v>
+      </c>
+      <c r="P39">
+        <v>2524356</v>
+      </c>
+      <c r="Q39">
+        <v>244850</v>
+      </c>
+      <c r="R39">
+        <v>354229</v>
+      </c>
+      <c r="S39">
+        <v>399310</v>
+      </c>
+      <c r="T39">
+        <v>6092442</v>
+      </c>
+      <c r="U39">
+        <v>6709086</v>
+      </c>
+      <c r="V39">
+        <v>7301882</v>
+      </c>
+      <c r="W39">
+        <v>10942590</v>
+      </c>
+      <c r="X39">
+        <v>9589674</v>
+      </c>
+      <c r="Y39">
+        <v>9063484</v>
+      </c>
+      <c r="Z39">
+        <v>1992578</v>
+      </c>
+      <c r="AA39">
+        <v>1786318</v>
+      </c>
+      <c r="AB39">
+        <v>1861104</v>
+      </c>
+      <c r="AC39">
+        <v>1262747</v>
+      </c>
+      <c r="AD39">
+        <v>1130054</v>
+      </c>
+      <c r="AE39">
+        <v>1100846</v>
+      </c>
+      <c r="AF39">
+        <v>56328</v>
+      </c>
+      <c r="AG39">
+        <v>51630</v>
+      </c>
+      <c r="AH39">
+        <v>44323</v>
+      </c>
+      <c r="AI39">
+        <v>1048777</v>
+      </c>
+      <c r="AJ39">
+        <v>1071287</v>
+      </c>
+      <c r="AK39">
+        <v>1103292</v>
+      </c>
+      <c r="AL39">
+        <v>7756767</v>
+      </c>
+      <c r="AM39">
+        <v>8098094</v>
+      </c>
+      <c r="AN39">
+        <v>6846287</v>
+      </c>
+      <c r="AO39">
+        <v>205307</v>
+      </c>
+      <c r="AP39">
+        <v>183097</v>
+      </c>
+      <c r="AQ39">
+        <v>189242</v>
+      </c>
+      <c r="AR39">
+        <v>2382854</v>
+      </c>
+      <c r="AS39">
+        <v>2326592</v>
+      </c>
+      <c r="AT39">
+        <v>2366657</v>
+      </c>
+      <c r="AU39">
+        <v>9692605</v>
+      </c>
+      <c r="AV39">
+        <v>9399014</v>
+      </c>
+      <c r="AW39">
+        <v>9582573</v>
+      </c>
+      <c r="AX39">
+        <v>3400051</v>
+      </c>
+      <c r="AY39">
+        <v>3541138</v>
+      </c>
+      <c r="AZ39">
+        <v>2949230</v>
+      </c>
+      <c r="BA39">
+        <v>11377870</v>
+      </c>
+      <c r="BB39">
+        <v>10758380</v>
+      </c>
+      <c r="BC39">
+        <v>10416470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>4355</v>
+      </c>
+      <c r="E40">
+        <v>8998945</v>
+      </c>
+      <c r="F40">
+        <v>8150306</v>
+      </c>
+      <c r="G40">
+        <v>2619946</v>
+      </c>
+      <c r="H40">
+        <v>18382420</v>
+      </c>
+      <c r="I40">
+        <v>19285830</v>
+      </c>
+      <c r="J40">
+        <v>19828530</v>
+      </c>
+      <c r="K40">
+        <v>22310140</v>
+      </c>
+      <c r="L40">
+        <v>23639440</v>
+      </c>
+      <c r="M40">
+        <v>22503870</v>
+      </c>
+      <c r="N40">
+        <v>4097452</v>
+      </c>
+      <c r="O40">
+        <v>2601598</v>
+      </c>
+      <c r="P40">
+        <v>4486508</v>
+      </c>
+      <c r="Q40">
+        <v>688256</v>
+      </c>
+      <c r="R40">
+        <v>987293</v>
+      </c>
+      <c r="S40">
+        <v>1059600</v>
+      </c>
+      <c r="T40">
+        <v>7802845</v>
+      </c>
+      <c r="U40">
+        <v>8770011</v>
+      </c>
+      <c r="V40">
+        <v>9470697</v>
+      </c>
+      <c r="W40">
+        <v>29372330</v>
+      </c>
+      <c r="X40">
+        <v>23531090</v>
+      </c>
+      <c r="Y40">
+        <v>24566010</v>
+      </c>
+      <c r="Z40">
+        <v>3124972</v>
+      </c>
+      <c r="AA40">
+        <v>2811434</v>
+      </c>
+      <c r="AB40">
+        <v>2910807</v>
+      </c>
+      <c r="AC40">
+        <v>1353827</v>
+      </c>
+      <c r="AD40">
+        <v>1208512</v>
+      </c>
+      <c r="AE40">
+        <v>1206078</v>
+      </c>
+      <c r="AF40">
+        <v>42823</v>
+      </c>
+      <c r="AG40">
+        <v>44412</v>
+      </c>
+      <c r="AH40">
+        <v>40262</v>
+      </c>
+      <c r="AI40">
+        <v>949742</v>
+      </c>
+      <c r="AJ40">
+        <v>948853</v>
+      </c>
+      <c r="AK40">
+        <v>1035137</v>
+      </c>
+      <c r="AL40">
+        <v>22058780</v>
+      </c>
+      <c r="AM40">
+        <v>21627430</v>
+      </c>
+      <c r="AN40">
+        <v>21051480</v>
+      </c>
+      <c r="AO40">
+        <v>21433</v>
+      </c>
+      <c r="AP40">
+        <v>18486</v>
+      </c>
+      <c r="AQ40">
+        <v>23700</v>
+      </c>
+      <c r="AR40">
+        <v>4024802</v>
+      </c>
+      <c r="AS40">
+        <v>4049611</v>
+      </c>
+      <c r="AT40">
+        <v>4024957</v>
+      </c>
+      <c r="AU40">
+        <v>16957970</v>
+      </c>
+      <c r="AV40">
+        <v>16822020</v>
+      </c>
+      <c r="AW40">
+        <v>16676340</v>
+      </c>
+      <c r="AX40">
+        <v>14549150</v>
+      </c>
+      <c r="AY40">
+        <v>14268140</v>
+      </c>
+      <c r="AZ40">
+        <v>12648330</v>
+      </c>
+      <c r="BA40">
+        <v>24398200</v>
+      </c>
+      <c r="BB40">
+        <v>23397980</v>
+      </c>
+      <c r="BC40">
+        <v>21377250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>15263410</v>
+      </c>
+      <c r="F41">
+        <v>14460460</v>
+      </c>
+      <c r="G41">
+        <v>4656433</v>
+      </c>
+      <c r="H41">
+        <v>12804240</v>
+      </c>
+      <c r="I41">
+        <v>13251000</v>
+      </c>
+      <c r="J41">
+        <v>15021240</v>
+      </c>
+      <c r="K41">
+        <v>17149360</v>
+      </c>
+      <c r="L41">
+        <v>18407770</v>
+      </c>
+      <c r="M41">
+        <v>17626920</v>
+      </c>
+      <c r="N41">
+        <v>3220225</v>
+      </c>
+      <c r="O41">
+        <v>1987759</v>
+      </c>
+      <c r="P41">
+        <v>3457144</v>
+      </c>
+      <c r="Q41">
+        <v>1137937</v>
+      </c>
+      <c r="R41">
+        <v>1765012</v>
+      </c>
+      <c r="S41">
+        <v>1810016</v>
+      </c>
+      <c r="T41">
+        <v>4921003</v>
+      </c>
+      <c r="U41">
+        <v>5547353</v>
+      </c>
+      <c r="V41">
+        <v>6171859</v>
+      </c>
+      <c r="W41">
+        <v>21695070</v>
+      </c>
+      <c r="X41">
+        <v>17648800</v>
+      </c>
+      <c r="Y41">
+        <v>18529480</v>
+      </c>
+      <c r="Z41">
+        <v>2289943</v>
+      </c>
+      <c r="AA41">
+        <v>2008402</v>
+      </c>
+      <c r="AB41">
+        <v>2163166</v>
+      </c>
+      <c r="AC41">
+        <v>238326</v>
+      </c>
+      <c r="AD41">
+        <v>198512</v>
+      </c>
+      <c r="AE41">
+        <v>200773</v>
+      </c>
+      <c r="AI41">
+        <v>161907</v>
+      </c>
+      <c r="AJ41">
+        <v>156709</v>
+      </c>
+      <c r="AK41">
+        <v>169746</v>
+      </c>
+      <c r="AL41">
+        <v>15731630</v>
+      </c>
+      <c r="AM41">
+        <v>15214030</v>
+      </c>
+      <c r="AN41">
+        <v>14993910</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>3026666</v>
+      </c>
+      <c r="AS41">
+        <v>2909066</v>
+      </c>
+      <c r="AT41">
+        <v>3050824</v>
+      </c>
+      <c r="AU41">
+        <v>16880330</v>
+      </c>
+      <c r="AV41">
+        <v>16690010</v>
+      </c>
+      <c r="AW41">
+        <v>17137830</v>
+      </c>
+      <c r="AX41">
+        <v>27603700</v>
+      </c>
+      <c r="AY41">
+        <v>25907270</v>
+      </c>
+      <c r="AZ41">
+        <v>24608230</v>
+      </c>
+      <c r="BA41">
+        <v>27722670</v>
+      </c>
+      <c r="BB41">
+        <v>26473130</v>
+      </c>
+      <c r="BC41">
+        <v>24178070</v>
+      </c>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>18761130</v>
+      </c>
+      <c r="F42">
+        <v>17806720</v>
+      </c>
+      <c r="G42">
+        <v>5761429</v>
+      </c>
+      <c r="H42">
+        <v>3689185</v>
+      </c>
+      <c r="I42">
+        <v>3642235</v>
+      </c>
+      <c r="J42">
+        <v>4197435</v>
+      </c>
+      <c r="K42">
+        <v>5899627</v>
+      </c>
+      <c r="L42">
+        <v>6170211</v>
+      </c>
+      <c r="M42">
+        <v>5971599</v>
+      </c>
+      <c r="N42">
+        <v>803027</v>
+      </c>
+      <c r="O42">
+        <v>495831</v>
+      </c>
+      <c r="P42">
+        <v>853365</v>
+      </c>
+      <c r="Q42">
+        <v>1389528</v>
+      </c>
+      <c r="R42">
+        <v>2126262</v>
+      </c>
+      <c r="S42">
+        <v>2208950</v>
+      </c>
+      <c r="T42">
+        <v>1116692</v>
+      </c>
+      <c r="U42">
+        <v>1162706</v>
+      </c>
+      <c r="V42">
+        <v>1350152</v>
+      </c>
+      <c r="W42">
+        <v>4765646</v>
+      </c>
+      <c r="X42">
+        <v>3776677</v>
+      </c>
+      <c r="Y42">
+        <v>3997478</v>
+      </c>
+      <c r="Z42">
+        <v>276908</v>
+      </c>
+      <c r="AA42">
+        <v>230629</v>
+      </c>
+      <c r="AB42">
+        <v>286846</v>
+      </c>
+      <c r="AL42">
+        <v>3669463</v>
+      </c>
+      <c r="AM42">
+        <v>3359977</v>
+      </c>
+      <c r="AN42">
+        <v>3467995</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+      <c r="AR42">
+        <v>438073</v>
+      </c>
+      <c r="AS42">
+        <v>426687</v>
+      </c>
+      <c r="AT42">
+        <v>448811</v>
+      </c>
+      <c r="AU42">
+        <v>8302599</v>
+      </c>
+      <c r="AV42">
+        <v>7969411</v>
+      </c>
+      <c r="AW42">
+        <v>8139053</v>
+      </c>
+      <c r="AX42">
+        <v>17001030</v>
+      </c>
+      <c r="AY42">
+        <v>15657120</v>
+      </c>
+      <c r="AZ42">
+        <v>15173970</v>
+      </c>
+      <c r="BA42">
+        <v>14885240</v>
+      </c>
+      <c r="BB42">
+        <v>14330770</v>
+      </c>
+      <c r="BC42">
+        <v>13605290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>14140160</v>
+      </c>
+      <c r="F43">
+        <v>13266000</v>
+      </c>
+      <c r="G43">
+        <v>4246544</v>
+      </c>
+      <c r="H43">
+        <v>550416</v>
+      </c>
+      <c r="I43">
+        <v>520231</v>
+      </c>
+      <c r="J43">
+        <v>613288</v>
+      </c>
+      <c r="K43">
+        <v>976257</v>
+      </c>
+      <c r="L43">
+        <v>965480</v>
+      </c>
+      <c r="M43">
+        <v>960292</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>1111153</v>
+      </c>
+      <c r="R43">
+        <v>1650626</v>
+      </c>
+      <c r="S43">
+        <v>1806957</v>
+      </c>
+      <c r="T43">
+        <v>99000</v>
+      </c>
+      <c r="U43">
+        <v>102013</v>
+      </c>
+      <c r="V43">
+        <v>114769</v>
+      </c>
+      <c r="W43">
+        <v>404491</v>
+      </c>
+      <c r="X43">
+        <v>307000</v>
+      </c>
+      <c r="Y43">
+        <v>339032</v>
+      </c>
+      <c r="AL43">
+        <v>351256</v>
+      </c>
+      <c r="AM43">
+        <v>314610</v>
+      </c>
+      <c r="AN43">
+        <v>331491</v>
+      </c>
+      <c r="AU43">
+        <v>2107666</v>
+      </c>
+      <c r="AV43">
+        <v>1960793</v>
+      </c>
+      <c r="AW43">
+        <v>2098565</v>
+      </c>
+      <c r="AX43">
+        <v>3756819</v>
+      </c>
+      <c r="AY43">
+        <v>3293557</v>
+      </c>
+      <c r="AZ43">
+        <v>3290759</v>
+      </c>
+      <c r="BA43">
+        <v>3281929</v>
+      </c>
+      <c r="BB43">
+        <v>2954188</v>
+      </c>
+      <c r="BC43">
+        <v>2926392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="E44">
+        <v>6220892</v>
+      </c>
+      <c r="F44">
+        <v>5687514</v>
+      </c>
+      <c r="G44">
+        <v>1839766</v>
+      </c>
+      <c r="H44">
+        <v>44176</v>
+      </c>
+      <c r="I44">
+        <v>36018</v>
+      </c>
+      <c r="J44">
+        <v>45589</v>
+      </c>
+      <c r="K44">
+        <v>83086</v>
+      </c>
+      <c r="L44">
+        <v>81475</v>
+      </c>
+      <c r="M44">
+        <v>80407</v>
+      </c>
+      <c r="Q44">
+        <v>507656</v>
+      </c>
+      <c r="R44">
+        <v>739475</v>
+      </c>
+      <c r="S44">
+        <v>796940</v>
+      </c>
+      <c r="AU44">
+        <v>221673</v>
+      </c>
+      <c r="AV44">
+        <v>192318</v>
+      </c>
+      <c r="AW44">
+        <v>224027</v>
+      </c>
+      <c r="AX44">
+        <v>344258</v>
+      </c>
+      <c r="AY44">
+        <v>295697</v>
+      </c>
+      <c r="AZ44">
+        <v>304435</v>
+      </c>
+      <c r="BA44">
+        <v>282122</v>
+      </c>
+      <c r="BB44">
+        <v>247021</v>
+      </c>
+      <c r="BC44">
+        <v>250150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>1445611</v>
+      </c>
+      <c r="F45">
+        <v>1251757</v>
+      </c>
+      <c r="G45">
+        <v>436694</v>
+      </c>
+      <c r="Q45">
+        <v>138069</v>
+      </c>
+      <c r="R45">
+        <v>194957</v>
+      </c>
+      <c r="S45">
+        <v>223237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>206261</v>
+      </c>
+      <c r="F46">
+        <v>164223</v>
+      </c>
+      <c r="G46">
+        <v>59128</v>
+      </c>
+      <c r="Q46">
+        <v>20136</v>
+      </c>
+      <c r="R46">
+        <v>29523</v>
+      </c>
+      <c r="S46">
+        <v>35451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>19753</v>
+      </c>
+      <c r="F47">
+        <v>13022</v>
+      </c>
+      <c r="G47">
+        <v>5124</v>
+      </c>
+      <c r="Q47">
+        <v>3157</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>4037</v>
+      </c>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48">
+        <v>3578</v>
+      </c>
+      <c r="C48">
+        <v>14083</v>
+      </c>
+      <c r="D48">
+        <v>11535</v>
+      </c>
+      <c r="E48">
+        <v>68583942</v>
+      </c>
+      <c r="F48">
+        <v>63757833</v>
+      </c>
+      <c r="G48">
+        <v>21017881</v>
+      </c>
+      <c r="H48">
+        <v>49850806</v>
+      </c>
+      <c r="I48">
+        <v>51562314</v>
+      </c>
+      <c r="J48">
+        <v>56239497</v>
+      </c>
+      <c r="K48">
+        <v>63243958</v>
+      </c>
+      <c r="L48">
+        <v>66417557</v>
+      </c>
+      <c r="M48">
+        <v>63928852</v>
+      </c>
+      <c r="N48">
+        <v>10935312</v>
+      </c>
+      <c r="O48">
+        <v>6863233</v>
+      </c>
+      <c r="P48">
+        <v>11811373</v>
+      </c>
+      <c r="Q48">
+        <v>5344508</v>
+      </c>
+      <c r="R48">
+        <v>7997747</v>
+      </c>
+      <c r="S48">
+        <v>8535399</v>
+      </c>
+      <c r="T48">
+        <v>23015849</v>
+      </c>
+      <c r="U48">
+        <v>25581617</v>
+      </c>
+      <c r="V48">
+        <v>28128475</v>
+      </c>
+      <c r="W48">
+        <v>69177258</v>
+      </c>
+      <c r="X48">
+        <v>56610846</v>
+      </c>
+      <c r="Y48">
+        <v>58156573</v>
+      </c>
+      <c r="Z48">
+        <v>8097463</v>
+      </c>
+      <c r="AA48">
+        <v>7222852</v>
+      </c>
+      <c r="AB48">
+        <v>7606546</v>
+      </c>
+      <c r="AC48">
+        <v>3457522</v>
+      </c>
+      <c r="AD48">
+        <v>3044690</v>
+      </c>
+      <c r="AE48">
+        <v>3030114</v>
+      </c>
+      <c r="AF48">
+        <v>123296</v>
+      </c>
+      <c r="AG48">
+        <v>118807</v>
+      </c>
+      <c r="AH48">
+        <v>110742</v>
+      </c>
+      <c r="AI48">
+        <v>2687940</v>
+      </c>
+      <c r="AJ48">
+        <v>2681536</v>
+      </c>
+      <c r="AK48">
+        <v>2881200</v>
+      </c>
+      <c r="AL48">
+        <v>50937680</v>
+      </c>
+      <c r="AM48">
+        <v>50089977</v>
+      </c>
+      <c r="AN48">
+        <v>48027220</v>
+      </c>
+      <c r="AO48">
+        <v>1065807</v>
+      </c>
+      <c r="AP48">
+        <v>1020612</v>
+      </c>
+      <c r="AQ48">
+        <v>1022930</v>
+      </c>
+      <c r="AR48">
+        <v>10373230</v>
+      </c>
+      <c r="AS48">
+        <v>10232560</v>
+      </c>
+      <c r="AT48">
+        <v>10392965</v>
+      </c>
+      <c r="AU48">
+        <v>57255715</v>
+      </c>
+      <c r="AV48">
+        <v>56020873</v>
+      </c>
+      <c r="AW48">
+        <v>57057688</v>
+      </c>
+      <c r="AX48">
+        <v>67733955</v>
+      </c>
+      <c r="AY48">
+        <v>64155745</v>
+      </c>
+      <c r="AZ48">
+        <v>60155189</v>
+      </c>
+      <c r="BA48">
+        <v>83841985</v>
+      </c>
+      <c r="BB48">
+        <v>80069036</v>
+      </c>
+      <c r="BC48">
+        <v>74546357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" t="s">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s">
+        <v>50</v>
+      </c>
+      <c r="I53" t="s">
+        <v>50</v>
+      </c>
+      <c r="J53" t="s">
+        <v>50</v>
+      </c>
+      <c r="K53" t="s">
+        <v>48</v>
+      </c>
+      <c r="L53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53" t="s">
+        <v>48</v>
+      </c>
+      <c r="N53" t="s">
+        <v>51</v>
+      </c>
+      <c r="O53" t="s">
+        <v>51</v>
+      </c>
+      <c r="P53" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>53</v>
+      </c>
+      <c r="R53" t="s">
+        <v>53</v>
+      </c>
+      <c r="S53" t="s">
+        <v>53</v>
+      </c>
+      <c r="T53" t="s">
+        <v>55</v>
+      </c>
+      <c r="U53" t="s">
+        <v>55</v>
+      </c>
+      <c r="V53" t="s">
+        <v>55</v>
+      </c>
+      <c r="W53" t="s">
+        <v>57</v>
+      </c>
+      <c r="X53" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB53" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY53" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA53" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>77</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s">
+        <v>32</v>
+      </c>
+      <c r="J54" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" t="s">
+        <v>32</v>
+      </c>
+      <c r="M54" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" t="s">
+        <v>31</v>
+      </c>
+      <c r="O54" t="s">
+        <v>32</v>
+      </c>
+      <c r="P54" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" t="s">
+        <v>33</v>
+      </c>
+      <c r="T54" t="s">
+        <v>31</v>
+      </c>
+      <c r="U54" t="s">
+        <v>32</v>
+      </c>
+      <c r="V54" t="s">
+        <v>33</v>
+      </c>
+      <c r="W54" t="s">
+        <v>31</v>
+      </c>
+      <c r="X54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>32</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <f>B38/B$48</f>
+        <v>0.53773057574063721</v>
+      </c>
+      <c r="C55">
+        <f t="shared" ref="C55:BC55" si="0">C38/C$48</f>
+        <v>0.56607256976496489</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0.27542262678803642</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>2.0532517050600867E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>4.7095627701586207E-2</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>4.7294599695428721E-2</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>4.7164006463286827E-2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>4.2222974090268039E-2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>4.0929840283044437E-2</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>4.093757228739224E-2</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="0"/>
+        <v>4.087373090040778E-2</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="0"/>
+        <v>4.4711726965994014E-2</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="0"/>
+        <v>4.1485524163871551E-2</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="0"/>
+        <v>1.9415257681343164E-2</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="0"/>
+        <v>1.880154498510643E-2</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="0"/>
+        <v>2.2365914001208378E-2</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="0"/>
+        <v>0.12964401182854476</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="0"/>
+        <v>0.12862548915496624</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="0"/>
+        <v>0.13221893472717594</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="0"/>
+        <v>2.8869834649994368E-2</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="0"/>
+        <v>3.104721310824431E-2</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="0"/>
+        <v>2.8562274465519143E-2</v>
+      </c>
+      <c r="Z55">
+        <f t="shared" si="0"/>
+        <v>5.1011409375998386E-2</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="0"/>
+        <v>5.34511852104958E-2</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="0"/>
+        <v>5.0564868732799355E-2</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="0"/>
+        <v>0.17429303414410668</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="0"/>
+        <v>0.16672042145505783</v>
+      </c>
+      <c r="AE55">
+        <f t="shared" si="0"/>
+        <v>0.17240836483379834</v>
+      </c>
+      <c r="AF55">
+        <f t="shared" si="0"/>
+        <v>0.19582954840384117</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="0"/>
+        <v>0.19160487176681509</v>
+      </c>
+      <c r="AH55">
+        <f t="shared" si="0"/>
+        <v>0.23619764858861136</v>
+      </c>
+      <c r="AI55">
+        <f t="shared" si="0"/>
+        <v>0.19625252051757108</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" si="0"/>
+        <v>0.18820854913005083</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="0"/>
+        <v>0.19888414549493266</v>
+      </c>
+      <c r="AL55">
+        <f t="shared" si="0"/>
+        <v>2.6891271844339985E-2</v>
+      </c>
+      <c r="AM55">
+        <f t="shared" si="0"/>
+        <v>2.946371885936382E-2</v>
+      </c>
+      <c r="AN55">
+        <f t="shared" si="0"/>
+        <v>2.7818786929578686E-2</v>
+      </c>
+      <c r="AO55">
+        <f t="shared" si="0"/>
+        <v>0.78726073294695942</v>
+      </c>
+      <c r="AP55">
+        <f t="shared" si="0"/>
+        <v>0.80248811497415273</v>
+      </c>
+      <c r="AQ55">
+        <f t="shared" si="0"/>
+        <v>0.7918313081051489</v>
+      </c>
+      <c r="AR55">
+        <f t="shared" si="0"/>
+        <v>4.8281489950574699E-2</v>
+      </c>
+      <c r="AS55">
+        <f t="shared" si="0"/>
+        <v>5.0877297567764081E-2</v>
+      </c>
+      <c r="AT55">
+        <f t="shared" si="0"/>
+        <v>4.8274674262830677E-2</v>
+      </c>
+      <c r="AU55">
+        <f t="shared" si="0"/>
+        <v>5.4018555178290933E-2</v>
+      </c>
+      <c r="AV55">
+        <f t="shared" si="0"/>
+        <v>5.332482055393889E-2</v>
+      </c>
+      <c r="AW55">
+        <f t="shared" si="0"/>
+        <v>5.6071339588803532E-2</v>
+      </c>
+      <c r="AX55">
+        <f t="shared" si="0"/>
+        <v>1.5929100847573423E-2</v>
+      </c>
+      <c r="AY55">
+        <f t="shared" si="0"/>
+        <v>1.859272306790296E-2</v>
+      </c>
+      <c r="AZ55">
+        <f t="shared" si="0"/>
+        <v>1.9619853575723951E-2</v>
+      </c>
+      <c r="BA55">
+        <f t="shared" si="0"/>
+        <v>2.2589565359169395E-2</v>
+      </c>
+      <c r="BB55">
+        <f t="shared" si="0"/>
+        <v>2.3824003576113993E-2</v>
+      </c>
+      <c r="BC55">
+        <f t="shared" si="0"/>
+        <v>2.4048579597256509E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56:BC56" si="1">B39/B$48</f>
+        <v>0.46254891000558973</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.43392743023503516</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>0.34703077589943648</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>5.1437361241207159E-2</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>4.6391664534771754E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>4.5735818943879264E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>0.24137262695411585</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>0.24026055153381984</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>0.24681835258946216</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>0.22381821833478543</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>0.21733289587872073</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>0.22163185411181793</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>0.21651352974656782</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>0.21435655761650521</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="1"/>
+        <v>0.21372248594638404</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>4.5813384506113566E-2</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="1"/>
+        <v>4.4291098480609602E-2</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="1"/>
+        <v>4.6782815894136874E-2</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="1"/>
+        <v>0.26470637689706777</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="1"/>
+        <v>0.26226199852808368</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="1"/>
+        <v>0.25959039727535888</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="1"/>
+        <v>0.15818189844992123</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="1"/>
+        <v>0.16939640859633151</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="1"/>
+        <v>0.15584625318276576</v>
+      </c>
+      <c r="Z56">
+        <f t="shared" si="1"/>
+        <v>0.24607435686955284</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="1"/>
+        <v>0.24731477261336657</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="1"/>
+        <v>0.24467136595243097</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="1"/>
+        <v>0.36521734351943386</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="1"/>
+        <v>0.37115568415832156</v>
+      </c>
+      <c r="AE56">
+        <f t="shared" si="1"/>
+        <v>0.36330184276895194</v>
+      </c>
+      <c r="AF56">
+        <f t="shared" si="1"/>
+        <v>0.45685180378925511</v>
+      </c>
+      <c r="AG56">
+        <f t="shared" si="1"/>
+        <v>0.43457035359869367</v>
+      </c>
+      <c r="AH56">
+        <f t="shared" si="1"/>
+        <v>0.40023658593848765</v>
+      </c>
+      <c r="AI56">
+        <f t="shared" si="1"/>
+        <v>0.39017872422747529</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="1"/>
+        <v>0.39950498520251082</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="1"/>
+        <v>0.38292794668887964</v>
+      </c>
+      <c r="AL56">
+        <f t="shared" si="1"/>
+        <v>0.15227955022686546</v>
+      </c>
+      <c r="AM56">
+        <f t="shared" si="1"/>
+        <v>0.1616709466646391</v>
+      </c>
+      <c r="AN56">
+        <f t="shared" si="1"/>
+        <v>0.14255014135733862</v>
+      </c>
+      <c r="AO56">
+        <f t="shared" si="1"/>
+        <v>0.19263056069250811</v>
+      </c>
+      <c r="AP56">
+        <f t="shared" si="1"/>
+        <v>0.17939922321117133</v>
+      </c>
+      <c r="AQ56">
+        <f t="shared" si="1"/>
+        <v>0.18499995112080006</v>
+      </c>
+      <c r="AR56">
+        <f t="shared" si="1"/>
+        <v>0.22971186409633257</v>
+      </c>
+      <c r="AS56">
+        <f t="shared" si="1"/>
+        <v>0.22737144956882735</v>
+      </c>
+      <c r="AT56">
+        <f t="shared" si="1"/>
+        <v>0.22771721063238451</v>
+      </c>
+      <c r="AU56">
+        <f t="shared" si="1"/>
+        <v>0.1692862450499483</v>
+      </c>
+      <c r="AV56">
+        <f t="shared" si="1"/>
+        <v>0.16777699983361558</v>
+      </c>
+      <c r="AW56">
+        <f t="shared" si="1"/>
+        <v>0.16794534331639935</v>
+      </c>
+      <c r="AX56">
+        <f t="shared" si="1"/>
+        <v>5.0197142629571832E-2</v>
+      </c>
+      <c r="AY56">
+        <f t="shared" si="1"/>
+        <v>5.519596101642963E-2</v>
+      </c>
+      <c r="AZ56">
+        <f t="shared" si="1"/>
+        <v>4.9027025748352313E-2</v>
+      </c>
+      <c r="BA56">
+        <f t="shared" si="1"/>
+        <v>0.13570611430538054</v>
+      </c>
+      <c r="BB56">
+        <f t="shared" si="1"/>
+        <v>0.13436380075813575</v>
+      </c>
+      <c r="BC56">
+        <f t="shared" si="1"/>
+        <v>0.13973144254386569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:AH58" si="2">B40/B$48</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="2"/>
+        <v>0.3775465973125271</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>0.13121067027614131</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>0.12783223043355316</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>0.12465319410648486</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>0.3687487018765554</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>0.37402956740847587</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>0.35257303243661658</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>0.35276318411317648</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>0.35592155248950214</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>0.35201429864562561</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>0.37469913981420921</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="2"/>
+        <v>0.3790630450692844</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="2"/>
+        <v>0.37984644122237099</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>0.12877817752354379</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="2"/>
+        <v>0.12344639058974984</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>0.12414182394988213</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="2"/>
+        <v>0.33902051581933823</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="2"/>
+        <v>0.34282473230679672</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="2"/>
+        <v>0.3366942928829238</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="2"/>
+        <v>0.42459517548382736</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="2"/>
+        <v>0.41566398778071606</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="2"/>
+        <v>0.42241158192041334</v>
+      </c>
+      <c r="Z57">
+        <f t="shared" si="2"/>
+        <v>0.38591988626561186</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="2"/>
+        <v>0.38924153506121961</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="2"/>
+        <v>0.38267132020236255</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="2"/>
+        <v>0.39155990909096167</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="2"/>
+        <v>0.39692448163852478</v>
+      </c>
+      <c r="AE57">
+        <f t="shared" si="2"/>
+        <v>0.39803056914690338</v>
+      </c>
+      <c r="AF57">
+        <f t="shared" si="2"/>
+        <v>0.34731864780690369</v>
+      </c>
+      <c r="AG57">
+        <f t="shared" si="2"/>
+        <v>0.37381635762202564</v>
+      </c>
+      <c r="AH57">
+        <f t="shared" si="2"/>
+        <v>0.36356576547290098</v>
+      </c>
+      <c r="AI57">
+        <f t="shared" ref="AI57:AX58" si="3">AI40/AI$48</f>
+        <v>0.35333452383609754</v>
+      </c>
+      <c r="AJ57">
+        <f t="shared" si="3"/>
+        <v>0.3538468251032244</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="3"/>
+        <v>0.3592728724142718</v>
+      </c>
+      <c r="AL57">
+        <f t="shared" si="3"/>
+        <v>0.43305427337876401</v>
+      </c>
+      <c r="AM57">
+        <f t="shared" si="3"/>
+        <v>0.43177160971744905</v>
+      </c>
+      <c r="AN57">
+        <f t="shared" si="3"/>
+        <v>0.43832393380253948</v>
+      </c>
+      <c r="AO57">
+        <f t="shared" si="3"/>
+        <v>2.0109644616708278E-2</v>
+      </c>
+      <c r="AP57">
+        <f t="shared" si="3"/>
+        <v>1.8112661814675902E-2</v>
+      </c>
+      <c r="AQ57">
+        <f t="shared" si="3"/>
+        <v>2.3168740774051011E-2</v>
+      </c>
+      <c r="AR57">
+        <f t="shared" si="3"/>
+        <v>0.38799891644164836</v>
+      </c>
+      <c r="AS57">
+        <f t="shared" si="3"/>
+        <v>0.39575736668047878</v>
+      </c>
+      <c r="AT57">
+        <f t="shared" si="3"/>
+        <v>0.38727706674659251</v>
+      </c>
+      <c r="AU57">
+        <f t="shared" si="3"/>
+        <v>0.29617951675217052</v>
+      </c>
+      <c r="AV57">
+        <f t="shared" si="3"/>
+        <v>0.30028128979710833</v>
+      </c>
+      <c r="AW57">
+        <f t="shared" si="3"/>
+        <v>0.29227156908285523</v>
+      </c>
+      <c r="AX57">
+        <f t="shared" si="3"/>
+        <v>0.21479847146087955</v>
+      </c>
+      <c r="AY57">
+        <f t="shared" ref="AY57:BC57" si="4">AY40/AY$48</f>
+        <v>0.22239847733044016</v>
+      </c>
+      <c r="AZ57">
+        <f t="shared" si="4"/>
+        <v>0.21026166171633173</v>
+      </c>
+      <c r="BA57">
+        <f t="shared" si="4"/>
+        <v>0.29100217510355941</v>
+      </c>
+      <c r="BB57">
+        <f t="shared" si="4"/>
+        <v>0.29222257652758554</v>
+      </c>
+      <c r="BC57">
+        <f t="shared" si="4"/>
+        <v>0.28676451620566784</v>
+      </c>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58:AB58" si="5">B41/B$48</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>0.22255078309730286</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>0.22680287769504337</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>0.2215462633935362</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>0.25685121319803739</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="5"/>
+        <v>0.2569900179421738</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="5"/>
+        <v>0.26709413848420444</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="5"/>
+        <v>0.27116202942263673</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="5"/>
+        <v>0.27715216926753267</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>0.27572714742320104</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="5"/>
+        <v>0.29447948078664787</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="5"/>
+        <v>0.28962429222496161</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="5"/>
+        <v>0.29269620051792455</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="5"/>
+        <v>0.21291707300279089</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="5"/>
+        <v>0.22068865144146221</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="5"/>
+        <v>0.2120599165897224</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="5"/>
+        <v>0.21380931896103419</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="5"/>
+        <v>0.216849192918493</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="5"/>
+        <v>0.21941676539520893</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="5"/>
+        <v>0.31361563940565557</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="5"/>
+        <v>0.31175651393727627</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="5"/>
+        <v>0.31861368447552779</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="5"/>
+        <v>0.28279758734309746</v>
+      </c>
+      <c r="AA58">
+        <f t="shared" si="5"/>
+        <v>0.27806218374680802</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" si="5"/>
+        <v>0.28438216241642394</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" si="2"/>
+        <v>6.8929713245497792E-2</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="2"/>
+        <v>6.5199412748095861E-2</v>
+      </c>
+      <c r="AE58">
+        <f t="shared" si="2"/>
+        <v>6.6259223250346361E-2</v>
+      </c>
+      <c r="AI58">
+        <f t="shared" si="3"/>
+        <v>6.0234603450969891E-2</v>
+      </c>
+      <c r="AJ58">
+        <f t="shared" si="3"/>
+        <v>5.8440013484808706E-2</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="3"/>
+        <v>5.8915035401915866E-2</v>
+      </c>
+      <c r="AL58">
+        <f t="shared" ref="AL58:BC58" si="6">AL41/AL$48</f>
+        <v>0.30884072458737816</v>
+      </c>
+      <c r="AM58">
+        <f t="shared" si="6"/>
+        <v>0.30373401848437664</v>
+      </c>
+      <c r="AN58">
+        <f t="shared" si="6"/>
+        <v>0.31219608380414271</v>
+      </c>
+      <c r="AO58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AP58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AQ58">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <f t="shared" si="6"/>
+        <v>0.29177662116814146</v>
+      </c>
+      <c r="AS58">
+        <f t="shared" si="6"/>
+        <v>0.28429503467363004</v>
+      </c>
+      <c r="AT58">
+        <f t="shared" si="6"/>
+        <v>0.29354702916828834</v>
+      </c>
+      <c r="AU58">
+        <f t="shared" si="6"/>
+        <v>0.29482349491225462</v>
+      </c>
+      <c r="AV58">
+        <f t="shared" si="6"/>
+        <v>0.29792484669062547</v>
+      </c>
+      <c r="AW58">
+        <f t="shared" si="6"/>
+        <v>0.30035969911714616</v>
+      </c>
+      <c r="AX58">
+        <f t="shared" si="6"/>
+        <v>0.40753120056255387</v>
+      </c>
+      <c r="AY58">
+        <f t="shared" si="6"/>
+        <v>0.40381839537519204</v>
+      </c>
+      <c r="AZ58">
+        <f t="shared" si="6"/>
+        <v>0.40907909041728718</v>
+      </c>
+      <c r="BA58">
+        <f t="shared" si="6"/>
+        <v>0.33065378879090229</v>
+      </c>
+      <c r="BB58">
+        <f t="shared" si="6"/>
+        <v>0.33062880886938617</v>
+      </c>
+      <c r="BC58">
+        <f t="shared" si="6"/>
+        <v>0.32433603697092805</v>
+      </c>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59:AB59" si="7">E42/E$48</f>
+        <v>0.27354989306388949</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="7"/>
+        <v>0.2792867819080363</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="7"/>
+        <v>0.27412035494919779</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="7"/>
+        <v>7.4004520608954641E-2</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="7"/>
+        <v>7.0637539657355169E-2</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>7.4635002514336149E-2</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="7"/>
+        <v>9.3283646162689568E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="7"/>
+        <v>9.2900300443149397E-2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="7"/>
+        <v>9.3410077190186361E-2</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="7"/>
+        <v>7.343430164589726E-2</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="7"/>
+        <v>7.2244523827181745E-2</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="7"/>
+        <v>7.2249432813611084E-2</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="7"/>
+        <v>0.25999175228103316</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="7"/>
+        <v>0.26585762215283881</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="7"/>
+        <v>0.25879868064750106</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="7"/>
+        <v>4.8518392695398725E-2</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="7"/>
+        <v>4.5450840734579057E-2</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="7"/>
+        <v>4.7999473842787424E-2</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="7"/>
+        <v>6.8890357001429578E-2</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="7"/>
+        <v>6.6712958149397733E-2</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="7"/>
+        <v>6.8736477990200689E-2</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="7"/>
+        <v>3.4196883641209597E-2</v>
+      </c>
+      <c r="AA59">
+        <f t="shared" si="7"/>
+        <v>3.193046181757566E-2</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="7"/>
+        <v>3.7710414161697042E-2</v>
+      </c>
+      <c r="AL59">
+        <f t="shared" ref="AL59:BC59" si="8">AL42/AL$48</f>
+        <v>7.2038282858583269E-2</v>
+      </c>
+      <c r="AM59">
+        <f t="shared" si="8"/>
+        <v>6.7078828964125897E-2</v>
+      </c>
+      <c r="AN59">
+        <f t="shared" si="8"/>
+        <v>7.2208947342777705E-2</v>
+      </c>
+      <c r="AO59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ59">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <f t="shared" si="8"/>
+        <v>4.2231108343302903E-2</v>
+      </c>
+      <c r="AS59">
+        <f t="shared" si="8"/>
+        <v>4.1698949236554685E-2</v>
+      </c>
+      <c r="AT59">
+        <f t="shared" si="8"/>
+        <v>4.3184115408836647E-2</v>
+      </c>
+      <c r="AU59">
+        <f t="shared" si="8"/>
+        <v>0.14500908773910168</v>
+      </c>
+      <c r="AV59">
+        <f t="shared" si="8"/>
+        <v>0.14225788662736477</v>
+      </c>
+      <c r="AW59">
+        <f>AW42/AW$48</f>
+        <v>0.14264603571038489</v>
+      </c>
+      <c r="AX59">
+        <f t="shared" si="8"/>
+        <v>0.25099715497197822</v>
+      </c>
+      <c r="AY59">
+        <f t="shared" si="8"/>
+        <v>0.24404860390912769</v>
+      </c>
+      <c r="AZ59">
+        <f t="shared" si="8"/>
+        <v>0.25224706716489581</v>
+      </c>
+      <c r="BA59">
+        <f t="shared" si="8"/>
+        <v>0.17753921260332756</v>
+      </c>
+      <c r="BB59">
+        <f t="shared" si="8"/>
+        <v>0.17898017405879596</v>
+      </c>
+      <c r="BC59">
+        <f t="shared" si="8"/>
+        <v>0.18250777834790774</v>
+      </c>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:Y60" si="9">E43/E$48</f>
+        <v>0.20617304266354361</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="9"/>
+        <v>0.20806855214166392</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="9"/>
+        <v>0.20204434500319038</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="9"/>
+        <v>1.1041265812231802E-2</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="9"/>
+        <v>1.0089364879939252E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="9"/>
+        <v>1.090493394704437E-2</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="9"/>
+        <v>1.5436367850348645E-2</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="9"/>
+        <v>1.4536517806579366E-2</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="9"/>
+        <v>1.5021261448586625E-2</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="9"/>
+        <v>0.20790557334744378</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="9"/>
+        <v>0.20638637356245454</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="9"/>
+        <v>0.21170152678275497</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="9"/>
+        <v>4.301383798616336E-3</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="9"/>
+        <v>3.9877463570813371E-3</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="9"/>
+        <v>4.0801714277080431E-3</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="9"/>
+        <v>5.8471672872607927E-3</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="9"/>
+        <v>5.4229890858723435E-3</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="9"/>
+        <v>5.8296419907686104E-3</v>
+      </c>
+      <c r="AL60">
+        <f t="shared" ref="AL60:AN60" si="10">AL43/AL$48</f>
+        <v>6.8957989449067959E-3</v>
+      </c>
+      <c r="AM60">
+        <f t="shared" si="10"/>
+        <v>6.2808972741193311E-3</v>
+      </c>
+      <c r="AN60">
+        <f t="shared" si="10"/>
+        <v>6.902148406674382E-3</v>
+      </c>
+      <c r="AU60">
+        <f t="shared" ref="AU60:BC60" si="11">AU43/AU$48</f>
+        <v>3.6811451922310286E-2</v>
+      </c>
+      <c r="AV60">
+        <f t="shared" si="11"/>
+        <v>3.5001114673810958E-2</v>
+      </c>
+      <c r="AW60">
+        <f t="shared" si="11"/>
+        <v>3.6779706180874346E-2</v>
+      </c>
+      <c r="AX60">
+        <f t="shared" si="11"/>
+        <v>5.5464338380949406E-2</v>
+      </c>
+      <c r="AY60">
+        <f t="shared" si="11"/>
+        <v>5.1336898979195085E-2</v>
+      </c>
+      <c r="AZ60">
+        <f t="shared" si="11"/>
+        <v>5.4704491078899277E-2</v>
+      </c>
+      <c r="BA60">
+        <f t="shared" si="11"/>
+        <v>3.9144218734802137E-2</v>
+      </c>
+      <c r="BB60">
+        <f t="shared" si="11"/>
+        <v>3.6895511018766355E-2</v>
+      </c>
+      <c r="BC60">
+        <f t="shared" si="11"/>
+        <v>3.9256002811780592E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:M61" si="12">E44/E$48</f>
+        <v>9.0704789176451833E-2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="12"/>
+        <v>8.9204945218260473E-2</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="12"/>
+        <v>8.7533372179621718E-2</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="12"/>
+        <v>8.8616420765594045E-4</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="12"/>
+        <v>6.985334288914962E-4</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="12"/>
+        <v>8.1062247053881016E-4</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="12"/>
+        <v>1.3137381439662585E-3</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="12"/>
+        <v>1.2267087752113495E-3</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="12"/>
+        <v>1.2577576084113007E-3</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" ref="Q61:S61" si="13">Q44/Q$48</f>
+        <v>9.4986479578662811E-2</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="13"/>
+        <v>9.2460414164138971E-2</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="13"/>
+        <v>9.3368804434332833E-2</v>
+      </c>
+      <c r="AU61">
+        <f t="shared" ref="AU61:BC61" si="14">AU44/AU$48</f>
+        <v>3.8716309804182865E-3</v>
+      </c>
+      <c r="AV61">
+        <f t="shared" si="14"/>
+        <v>3.4329704215783998E-3</v>
+      </c>
+      <c r="AW61">
+        <f t="shared" si="14"/>
+        <v>3.9263245296584752E-3</v>
+      </c>
+      <c r="AX61">
+        <f t="shared" si="14"/>
+        <v>5.0825025646295124E-3</v>
+      </c>
+      <c r="AY61">
+        <f t="shared" si="14"/>
+        <v>4.6090494311927946E-3</v>
+      </c>
+      <c r="AZ61">
+        <f t="shared" si="14"/>
+        <v>5.0608269221795645E-3</v>
+      </c>
+      <c r="BA61">
+        <f t="shared" si="14"/>
+        <v>3.364925102858669E-3</v>
+      </c>
+      <c r="BB61">
+        <f t="shared" si="14"/>
+        <v>3.085100212771389E-3</v>
+      </c>
+      <c r="BC61">
+        <f>BC44/BC$48</f>
+        <v>3.3556301081218497E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>7</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:G62" si="15">E45/E$48</f>
+        <v>2.1077980615345791E-2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="15"/>
+        <v>1.9632991604341385E-2</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="15"/>
+        <v>2.0777261037875323E-2</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" ref="Q62:S62" si="16">Q45/Q$48</f>
+        <v>2.5833809211250128E-2</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="16"/>
+        <v>2.4376490029004418E-2</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="16"/>
+        <v>2.6154254768874893E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:G63" si="17">E46/E$48</f>
+        <v>3.0074240993613346E-3</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="17"/>
+        <v>2.575730577292362E-3</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="17"/>
+        <v>2.8132236546586213E-3</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ref="Q63:S63" si="18">Q46/Q$48</f>
+        <v>3.7676059236883921E-3</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="18"/>
+        <v>3.691414594635214E-3</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="18"/>
+        <v>4.1534086455712266E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64:G64" si="19">E47/E$48</f>
+        <v>2.8801202473896877E-4</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="19"/>
+        <v>2.0424157138464852E-4</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="19"/>
+        <v>2.437924165618789E-4</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" ref="Q64:S64" si="20">Q47/Q$48</f>
+        <v>5.9069983616826839E-4</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="20"/>
+        <v>4.729714451544679E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65">
+        <f>SUM(B55:B64)</f>
+        <v>1.0002794857462269</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:Y65" si="21">SUM(C55:C64)</f>
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="21"/>
+        <v>0.99999995625798244</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="21"/>
+        <v>1.0000000156843472</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="21"/>
+        <v>1.0000001427356069</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="21"/>
+        <v>1.0000001203591371</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="21"/>
+        <v>1.0000001745460843</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="21"/>
+        <v>1.0000000889054894</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="21"/>
+        <v>1.0000001581178712</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="21"/>
+        <v>0.99999998494374009</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="21"/>
+        <v>0.99999996871522112</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="21"/>
+        <v>1.0000001828937299</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="21"/>
+        <v>1.0000001457039271</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="21"/>
+        <v>1.0000000846641623</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="21"/>
+        <v>0.99999981289203788</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="21"/>
+        <v>1.0000001171591393</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="21"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="21"/>
+        <v>1.0000000355511631</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="21"/>
+        <v>1.0000000722780888</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="21"/>
+        <v>1.0000000706578382</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="21"/>
+        <v>0.99999991402519539</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" ref="Z65" si="22">SUM(Z55:Z64)</f>
+        <v>1.0000001234954701</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" ref="AA65" si="23">SUM(AA55:AA64)</f>
+        <v>1.0000001384494657</v>
+      </c>
+      <c r="AB65">
+        <f t="shared" ref="AB65" si="24">SUM(AB55:AB64)</f>
+        <v>1.0000001314657139</v>
+      </c>
+      <c r="AC65">
+        <f t="shared" ref="AC65" si="25">SUM(AC55:AC64)</f>
+        <v>1</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" ref="AD65" si="26">SUM(AD55:AD64)</f>
+        <v>1</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" ref="AE65" si="27">SUM(AE55:AE64)</f>
+        <v>1</v>
+      </c>
+      <c r="AF65">
+        <f t="shared" ref="AF65" si="28">SUM(AF55:AF64)</f>
+        <v>1</v>
+      </c>
+      <c r="AG65">
+        <f t="shared" ref="AG65" si="29">SUM(AG55:AG64)</f>
+        <v>0.99999158298753432</v>
+      </c>
+      <c r="AH65">
+        <f t="shared" ref="AH65" si="30">SUM(AH55:AH64)</f>
+        <v>1</v>
+      </c>
+      <c r="AI65">
+        <f t="shared" ref="AI65" si="31">SUM(AI55:AI64)</f>
+        <v>1.0000003720321138</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" ref="AJ65" si="32">SUM(AJ55:AJ64)</f>
+        <v>1.0000003729205948</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" ref="AK65" si="33">SUM(AK55:AK64)</f>
+        <v>1</v>
+      </c>
+      <c r="AL65">
+        <f t="shared" ref="AL65" si="34">SUM(AL55:AL64)</f>
+        <v>0.99999990184083765</v>
+      </c>
+      <c r="AM65">
+        <f t="shared" ref="AM65" si="35">SUM(AM55:AM64)</f>
+        <v>1.0000000199640739</v>
+      </c>
+      <c r="AN65">
+        <f t="shared" ref="AN65" si="36">SUM(AN55:AN64)</f>
+        <v>1.0000000416430515</v>
+      </c>
+      <c r="AO65">
+        <f t="shared" ref="AO65" si="37">SUM(AO55:AO64)</f>
+        <v>1.0000009382561759</v>
+      </c>
+      <c r="AP65">
+        <f t="shared" ref="AP65" si="38">SUM(AP55:AP64)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AQ65">
+        <f t="shared" ref="AQ65" si="39">SUM(AQ55:AQ64)</f>
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <f t="shared" ref="AR65" si="40">SUM(AR55:AR64)</f>
+        <v>1</v>
+      </c>
+      <c r="AS65">
+        <f t="shared" ref="AS65" si="41">SUM(AS55:AS64)</f>
+        <v>1.000000097727255</v>
+      </c>
+      <c r="AT65">
+        <f t="shared" ref="AT65" si="42">SUM(AT55:AT64)</f>
+        <v>1.0000000962189328</v>
+      </c>
+      <c r="AU65">
+        <f t="shared" ref="AU65" si="43">SUM(AU55:AU64)</f>
+        <v>0.99999998253449462</v>
+      </c>
+      <c r="AV65">
+        <f t="shared" ref="AV65" si="44">SUM(AV55:AV64)</f>
+        <v>0.99999992859804243</v>
+      </c>
+      <c r="AW65">
+        <f t="shared" ref="AW65" si="45">SUM(AW55:AW64)</f>
+        <v>1.0000000175261221</v>
+      </c>
+      <c r="AX65">
+        <f t="shared" ref="AX65" si="46">SUM(AX55:AX64)</f>
+        <v>0.99999991141813593</v>
+      </c>
+      <c r="AY65">
+        <f t="shared" ref="AY65" si="47">SUM(AY55:AY64)</f>
+        <v>1.0000001091094803</v>
+      </c>
+      <c r="AZ65">
+        <f t="shared" ref="AZ65" si="48">SUM(AZ55:AZ64)</f>
+        <v>1.0000000166236698</v>
+      </c>
+      <c r="BA65">
+        <f t="shared" ref="BA65" si="49">SUM(BA55:BA64)</f>
+        <v>1</v>
+      </c>
+      <c r="BB65">
+        <f t="shared" ref="BB65" si="50">SUM(BB55:BB64)</f>
+        <v>0.99999997502155513</v>
+      </c>
+      <c r="BC65">
+        <f t="shared" ref="BC65" si="51">SUM(BC55:BC64)</f>
+        <v>0.99999998658552836</v>
+      </c>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="str">
+        <f>B53</f>
+        <v>Cysteine</v>
+      </c>
+      <c r="C68" t="str">
+        <f>C53</f>
+        <v>Cysteine</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" t="str">
+        <f>E53</f>
+        <v>Phenylalanine</v>
+      </c>
+      <c r="F68" t="str">
+        <f>F53</f>
+        <v>Phenylalanine</v>
+      </c>
+      <c r="G68" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" t="str">
+        <f>H53</f>
+        <v>Leucine</v>
+      </c>
+      <c r="I68" t="str">
+        <f>I53</f>
+        <v>Leucine</v>
+      </c>
+      <c r="J68" t="s">
+        <v>107</v>
+      </c>
+      <c r="K68" t="str">
+        <f>K53</f>
+        <v>Isoleucine</v>
+      </c>
+      <c r="L68" t="str">
+        <f>L53</f>
+        <v>Isoleucine</v>
+      </c>
+      <c r="M68" t="s">
+        <v>107</v>
+      </c>
+      <c r="N68" t="str">
+        <f>N53</f>
+        <v>Methionine</v>
+      </c>
+      <c r="O68" t="str">
+        <f>O53</f>
+        <v>Methionine</v>
+      </c>
+      <c r="P68" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q68" t="str">
+        <f>Q53</f>
+        <v>Tyrosine</v>
+      </c>
+      <c r="R68" t="str">
+        <f>R53</f>
+        <v>Tyrosine</v>
+      </c>
+      <c r="S68" t="s">
+        <v>107</v>
+      </c>
+      <c r="T68" t="str">
+        <f>T53</f>
+        <v>Valine</v>
+      </c>
+      <c r="U68" t="str">
+        <f>U53</f>
+        <v>Valine</v>
+      </c>
+      <c r="V68" t="s">
+        <v>107</v>
+      </c>
+      <c r="W68" t="str">
+        <f>W53</f>
+        <v>Proline</v>
+      </c>
+      <c r="X68" t="str">
+        <f>X53</f>
+        <v>Proline</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z68" t="str">
+        <f>Z53</f>
+        <v>Threonine</v>
+      </c>
+      <c r="AA68" t="str">
+        <f>AA53</f>
+        <v>Threonine</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC68" t="str">
+        <f>AC53</f>
+        <v>Alanine</v>
+      </c>
+      <c r="AD68" t="str">
+        <f>AD53</f>
+        <v>Alanine</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF68" t="str">
+        <f>AF53</f>
+        <v>Glycine</v>
+      </c>
+      <c r="AG68" t="str">
+        <f>AG53</f>
+        <v>Glycine</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI68" t="str">
+        <f>AI53</f>
+        <v>Serine</v>
+      </c>
+      <c r="AJ68" t="str">
+        <f>AJ53</f>
+        <v>Serine</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL68" t="str">
+        <f>AL53</f>
+        <v>Glutamate</v>
+      </c>
+      <c r="AM68" t="str">
+        <f>AM53</f>
+        <v>Glutamate</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO68" t="str">
+        <f>AO53</f>
+        <v>Asparagine</v>
+      </c>
+      <c r="AP68" t="str">
+        <f>AP53</f>
+        <v>Asparagine</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR68" t="str">
+        <f>AR53</f>
+        <v>Aspartate</v>
+      </c>
+      <c r="AS68" t="str">
+        <f>AS53</f>
+        <v>Aspartate</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU68" t="str">
+        <f>AU53</f>
+        <v>Histidine</v>
+      </c>
+      <c r="AV68" t="str">
+        <f>AV53</f>
+        <v>Histidine</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX68" t="str">
+        <f>AX53</f>
+        <v>Arginine</v>
+      </c>
+      <c r="AY68" t="str">
+        <f>AY53</f>
+        <v>Arginine</v>
+      </c>
+      <c r="AZ68" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA68" t="str">
+        <f>BA53</f>
+        <v>Lysine</v>
+      </c>
+      <c r="BB68" t="str">
+        <f>BB53</f>
+        <v>Lysine</v>
+      </c>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" t="s">
+        <v>106</v>
+      </c>
+      <c r="H69" t="s">
+        <v>108</v>
+      </c>
+      <c r="I69" t="s">
+        <v>109</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K69" t="s">
+        <v>108</v>
+      </c>
+      <c r="L69" t="s">
+        <v>109</v>
+      </c>
+      <c r="M69" t="s">
+        <v>106</v>
+      </c>
+      <c r="N69" t="s">
+        <v>108</v>
+      </c>
+      <c r="O69" t="s">
+        <v>109</v>
+      </c>
+      <c r="P69" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>108</v>
+      </c>
+      <c r="R69" t="s">
+        <v>109</v>
+      </c>
+      <c r="S69" t="s">
+        <v>106</v>
+      </c>
+      <c r="T69" t="s">
+        <v>108</v>
+      </c>
+      <c r="U69" t="s">
+        <v>109</v>
+      </c>
+      <c r="V69" t="s">
+        <v>106</v>
+      </c>
+      <c r="W69" t="s">
+        <v>108</v>
+      </c>
+      <c r="X69" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW69" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX69" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY69" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ69" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA69" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <f>AVERAGE(B55:D55)</f>
+        <v>0.45974192409787951</v>
+      </c>
+      <c r="C70">
+        <f>STDEV(B55:D55)</f>
+        <v>0.1602529864836052</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>AVERAGE(E55:G55)</f>
+        <v>6.8441723502002888E-3</v>
+      </c>
+      <c r="F70">
+        <f>STDEV(E55:G55)</f>
+        <v>1.1854454246304992E-2</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f>AVERAGE(H55:J55)</f>
+        <v>4.7184744620100583E-2</v>
+      </c>
+      <c r="I70">
+        <f>STDEV(H55:J55)</f>
+        <v>1.0109409945412448E-4</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f>AVERAGE(K55:M55)</f>
+        <v>4.136346222023491E-2</v>
+      </c>
+      <c r="L70">
+        <f>STDEV(K55:M55)</f>
+        <v>7.4436915372595855E-4</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <f>AVERAGE(N55:P55)</f>
+        <v>4.235699401009111E-2</v>
+      </c>
+      <c r="O70">
+        <f>STDEV(N55:P55)</f>
+        <v>2.0620737667494623E-3</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f>AVERAGE(Q55:S55)</f>
+        <v>2.0194238889219326E-2</v>
+      </c>
+      <c r="R70">
+        <f>STDEV(Q55:S55)</f>
+        <v>1.90559450366678E-3</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <f>AVERAGE(T55:V55)</f>
+        <v>0.1301628119035623</v>
+      </c>
+      <c r="U70">
+        <f>STDEV(T55:V55)</f>
+        <v>1.852046950940238E-3</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f>AVERAGE(W55:Y55)</f>
+        <v>2.9493107407919272E-2</v>
+      </c>
+      <c r="X70">
+        <f>STDEV(W55:Y55)</f>
+        <v>1.3546518787517655E-3</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <f>AVERAGE(Z55:AB55)</f>
+        <v>5.167582110643118E-2</v>
+      </c>
+      <c r="AA70">
+        <f>STDEV(Z55:AB55)</f>
+        <v>1.5536369952495429E-3</v>
+      </c>
+      <c r="AB70">
+        <v>0</v>
+      </c>
+      <c r="AC70">
+        <f>AVERAGE(AC55:AE55)</f>
+        <v>0.17114060681098761</v>
+      </c>
+      <c r="AD70">
+        <f>STDEV(AC55:AE55)</f>
+        <v>3.9422739044727272E-3</v>
+      </c>
+      <c r="AE70">
+        <v>0</v>
+      </c>
+      <c r="AF70">
+        <f>AVERAGE(AF55:AH55)</f>
+        <v>0.2078773562530892</v>
+      </c>
+      <c r="AG70">
+        <f>STDEV(AF55:AH55)</f>
+        <v>2.4616888342130785E-2</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <f>AVERAGE(AI55:AK55)</f>
+        <v>0.19444840504751823</v>
+      </c>
+      <c r="AJ70">
+        <f>STDEV(AI55:AK55)</f>
+        <v>5.5617635609968756E-3</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <f>AVERAGE(AL55:AN55)</f>
+        <v>2.805792587776083E-2</v>
+      </c>
+      <c r="AM70">
+        <f>STDEV(AL55:AN55)</f>
+        <v>1.302789886620059E-3</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AO70">
+        <f>AVERAGE(AO55:AQ55)</f>
+        <v>0.79386005200875365</v>
+      </c>
+      <c r="AP70">
+        <f>STDEV(AO55:AQ55)</f>
+        <v>7.8137789974078928E-3</v>
+      </c>
+      <c r="AQ70">
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <f>AVERAGE(AR55:AT55)</f>
+        <v>4.9144487260389814E-2</v>
+      </c>
+      <c r="AS70">
+        <f>STDEV(AR55:AT55)</f>
+        <v>1.5006616155571909E-3</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <f>AVERAGE(AU55:AW55)</f>
+        <v>5.4471571773677785E-2</v>
+      </c>
+      <c r="AV70">
+        <f>STDEV(AU55:AW55)</f>
+        <v>1.4282015715543698E-3</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <f>AVERAGE(AX55:AZ55)</f>
+        <v>1.804722583040011E-2</v>
+      </c>
+      <c r="AY70">
+        <f>STDEV(AX55:AZ55)</f>
+        <v>1.904885653308374E-3</v>
+      </c>
+      <c r="AZ70">
+        <v>0</v>
+      </c>
+      <c r="BA70">
+        <f>AVERAGE(BA55:BC55)</f>
+        <v>2.3487382844179967E-2</v>
+      </c>
+      <c r="BB70">
+        <f>STDEV(BA55:BC55)</f>
+        <v>7.8559899096872633E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71:B73" si="52">AVERAGE(B56:D56)</f>
+        <v>0.41450237204668711</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:C73" si="53">STDEV(B56:D56)</f>
+        <v>6.0159034991074868E-2</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71" si="54">AVERAGE(E56:G56)</f>
+        <v>4.7854948239952726E-2</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ref="F71:F79" si="55">STDEV(E56:G56)</f>
+        <v>3.1197428649555204E-3</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" ref="H71" si="56">AVERAGE(H56:J56)</f>
+        <v>0.24281717702579927</v>
+      </c>
+      <c r="I71">
+        <f t="shared" ref="I71:I76" si="57">STDEV(H56:J56)</f>
+        <v>3.5094490099652916E-3</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <f t="shared" ref="K71" si="58">AVERAGE(K56:M56)</f>
+        <v>0.22092765610844137</v>
+      </c>
+      <c r="L71">
+        <f t="shared" ref="L71:L74" si="59">STDEV(K56:M56)</f>
+        <v>3.2995110184319632E-3</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" ref="N71" si="60">AVERAGE(N56:P56)</f>
+        <v>0.21486419110315236</v>
+      </c>
+      <c r="O71">
+        <f t="shared" ref="O71:O75" si="61">STDEV(N56:P56)</f>
+        <v>1.4631302714420969E-3</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" ref="Q71" si="62">AVERAGE(Q56:S56)</f>
+        <v>4.562909962695335E-2</v>
+      </c>
+      <c r="R71">
+        <f t="shared" ref="R71:R73" si="63">STDEV(Q56:S56)</f>
+        <v>1.256039252863573E-3</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <f t="shared" ref="T71" si="64">AVERAGE(T56:V56)</f>
+        <v>0.26218625756683678</v>
+      </c>
+      <c r="U71">
+        <f t="shared" ref="U71:U75" si="65">STDEV(T56:V56)</f>
+        <v>2.5588306689468799E-3</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <f t="shared" ref="W71" si="66">AVERAGE(W56:Y56)</f>
+        <v>0.1611415200763395</v>
+      </c>
+      <c r="X71">
+        <f t="shared" ref="X71:X75" si="67">STDEV(W56:Y56)</f>
+        <v>7.2437005778551019E-3</v>
+      </c>
+      <c r="Y71">
+        <v>1</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" ref="Z71" si="68">AVERAGE(Z56:AB56)</f>
+        <v>0.24602016514511679</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" ref="AA71:AA74" si="69">STDEV(Z56:AB56)</f>
+        <v>1.322536294782751E-3</v>
+      </c>
+      <c r="AB71">
+        <v>1</v>
+      </c>
+      <c r="AC71">
+        <f t="shared" ref="AC71" si="70">AVERAGE(AC56:AE56)</f>
+        <v>0.36655829014890245</v>
+      </c>
+      <c r="AD71">
+        <f t="shared" ref="AD71:AD73" si="71">STDEV(AC56:AE56)</f>
+        <v>4.09503474217939E-3</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
+      </c>
+      <c r="AF71">
+        <f t="shared" ref="AF71" si="72">AVERAGE(AF56:AH56)</f>
+        <v>0.43055291444214544</v>
+      </c>
+      <c r="AG71">
+        <f t="shared" ref="AG71:AG73" si="73">STDEV(AF56:AH56)</f>
+        <v>2.8520616860525465E-2</v>
+      </c>
+      <c r="AH71">
+        <v>1</v>
+      </c>
+      <c r="AI71">
+        <f t="shared" ref="AI71" si="74">AVERAGE(AI56:AK56)</f>
+        <v>0.3908705520396219</v>
+      </c>
+      <c r="AJ71">
+        <f t="shared" ref="AJ71:AJ73" si="75">STDEV(AI56:AK56)</f>
+        <v>8.3101456522643186E-3</v>
+      </c>
+      <c r="AK71">
+        <v>1</v>
+      </c>
+      <c r="AL71">
+        <f t="shared" ref="AL71" si="76">AVERAGE(AL56:AN56)</f>
+        <v>0.15216687941628107</v>
+      </c>
+      <c r="AM71">
+        <f t="shared" ref="AM71:AM75" si="77">STDEV(AL56:AN56)</f>
+        <v>9.5609005817229829E-3</v>
+      </c>
+      <c r="AN71">
+        <v>1</v>
+      </c>
+      <c r="AO71">
+        <f t="shared" ref="AO71" si="78">AVERAGE(AO56:AQ56)</f>
+        <v>0.18567657834149318</v>
+      </c>
+      <c r="AP71">
+        <f t="shared" ref="AP71:AP74" si="79">STDEV(AO56:AQ56)</f>
+        <v>6.6415691807805537E-3</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <f t="shared" ref="AR71" si="80">AVERAGE(AR56:AT56)</f>
+        <v>0.22826684143251483</v>
+      </c>
+      <c r="AS71">
+        <f t="shared" ref="AS71:AS74" si="81">STDEV(AR56:AT56)</f>
+        <v>1.2633113442371499E-3</v>
+      </c>
+      <c r="AT71">
+        <v>1</v>
+      </c>
+      <c r="AU71">
+        <f t="shared" ref="AU71" si="82">AVERAGE(AU56:AW56)</f>
+        <v>0.1683361960666544</v>
+      </c>
+      <c r="AV71">
+        <f t="shared" ref="AV71:AV79" si="83">STDEV(AU56:AW56)</f>
+        <v>8.2706087142498687E-4</v>
+      </c>
+      <c r="AW71">
+        <v>1</v>
+      </c>
+      <c r="AX71">
+        <f t="shared" ref="AX71" si="84">AVERAGE(AX56:AZ56)</f>
+        <v>5.1473376464784594E-2</v>
+      </c>
+      <c r="AY71">
+        <f t="shared" ref="AY71:AY79" si="85">STDEV(AX56:AZ56)</f>
+        <v>3.276510367302146E-3</v>
+      </c>
+      <c r="AZ71">
+        <v>1</v>
+      </c>
+      <c r="BA71">
+        <f t="shared" ref="BA71" si="86">AVERAGE(BA56:BC56)</f>
+        <v>0.136600452535794</v>
+      </c>
+      <c r="BB71">
+        <f t="shared" ref="BB71:BB79" si="87">STDEV(BA56:BC56)</f>
+        <v>2.793344811827355E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <f>AVERAGE(B57:D57)</f>
+        <v>0.12584886577084237</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="53"/>
+        <v>0.21797662959001476</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <f>AVERAGE(E57:G57)</f>
+        <v>0.12789869827205977</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="55"/>
+        <v>3.2792433439849896E-3</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <f>AVERAGE(H57:J57)</f>
+        <v>0.36511710057388264</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="57"/>
+        <v>1.1179763828714634E-2</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <f>AVERAGE(K57:M57)</f>
+        <v>0.35356634508276813</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="59"/>
+        <v>2.0737547606765015E-3</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <f>AVERAGE(N57:P57)</f>
+        <v>0.37786954203528822</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="61"/>
+        <v>2.773448226618742E-3</v>
+      </c>
+      <c r="P72">
+        <v>2</v>
+      </c>
+      <c r="Q72">
+        <f>AVERAGE(Q57:S57)</f>
+        <v>0.12545546402105859</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="63"/>
+        <v>2.8984867869794283E-3</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <f>AVERAGE(T57:V57)</f>
+        <v>0.33951318033635292</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="65"/>
+        <v>3.0947714983804268E-3</v>
+      </c>
+      <c r="V72">
+        <v>2</v>
+      </c>
+      <c r="W72">
+        <f>AVERAGE(W57:Y57)</f>
+        <v>0.42089024839498562</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="67"/>
+        <v>4.6558962852220453E-3</v>
+      </c>
+      <c r="Y72">
+        <v>2</v>
+      </c>
+      <c r="Z72">
+        <f>AVERAGE(Z57:AB57)</f>
+        <v>0.38594424717639803</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="69"/>
+        <v>3.285175172402116E-3</v>
+      </c>
+      <c r="AB72">
+        <v>2</v>
+      </c>
+      <c r="AC72">
+        <f>AVERAGE(AC57:AE57)</f>
+        <v>0.39550498662546324</v>
+      </c>
+      <c r="AD72">
+        <f t="shared" si="71"/>
+        <v>3.4610092399428478E-3</v>
+      </c>
+      <c r="AE72">
+        <v>2</v>
+      </c>
+      <c r="AF72">
+        <f>AVERAGE(AF57:AH57)</f>
+        <v>0.36156692363394344</v>
+      </c>
+      <c r="AG72">
+        <f t="shared" si="73"/>
+        <v>1.3361462602742182E-2</v>
+      </c>
+      <c r="AH72">
+        <v>2</v>
+      </c>
+      <c r="AI72">
+        <f>AVERAGE(AI57:AK57)</f>
+        <v>0.35548474045119788</v>
+      </c>
+      <c r="AJ72">
+        <f t="shared" si="75"/>
+        <v>3.2906034361985153E-3</v>
+      </c>
+      <c r="AK72">
+        <v>2</v>
+      </c>
+      <c r="AL72">
+        <f>AVERAGE(AL57:AN57)</f>
+        <v>0.43438327229958418</v>
+      </c>
+      <c r="AM72">
+        <f t="shared" si="77"/>
+        <v>3.4724510547551168E-3</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <f>AVERAGE(AO57:AQ57)</f>
+        <v>2.046368240181173E-2</v>
+      </c>
+      <c r="AP72">
+        <f t="shared" si="79"/>
+        <v>2.5465644849128875E-3</v>
+      </c>
+      <c r="AQ72">
+        <v>2</v>
+      </c>
+      <c r="AR72">
+        <f>AVERAGE(AR57:AT57)</f>
+        <v>0.3903444499562399</v>
+      </c>
+      <c r="AS72">
+        <f t="shared" si="81"/>
+        <v>4.701597318276198E-3</v>
+      </c>
+      <c r="AT72">
+        <v>2</v>
+      </c>
+      <c r="AU72">
+        <f>AVERAGE(AU57:AW57)</f>
+        <v>0.29624412521071136</v>
+      </c>
+      <c r="AV72">
+        <f t="shared" si="83"/>
+        <v>4.0052511993344513E-3</v>
+      </c>
+      <c r="AW72">
+        <v>2</v>
+      </c>
+      <c r="AX72">
+        <f>AVERAGE(AX57:AZ57)</f>
+        <v>0.21581953683588381</v>
+      </c>
+      <c r="AY72">
+        <f t="shared" si="85"/>
+        <v>6.1324957552158959E-3</v>
+      </c>
+      <c r="AZ72">
+        <v>2</v>
+      </c>
+      <c r="BA72">
+        <f>AVERAGE(BA57:BC57)</f>
+        <v>0.28999642261227093</v>
+      </c>
+      <c r="BB72">
+        <f t="shared" si="87"/>
+        <v>2.8646569034917304E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <f>AVERAGE(E58:G58)</f>
+        <v>0.2236333080619608</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="55"/>
+        <v>2.790500618712206E-3</v>
+      </c>
+      <c r="G73">
+        <v>3</v>
+      </c>
+      <c r="H73">
+        <f>AVERAGE(H58:J58)</f>
+        <v>0.26031178987480524</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="57"/>
+        <v>5.8740962014435403E-3</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <f t="shared" ref="K73" si="88">AVERAGE(K58:M58)</f>
+        <v>0.27468044870445679</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="59"/>
+        <v>3.1292375263341837E-3</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <f>AVERAGE(N58:P58)</f>
+        <v>0.29226665784317801</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="61"/>
+        <v>2.4559304091226995E-3</v>
+      </c>
+      <c r="P73">
+        <v>3</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" ref="Q73" si="89">AVERAGE(Q58:S58)</f>
+        <v>0.2152218803446585</v>
+      </c>
+      <c r="R73">
+        <f>STDEV(Q58:S58)</f>
+        <v>4.753721589213283E-3</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <f t="shared" ref="T73" si="90">AVERAGE(T58:V58)</f>
+        <v>0.2166917590915787</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="65"/>
+        <v>2.8070363259899951E-3</v>
+      </c>
+      <c r="V73">
+        <v>3</v>
+      </c>
+      <c r="W73">
+        <f t="shared" ref="W73" si="91">AVERAGE(W58:Y58)</f>
+        <v>0.31466194593948654</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="67"/>
+        <v>3.5463030002693243E-3</v>
+      </c>
+      <c r="Y73">
+        <v>3</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" ref="Z73" si="92">AVERAGE(Z58:AB58)</f>
+        <v>0.28174731116877649</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="69"/>
+        <v>3.2882887081063608E-3</v>
+      </c>
+      <c r="AB73">
+        <v>3</v>
+      </c>
+      <c r="AC73">
+        <f t="shared" ref="AC73" si="93">AVERAGE(AC58:AE58)</f>
+        <v>6.6796116414646681E-2</v>
+      </c>
+      <c r="AD73">
+        <f>STDEV(AC58:AE58)</f>
+        <v>1.9222320756437225E-3</v>
+      </c>
+      <c r="AE73">
+        <v>3</v>
+      </c>
+      <c r="AH73">
+        <v>3</v>
+      </c>
+      <c r="AI73">
+        <f>AVERAGE(AI58:AK58)</f>
+        <v>5.9196550779231492E-2</v>
+      </c>
+      <c r="AJ73">
+        <f t="shared" si="75"/>
+        <v>9.2982604147790371E-4</v>
+      </c>
+      <c r="AK73">
+        <v>3</v>
+      </c>
+      <c r="AL73">
+        <f t="shared" ref="AL73" si="94">AVERAGE(AL58:AN58)</f>
+        <v>0.30825694229196582</v>
+      </c>
+      <c r="AM73">
+        <f t="shared" si="77"/>
+        <v>4.26113115209149E-3</v>
+      </c>
+      <c r="AN73">
+        <v>3</v>
+      </c>
+      <c r="AO73">
+        <f t="shared" ref="AO73" si="95">AVERAGE(AO58:AQ58)</f>
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AQ73">
+        <v>3</v>
+      </c>
+      <c r="AR73">
+        <f t="shared" ref="AR73" si="96">AVERAGE(AR58:AT58)</f>
+        <v>0.28987289500335328</v>
+      </c>
+      <c r="AS73">
+        <f t="shared" si="81"/>
+        <v>4.9110060593702386E-3</v>
+      </c>
+      <c r="AT73">
+        <v>3</v>
+      </c>
+      <c r="AU73">
+        <f t="shared" ref="AU73" si="97">AVERAGE(AU58:AW58)</f>
+        <v>0.29770268024000873</v>
+      </c>
+      <c r="AV73">
+        <f t="shared" si="83"/>
+        <v>2.7747806577096152E-3</v>
+      </c>
+      <c r="AW73">
+        <v>3</v>
+      </c>
+      <c r="AX73">
+        <f t="shared" ref="AX73" si="98">AVERAGE(AX58:AZ58)</f>
+        <v>0.40680956211834435</v>
+      </c>
+      <c r="AY73">
+        <f t="shared" si="85"/>
+        <v>2.7035716403679675E-3</v>
+      </c>
+      <c r="AZ73">
+        <v>3</v>
+      </c>
+      <c r="BA73">
+        <f t="shared" ref="BA73" si="99">AVERAGE(BA58:BC58)</f>
+        <v>0.32853954487707221</v>
+      </c>
+      <c r="BB73">
+        <f t="shared" si="87"/>
+        <v>3.6403660580883643E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:E79" si="100">AVERAGE(E59:G59)</f>
+        <v>0.27565234330704119</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="55"/>
+        <v>3.160413683198738E-3</v>
+      </c>
+      <c r="G74">
+        <v>4</v>
+      </c>
+      <c r="H74">
+        <f t="shared" ref="H74:H76" si="101">AVERAGE(H59:J59)</f>
+        <v>7.309235426021532E-2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="57"/>
+        <v>2.1491772632951781E-3</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+      <c r="K74">
+        <f t="shared" ref="K74" si="102">AVERAGE(K59:M59)</f>
+        <v>9.3198007932008442E-2</v>
+      </c>
+      <c r="L74">
+        <f>STDEV(K59:M59)</f>
+        <v>2.6545906062996303E-4</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <f t="shared" ref="N74:N75" si="103">AVERAGE(N59:P59)</f>
+        <v>7.2642752762230034E-2</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="61"/>
+        <v>6.8550583583443681E-4</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" ref="Q74:Q79" si="104">AVERAGE(Q59:S59)</f>
+        <v>0.26154935169379101</v>
+      </c>
+      <c r="R74">
+        <f t="shared" ref="R74:R79" si="105">STDEV(Q59:S59)</f>
+        <v>3.7784587786441068E-3</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <f t="shared" ref="T74:T75" si="106">AVERAGE(T59:V59)</f>
+        <v>4.7322902424255076E-2</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="65"/>
+        <v>1.6418831935808684E-3</v>
+      </c>
+      <c r="V74">
+        <v>4</v>
+      </c>
+      <c r="W74">
+        <f t="shared" ref="W74:W75" si="107">AVERAGE(W59:Y59)</f>
+        <v>6.8113264380342667E-2</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="67"/>
+        <v>1.2151390220224185E-3</v>
+      </c>
+      <c r="Y74">
+        <v>4</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" ref="Z74" si="108">AVERAGE(Z59:AB59)</f>
+        <v>3.4612586540160771E-2</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="69"/>
+        <v>2.9123133331126769E-3</v>
+      </c>
+      <c r="AB74">
+        <v>4</v>
+      </c>
+      <c r="AE74">
+        <v>4</v>
+      </c>
+      <c r="AH74">
+        <v>4</v>
+      </c>
+      <c r="AK74">
+        <v>4</v>
+      </c>
+      <c r="AL74">
+        <f t="shared" ref="AL74:AL75" si="109">AVERAGE(AL59:AN59)</f>
+        <v>7.0442019721828952E-2</v>
+      </c>
+      <c r="AM74">
+        <f t="shared" si="77"/>
+        <v>2.9138583778326975E-3</v>
+      </c>
+      <c r="AN74">
+        <v>4</v>
+      </c>
+      <c r="AO74">
+        <f t="shared" ref="AO74" si="110">AVERAGE(AO59:AQ59)</f>
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>4</v>
+      </c>
+      <c r="AR74">
+        <f>AVERAGE(AR59:AT59)</f>
+        <v>4.2371390996231412E-2</v>
+      </c>
+      <c r="AS74">
+        <f t="shared" si="81"/>
+        <v>7.5245535206891793E-4</v>
+      </c>
+      <c r="AT74">
+        <v>4</v>
+      </c>
+      <c r="AU74">
+        <f t="shared" ref="AU74:AU79" si="111">AVERAGE(AU59:AW59)</f>
+        <v>0.14330433669228379</v>
+      </c>
+      <c r="AV74">
+        <f t="shared" si="83"/>
+        <v>1.4890591077530723E-3</v>
+      </c>
+      <c r="AW74">
+        <v>4</v>
+      </c>
+      <c r="AX74">
+        <f t="shared" ref="AX74:AX79" si="112">AVERAGE(AX59:AZ59)</f>
+        <v>0.24909760868200057</v>
+      </c>
+      <c r="AY74">
+        <f t="shared" si="85"/>
+        <v>4.4170020398309612E-3</v>
+      </c>
+      <c r="AZ74">
+        <v>4</v>
+      </c>
+      <c r="BA74">
+        <f t="shared" ref="BA74:BA79" si="113">AVERAGE(BA59:BC59)</f>
+        <v>0.17967572167001042</v>
+      </c>
+      <c r="BB74">
+        <f t="shared" si="87"/>
+        <v>2.556267053567274E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="100"/>
+        <v>0.20542864660279928</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="55"/>
+        <v>3.0803184954234239E-3</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="101"/>
+        <v>1.0678521546405141E-2</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="57"/>
+        <v>5.1475797963438199E-4</v>
+      </c>
+      <c r="J75">
+        <v>5</v>
+      </c>
+      <c r="K75">
+        <f t="shared" ref="K75:K76" si="114">AVERAGE(K60:M60)</f>
+        <v>1.4998049035171546E-2</v>
+      </c>
+      <c r="L75">
+        <f t="shared" ref="L75:L76" si="115">STDEV(K60:M60)</f>
+        <v>4.5037388625486236E-4</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f>STDEV(N60:P60)</f>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>5</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="104"/>
+        <v>0.20866449123088446</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="105"/>
+        <v>2.7376414491624076E-3</v>
+      </c>
+      <c r="S75">
+        <v>5</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="106"/>
+        <v>4.1231005278019048E-3</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="65"/>
+        <v>1.6116541784547519E-4</v>
+      </c>
+      <c r="V75">
+        <v>5</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="107"/>
+        <v>5.6999327879672483E-3</v>
+      </c>
+      <c r="X75">
+        <f>STDEV(W60:Y60)</f>
+        <v>2.4000030125357859E-4</v>
+      </c>
+      <c r="Y75">
+        <v>5</v>
+      </c>
+      <c r="AB75">
+        <v>5</v>
+      </c>
+      <c r="AE75">
+        <v>5</v>
+      </c>
+      <c r="AH75">
+        <v>5</v>
+      </c>
+      <c r="AK75">
+        <v>5</v>
+      </c>
+      <c r="AL75">
+        <f t="shared" si="109"/>
+        <v>6.6929482085668372E-3</v>
+      </c>
+      <c r="AM75">
+        <f t="shared" si="77"/>
+        <v>3.5686069880344233E-4</v>
+      </c>
+      <c r="AN75">
+        <v>5</v>
+      </c>
+      <c r="AQ75">
+        <v>5</v>
+      </c>
+      <c r="AT75">
+        <v>5</v>
+      </c>
+      <c r="AU75">
+        <f t="shared" si="111"/>
+        <v>3.619742425899853E-2</v>
+      </c>
+      <c r="AV75">
+        <f t="shared" si="83"/>
+        <v>1.0361560769177459E-3</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <f t="shared" si="112"/>
+        <v>5.3835242813014585E-2</v>
+      </c>
+      <c r="AY75">
+        <f t="shared" si="85"/>
+        <v>2.1967324403750605E-3</v>
+      </c>
+      <c r="AZ75">
+        <v>5</v>
+      </c>
+      <c r="BA75">
+        <f t="shared" si="113"/>
+        <v>3.8431910855116359E-2</v>
+      </c>
+      <c r="BB75">
+        <f t="shared" si="87"/>
+        <v>1.3317346818412163E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>6</v>
+      </c>
+      <c r="D76">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="100"/>
+        <v>8.9147702191444675E-2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="55"/>
+        <v>1.5864832224246847E-3</v>
+      </c>
+      <c r="G76">
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="101"/>
+        <v>7.9844003569541557E-4</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="57"/>
+        <v>9.4406758624439178E-5</v>
+      </c>
+      <c r="J76">
+        <v>6</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="114"/>
+        <v>1.2660681758629696E-3</v>
+      </c>
+      <c r="L76">
+        <f>STDEV(K61:M61)</f>
+        <v>4.4105860211496095E-5</v>
+      </c>
+      <c r="M76">
+        <v>6</v>
+      </c>
+      <c r="P76">
+        <v>6</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="104"/>
+        <v>9.3605232725711529E-2</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="105"/>
+        <v>1.2795215403956922E-3</v>
+      </c>
+      <c r="S76">
+        <v>6</v>
+      </c>
+      <c r="V76">
+        <v>6</v>
+      </c>
+      <c r="Y76">
+        <v>6</v>
+      </c>
+      <c r="AB76">
+        <v>6</v>
+      </c>
+      <c r="AE76">
+        <v>6</v>
+      </c>
+      <c r="AH76">
+        <v>6</v>
+      </c>
+      <c r="AK76">
+        <v>6</v>
+      </c>
+      <c r="AN76">
+        <v>6</v>
+      </c>
+      <c r="AQ76">
+        <v>6</v>
+      </c>
+      <c r="AT76">
+        <v>6</v>
+      </c>
+      <c r="AU76">
+        <f t="shared" si="111"/>
+        <v>3.7436419772183872E-3</v>
+      </c>
+      <c r="AV76">
+        <f t="shared" si="83"/>
+        <v>2.7043568125332417E-4</v>
+      </c>
+      <c r="AW76">
+        <v>6</v>
+      </c>
+      <c r="AX76">
+        <f t="shared" si="112"/>
+        <v>4.9174596393339572E-3</v>
+      </c>
+      <c r="AY76">
+        <f t="shared" si="85"/>
+        <v>2.6731086908908308E-4</v>
+      </c>
+      <c r="AZ76">
+        <v>6</v>
+      </c>
+      <c r="BA76">
+        <f t="shared" si="113"/>
+        <v>3.2685518079173027E-3</v>
+      </c>
+      <c r="BB76">
+        <f>STDEV(BA61:BC61)</f>
+        <v>1.5894170331594699E-4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="100"/>
+        <v>2.0496077752520835E-2</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="55"/>
+        <v>7.6242792475940402E-4</v>
+      </c>
+      <c r="G77">
+        <v>7</v>
+      </c>
+      <c r="J77">
+        <v>7</v>
+      </c>
+      <c r="M77">
+        <v>7</v>
+      </c>
+      <c r="P77">
+        <v>7</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="104"/>
+        <v>2.5454851336376479E-2</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="105"/>
+        <v>9.4753293915211638E-4</v>
+      </c>
+      <c r="S77">
+        <v>7</v>
+      </c>
+      <c r="V77">
+        <v>7</v>
+      </c>
+      <c r="Y77">
+        <v>7</v>
+      </c>
+      <c r="AB77">
+        <v>7</v>
+      </c>
+      <c r="AE77">
+        <v>7</v>
+      </c>
+      <c r="AH77">
+        <v>7</v>
+      </c>
+      <c r="AK77">
+        <v>7</v>
+      </c>
+      <c r="AN77">
+        <v>7</v>
+      </c>
+      <c r="AQ77">
+        <v>7</v>
+      </c>
+      <c r="AT77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>7</v>
+      </c>
+      <c r="AZ77">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="100"/>
+        <v>2.7987927771041059E-3</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="55"/>
+        <v>2.1620826052517905E-4</v>
+      </c>
+      <c r="G78">
+        <v>8</v>
+      </c>
+      <c r="J78">
+        <v>8</v>
+      </c>
+      <c r="M78">
+        <v>8</v>
+      </c>
+      <c r="P78">
+        <v>8</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="104"/>
+        <v>3.8708097212982774E-3</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="105"/>
+        <v>2.4768506950539714E-4</v>
+      </c>
+      <c r="S78">
+        <v>8</v>
+      </c>
+      <c r="V78">
+        <v>8</v>
+      </c>
+      <c r="Y78">
+        <v>8</v>
+      </c>
+      <c r="AB78">
+        <v>8</v>
+      </c>
+      <c r="AE78">
+        <v>8</v>
+      </c>
+      <c r="AH78">
+        <v>8</v>
+      </c>
+      <c r="AK78">
+        <v>8</v>
+      </c>
+      <c r="AN78">
+        <v>8</v>
+      </c>
+      <c r="AQ78">
+        <v>8</v>
+      </c>
+      <c r="AT78">
+        <v>8</v>
+      </c>
+      <c r="AW78">
+        <v>8</v>
+      </c>
+      <c r="AZ78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="D79">
+        <v>9</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="100"/>
+        <v>2.4534867089516537E-4</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="55"/>
+        <v>4.1906904675238078E-5</v>
+      </c>
+      <c r="G79">
+        <v>9</v>
+      </c>
+      <c r="J79">
+        <v>9</v>
+      </c>
+      <c r="M79">
+        <v>9</v>
+      </c>
+      <c r="P79">
+        <v>9</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="104"/>
+        <v>3.5455709377424545E-4</v>
+      </c>
+      <c r="R79">
+        <f>STDEV(Q64:S64)</f>
+        <v>3.126468344184919E-4</v>
+      </c>
+      <c r="S79">
+        <v>9</v>
+      </c>
+      <c r="V79">
+        <v>9</v>
+      </c>
+      <c r="Y79">
+        <v>9</v>
+      </c>
+      <c r="AB79">
+        <v>9</v>
+      </c>
+      <c r="AE79">
+        <v>9</v>
+      </c>
+      <c r="AH79">
+        <v>9</v>
+      </c>
+      <c r="AK79">
+        <v>9</v>
+      </c>
+      <c r="AN79">
+        <v>9</v>
+      </c>
+      <c r="AQ79">
+        <v>9</v>
+      </c>
+      <c r="AT79">
+        <v>9</v>
+      </c>
+      <c r="AW79">
+        <v>9</v>
+      </c>
+      <c r="AZ79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80">
+        <f>SUM(B70:B79)</f>
+        <v>1.000093161915409</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ref="C80" si="116">SUM(C70:C79)</f>
+        <v>0.43838865106469482</v>
+      </c>
+      <c r="D80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80" si="117">SUM(E70:E79)</f>
+        <v>1.0000000382259788</v>
+      </c>
+      <c r="F80">
+        <f t="shared" ref="F80" si="118">SUM(F70:F79)</f>
+        <v>2.9891699564964382E-2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80">
+        <f t="shared" ref="H80" si="119">SUM(H70:H79)</f>
+        <v>1.0000001279369037</v>
+      </c>
+      <c r="I80">
+        <f t="shared" ref="I80" si="120">SUM(I70:I79)</f>
+        <v>2.3422745141131591E-2</v>
+      </c>
+      <c r="J80" t="s">
+        <v>105</v>
+      </c>
+      <c r="K80">
+        <f t="shared" ref="K80" si="121">SUM(K70:K79)</f>
+        <v>1.0000000372589442</v>
+      </c>
+      <c r="L80">
+        <f t="shared" ref="L80" si="122">SUM(L70:L79)</f>
+        <v>1.0006811266264928E-2</v>
+      </c>
+      <c r="M80" t="s">
+        <v>105</v>
+      </c>
+      <c r="N80">
+        <f t="shared" ref="N80" si="123">SUM(N70:N79)</f>
+        <v>1.0000001377539398</v>
+      </c>
+      <c r="O80">
+        <f t="shared" ref="O80" si="124">SUM(O70:O79)</f>
+        <v>9.4400885097674376E-3</v>
+      </c>
+      <c r="P80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" ref="Q80" si="125">SUM(Q70:Q79)</f>
+        <v>0.99999997668372587</v>
+      </c>
+      <c r="R80">
+        <f t="shared" ref="R80" si="126">SUM(R70:R79)</f>
+        <v>2.0117328744001278E-2</v>
+      </c>
+      <c r="S80" t="s">
+        <v>105</v>
+      </c>
+      <c r="T80">
+        <f t="shared" ref="T80" si="127">SUM(T70:T79)</f>
+        <v>1.0000000118503876</v>
+      </c>
+      <c r="U80">
+        <f t="shared" ref="U80" si="128">SUM(U70:U79)</f>
+        <v>1.2115734055683882E-2</v>
+      </c>
+      <c r="V80" t="s">
+        <v>105</v>
+      </c>
+      <c r="W80">
+        <f t="shared" ref="W80" si="129">SUM(W70:W79)</f>
+        <v>1.0000000189870411</v>
+      </c>
+      <c r="X80">
+        <f t="shared" ref="X80" si="130">SUM(X70:X79)</f>
+        <v>1.8255691065374235E-2</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" ref="Z80" si="131">SUM(Z70:Z79)</f>
+        <v>1.0000001311368834</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" ref="AA80" si="132">SUM(AA70:AA79)</f>
+        <v>1.2361950503653449E-2</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" ref="AC80" si="133">SUM(AC70:AC79)</f>
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <f t="shared" ref="AD80" si="134">SUM(AD70:AD79)</f>
+        <v>1.3420549962238688E-2</v>
+      </c>
+      <c r="AE80" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF80">
+        <f t="shared" ref="AF80" si="135">SUM(AF70:AF79)</f>
+        <v>0.99999719432917811</v>
+      </c>
+      <c r="AG80">
+        <f t="shared" ref="AG80" si="136">SUM(AG70:AG79)</f>
+        <v>6.6498967805398435E-2</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI80">
+        <f t="shared" ref="AI80" si="137">SUM(AI70:AI79)</f>
+        <v>1.0000002483175696</v>
+      </c>
+      <c r="AJ80">
+        <f t="shared" ref="AJ80" si="138">SUM(AJ70:AJ79)</f>
+        <v>1.8092338690937612E-2</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL80">
+        <f t="shared" ref="AL80" si="139">SUM(AL70:AL79)</f>
+        <v>0.99999998781598765</v>
+      </c>
+      <c r="AM80">
+        <f t="shared" ref="AM80" si="140">SUM(AM70:AM79)</f>
+        <v>2.1867991751825789E-2</v>
+      </c>
+      <c r="AN80" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO80">
+        <f t="shared" ref="AO80" si="141">SUM(AO70:AO79)</f>
+        <v>1.0000003127520585</v>
+      </c>
+      <c r="AP80">
+        <f t="shared" ref="AP80" si="142">SUM(AP70:AP79)</f>
+        <v>1.7001912663101335E-2</v>
+      </c>
+      <c r="AQ80" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR80">
+        <f t="shared" ref="AR80" si="143">SUM(AR70:AR79)</f>
+        <v>1.0000000646487293</v>
+      </c>
+      <c r="AS80">
+        <f t="shared" ref="AS80" si="144">SUM(AS70:AS79)</f>
+        <v>1.3129031689509695E-2</v>
+      </c>
+      <c r="AT80" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU80">
+        <f t="shared" ref="AU80" si="145">SUM(AU70:AU79)</f>
+        <v>0.99999997621955294</v>
+      </c>
+      <c r="AV80">
+        <f t="shared" ref="AV80" si="146">SUM(AV70:AV79)</f>
+        <v>1.1830945165947567E-2</v>
+      </c>
+      <c r="AW80" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX80">
+        <f t="shared" ref="AX80" si="147">SUM(AX70:AX79)</f>
+        <v>1.000000012383762</v>
+      </c>
+      <c r="AY80">
+        <f t="shared" ref="AY80" si="148">SUM(AY70:AY79)</f>
+        <v>2.0898508765489487E-2</v>
+      </c>
+      <c r="AZ80" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA80">
+        <f t="shared" ref="BA80" si="149">SUM(BA70:BA79)</f>
+        <v>0.99999998720236116</v>
+      </c>
+      <c r="BB80">
+        <f t="shared" ref="BB80" si="150">SUM(BB70:BB79)</f>
+        <v>1.4130910203100613E-2</v>
+      </c>
+      <c r="BC80">
+        <f t="shared" ref="BC80" si="151">SUM(BC70:BC79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" t="s">
+        <v>40</v>
+      </c>
+      <c r="G83" t="s">
+        <v>107</v>
+      </c>
+      <c r="H83" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" t="s">
+        <v>50</v>
+      </c>
+      <c r="J83" t="s">
+        <v>107</v>
+      </c>
+      <c r="K83" t="s">
+        <v>48</v>
+      </c>
+      <c r="L83" t="s">
+        <v>48</v>
+      </c>
+      <c r="M83" t="s">
+        <v>107</v>
+      </c>
+      <c r="N83" t="s">
+        <v>51</v>
+      </c>
+      <c r="O83" t="s">
+        <v>51</v>
+      </c>
+      <c r="P83" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>53</v>
+      </c>
+      <c r="R83" t="s">
+        <v>53</v>
+      </c>
+      <c r="S83" t="s">
+        <v>107</v>
+      </c>
+      <c r="T83" t="s">
+        <v>55</v>
+      </c>
+      <c r="U83" t="s">
+        <v>55</v>
+      </c>
+      <c r="V83" t="s">
+        <v>107</v>
+      </c>
+      <c r="W83" t="s">
+        <v>57</v>
+      </c>
+      <c r="X83" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE83" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF83" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG83" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ83" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN83" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP83" t="s">
+        <v>69</v>
+      </c>
+      <c r="AQ83" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS83" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT83" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV83" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW83" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX83" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY83" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ83" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA83" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>106</v>
+      </c>
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+      <c r="C84" t="s">
+        <v>109</v>
+      </c>
+      <c r="D84" t="s">
+        <v>106</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+      <c r="F84" t="s">
+        <v>109</v>
+      </c>
+      <c r="G84" t="s">
+        <v>106</v>
+      </c>
+      <c r="H84" t="s">
+        <v>108</v>
+      </c>
+      <c r="I84" t="s">
+        <v>109</v>
+      </c>
+      <c r="J84" t="s">
+        <v>106</v>
+      </c>
+      <c r="K84" t="s">
+        <v>108</v>
+      </c>
+      <c r="L84" t="s">
+        <v>109</v>
+      </c>
+      <c r="M84" t="s">
+        <v>106</v>
+      </c>
+      <c r="N84" t="s">
+        <v>108</v>
+      </c>
+      <c r="O84" t="s">
+        <v>109</v>
+      </c>
+      <c r="P84" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>108</v>
+      </c>
+      <c r="R84" t="s">
+        <v>109</v>
+      </c>
+      <c r="S84" t="s">
+        <v>106</v>
+      </c>
+      <c r="T84" t="s">
+        <v>108</v>
+      </c>
+      <c r="U84" t="s">
+        <v>109</v>
+      </c>
+      <c r="V84" t="s">
+        <v>106</v>
+      </c>
+      <c r="W84" t="s">
+        <v>108</v>
+      </c>
+      <c r="X84" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE84" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK84" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN84" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ84" t="s">
+        <v>106</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT84" t="s">
+        <v>106</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW84" t="s">
+        <v>106</v>
+      </c>
+      <c r="AX84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AY84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AZ84" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA84" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB84" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0.45974192409787951</v>
+      </c>
+      <c r="C85">
+        <v>0.1602529864836052</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>6.8441723502002888E-3</v>
+      </c>
+      <c r="F85">
+        <v>1.1854454246304992E-2</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>4.7184744620100583E-2</v>
+      </c>
+      <c r="I85">
+        <v>1.0109409945412448E-4</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>4.136346222023491E-2</v>
+      </c>
+      <c r="L85">
+        <v>7.4436915372595855E-4</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>4.235699401009111E-2</v>
+      </c>
+      <c r="O85">
+        <v>2.0620737667494623E-3</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>2.0194238889219326E-2</v>
+      </c>
+      <c r="R85">
+        <v>1.90559450366678E-3</v>
+      </c>
+      <c r="S85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <v>0.1301628119035623</v>
+      </c>
+      <c r="U85">
+        <v>1.852046950940238E-3</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>2.9493107407919272E-2</v>
+      </c>
+      <c r="X85">
+        <v>1.3546518787517655E-3</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>5.167582110643118E-2</v>
+      </c>
+      <c r="AA85">
+        <v>1.5536369952495429E-3</v>
+      </c>
+      <c r="AB85">
+        <v>0</v>
+      </c>
+      <c r="AC85">
+        <v>0.17114060681098761</v>
+      </c>
+      <c r="AD85">
+        <v>3.9422739044727272E-3</v>
+      </c>
+      <c r="AE85">
+        <v>0</v>
+      </c>
+      <c r="AF85">
+        <v>0.2078773562530892</v>
+      </c>
+      <c r="AG85">
+        <v>2.4616888342130785E-2</v>
+      </c>
+      <c r="AH85">
+        <v>0</v>
+      </c>
+      <c r="AI85">
+        <v>0.19444840504751823</v>
+      </c>
+      <c r="AJ85">
+        <v>5.5617635609968756E-3</v>
+      </c>
+      <c r="AK85">
+        <v>0</v>
+      </c>
+      <c r="AL85">
+        <v>2.805792587776083E-2</v>
+      </c>
+      <c r="AM85">
+        <v>1.302789886620059E-3</v>
+      </c>
+      <c r="AN85">
+        <v>0</v>
+      </c>
+      <c r="AO85">
+        <v>0.79386005200875365</v>
+      </c>
+      <c r="AP85">
+        <v>7.8137789974078928E-3</v>
+      </c>
+      <c r="AQ85">
+        <v>0</v>
+      </c>
+      <c r="AR85">
+        <v>4.9144487260389814E-2</v>
+      </c>
+      <c r="AS85">
+        <v>1.5006616155571909E-3</v>
+      </c>
+      <c r="AT85">
+        <v>0</v>
+      </c>
+      <c r="AU85">
+        <v>5.4471571773677785E-2</v>
+      </c>
+      <c r="AV85">
+        <v>1.4282015715543698E-3</v>
+      </c>
+      <c r="AW85">
+        <v>0</v>
+      </c>
+      <c r="AX85">
+        <v>1.804722583040011E-2</v>
+      </c>
+      <c r="AY85">
+        <v>1.904885653308374E-3</v>
+      </c>
+      <c r="AZ85">
+        <v>0</v>
+      </c>
+      <c r="BA85">
+        <v>2.3487382844179967E-2</v>
+      </c>
+      <c r="BB85">
+        <v>7.8559899096872633E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>0.41450237204668711</v>
+      </c>
+      <c r="C86">
+        <v>6.0159034991074868E-2</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>4.7854948239952726E-2</v>
+      </c>
+      <c r="F86">
+        <v>3.1197428649555204E-3</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0.24281717702579927</v>
+      </c>
+      <c r="I86">
+        <v>3.5094490099652916E-3</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>0.22092765610844137</v>
+      </c>
+      <c r="L86">
+        <v>3.2995110184319632E-3</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0.21486419110315236</v>
+      </c>
+      <c r="O86">
+        <v>1.4631302714420969E-3</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>4.562909962695335E-2</v>
+      </c>
+      <c r="R86">
+        <v>1.256039252863573E-3</v>
+      </c>
+      <c r="S86">
+        <v>1</v>
+      </c>
+      <c r="T86">
+        <v>0.26218625756683678</v>
+      </c>
+      <c r="U86">
+        <v>2.5588306689468799E-3</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>0.1611415200763395</v>
+      </c>
+      <c r="X86">
+        <v>7.2437005778551019E-3</v>
+      </c>
+      <c r="Y86">
+        <v>1</v>
+      </c>
+      <c r="Z86">
+        <v>0.24602016514511679</v>
+      </c>
+      <c r="AA86">
+        <v>1.322536294782751E-3</v>
+      </c>
+      <c r="AB86">
+        <v>1</v>
+      </c>
+      <c r="AC86">
+        <v>0.36655829014890245</v>
+      </c>
+      <c r="AD86">
+        <v>4.09503474217939E-3</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
+      </c>
+      <c r="AF86">
+        <v>0.43055291444214544</v>
+      </c>
+      <c r="AG86">
+        <v>2.8520616860525465E-2</v>
+      </c>
+      <c r="AH86">
+        <v>1</v>
+      </c>
+      <c r="AI86">
+        <v>0.3908705520396219</v>
+      </c>
+      <c r="AJ86">
+        <v>8.3101456522643186E-3</v>
+      </c>
+      <c r="AK86">
+        <v>1</v>
+      </c>
+      <c r="AL86">
+        <v>0.15216687941628107</v>
+      </c>
+      <c r="AM86">
+        <v>9.5609005817229829E-3</v>
+      </c>
+      <c r="AN86">
+        <v>1</v>
+      </c>
+      <c r="AO86">
+        <v>0.18567657834149318</v>
+      </c>
+      <c r="AP86">
+        <v>6.6415691807805537E-3</v>
+      </c>
+      <c r="AQ86">
+        <v>1</v>
+      </c>
+      <c r="AR86">
+        <v>0.22826684143251483</v>
+      </c>
+      <c r="AS86">
+        <v>1.2633113442371499E-3</v>
+      </c>
+      <c r="AT86">
+        <v>1</v>
+      </c>
+      <c r="AU86">
+        <v>0.1683361960666544</v>
+      </c>
+      <c r="AV86">
+        <v>8.2706087142498687E-4</v>
+      </c>
+      <c r="AW86">
+        <v>1</v>
+      </c>
+      <c r="AX86">
+        <v>5.1473376464784594E-2</v>
+      </c>
+      <c r="AY86">
+        <v>3.276510367302146E-3</v>
+      </c>
+      <c r="AZ86">
+        <v>1</v>
+      </c>
+      <c r="BA86">
+        <v>0.136600452535794</v>
+      </c>
+      <c r="BB86">
+        <v>2.793344811827355E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>2</v>
+      </c>
+      <c r="B87">
+        <v>0.12584886577084237</v>
+      </c>
+      <c r="C87">
+        <v>0.21797662959001476</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0.12789869827205977</v>
+      </c>
+      <c r="F87">
+        <v>3.2792433439849896E-3</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>0.36511710057388264</v>
+      </c>
+      <c r="I87">
+        <v>1.1179763828714634E-2</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>0.35356634508276813</v>
+      </c>
+      <c r="L87">
+        <v>2.0737547606765015E-3</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>0.37786954203528822</v>
+      </c>
+      <c r="O87">
+        <v>2.773448226618742E-3</v>
+      </c>
+      <c r="P87">
+        <v>2</v>
+      </c>
+      <c r="Q87">
+        <v>0.12545546402105859</v>
+      </c>
+      <c r="R87">
+        <v>2.8984867869794283E-3</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <v>0.33951318033635292</v>
+      </c>
+      <c r="U87">
+        <v>3.0947714983804268E-3</v>
+      </c>
+      <c r="V87">
+        <v>2</v>
+      </c>
+      <c r="W87">
+        <v>0.42089024839498562</v>
+      </c>
+      <c r="X87">
+        <v>4.6558962852220453E-3</v>
+      </c>
+      <c r="Y87">
+        <v>2</v>
+      </c>
+      <c r="Z87">
+        <v>0.38594424717639803</v>
+      </c>
+      <c r="AA87">
+        <v>3.285175172402116E-3</v>
+      </c>
+      <c r="AB87">
+        <v>2</v>
+      </c>
+      <c r="AC87">
+        <v>0.39550498662546324</v>
+      </c>
+      <c r="AD87">
+        <v>3.4610092399428478E-3</v>
+      </c>
+      <c r="AE87">
+        <v>2</v>
+      </c>
+      <c r="AF87">
+        <v>0.36156692363394344</v>
+      </c>
+      <c r="AG87">
+        <v>1.3361462602742182E-2</v>
+      </c>
+      <c r="AH87">
+        <v>2</v>
+      </c>
+      <c r="AI87">
+        <v>0.35548474045119788</v>
+      </c>
+      <c r="AJ87">
+        <v>3.2906034361985153E-3</v>
+      </c>
+      <c r="AK87">
+        <v>2</v>
+      </c>
+      <c r="AL87">
+        <v>0.43438327229958418</v>
+      </c>
+      <c r="AM87">
+        <v>3.4724510547551168E-3</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>2.046368240181173E-2</v>
+      </c>
+      <c r="AP87">
+        <v>2.5465644849128875E-3</v>
+      </c>
+      <c r="AQ87">
+        <v>2</v>
+      </c>
+      <c r="AR87">
+        <v>0.3903444499562399</v>
+      </c>
+      <c r="AS87">
+        <v>4.701597318276198E-3</v>
+      </c>
+      <c r="AT87">
+        <v>2</v>
+      </c>
+      <c r="AU87">
+        <v>0.29624412521071136</v>
+      </c>
+      <c r="AV87">
+        <v>4.0052511993344513E-3</v>
+      </c>
+      <c r="AW87">
+        <v>2</v>
+      </c>
+      <c r="AX87">
+        <v>0.21581953683588381</v>
+      </c>
+      <c r="AY87">
+        <v>6.1324957552158959E-3</v>
+      </c>
+      <c r="AZ87">
+        <v>2</v>
+      </c>
+      <c r="BA87">
+        <v>0.28999642261227093</v>
+      </c>
+      <c r="BB87">
+        <v>2.8646569034917304E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88">
+        <v>0.2236333080619608</v>
+      </c>
+      <c r="F88">
+        <v>2.790500618712206E-3</v>
+      </c>
+      <c r="G88">
+        <v>3</v>
+      </c>
+      <c r="H88">
+        <v>0.26031178987480524</v>
+      </c>
+      <c r="I88">
+        <v>5.8740962014435403E-3</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
+      </c>
+      <c r="K88">
+        <v>0.27468044870445679</v>
+      </c>
+      <c r="L88">
+        <v>3.1292375263341837E-3</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>0.29226665784317801</v>
+      </c>
+      <c r="O88">
+        <v>2.4559304091226995E-3</v>
+      </c>
+      <c r="P88">
+        <v>3</v>
+      </c>
+      <c r="Q88">
+        <v>0.2152218803446585</v>
+      </c>
+      <c r="R88">
+        <v>4.753721589213283E-3</v>
+      </c>
+      <c r="S88">
+        <v>3</v>
+      </c>
+      <c r="T88">
+        <v>0.2166917590915787</v>
+      </c>
+      <c r="U88">
+        <v>2.8070363259899951E-3</v>
+      </c>
+      <c r="V88">
+        <v>3</v>
+      </c>
+      <c r="W88">
+        <v>0.31466194593948654</v>
+      </c>
+      <c r="X88">
+        <v>3.5463030002693243E-3</v>
+      </c>
+      <c r="Y88">
+        <v>3</v>
+      </c>
+      <c r="Z88">
+        <v>0.28174731116877649</v>
+      </c>
+      <c r="AA88">
+        <v>3.2882887081063608E-3</v>
+      </c>
+      <c r="AB88">
+        <v>3</v>
+      </c>
+      <c r="AC88">
+        <v>6.6796116414646681E-2</v>
+      </c>
+      <c r="AD88">
+        <v>1.9222320756437225E-3</v>
+      </c>
+      <c r="AE88">
+        <v>3</v>
+      </c>
+      <c r="AH88">
+        <v>3</v>
+      </c>
+      <c r="AI88">
+        <v>5.9196550779231492E-2</v>
+      </c>
+      <c r="AJ88">
+        <v>9.2982604147790371E-4</v>
+      </c>
+      <c r="AK88">
+        <v>3</v>
+      </c>
+      <c r="AL88">
+        <v>0.30825694229196582</v>
+      </c>
+      <c r="AM88">
+        <v>4.26113115209149E-3</v>
+      </c>
+      <c r="AN88">
+        <v>3</v>
+      </c>
+      <c r="AO88">
+        <v>0</v>
+      </c>
+      <c r="AP88">
+        <v>0</v>
+      </c>
+      <c r="AQ88">
+        <v>3</v>
+      </c>
+      <c r="AR88">
+        <v>0.28987289500335328</v>
+      </c>
+      <c r="AS88">
+        <v>4.9110060593702386E-3</v>
+      </c>
+      <c r="AT88">
+        <v>3</v>
+      </c>
+      <c r="AU88">
+        <v>0.29770268024000873</v>
+      </c>
+      <c r="AV88">
+        <v>2.7747806577096152E-3</v>
+      </c>
+      <c r="AW88">
+        <v>3</v>
+      </c>
+      <c r="AX88">
+        <v>0.40680956211834435</v>
+      </c>
+      <c r="AY88">
+        <v>2.7035716403679675E-3</v>
+      </c>
+      <c r="AZ88">
+        <v>3</v>
+      </c>
+      <c r="BA88">
+        <v>0.32853954487707221</v>
+      </c>
+      <c r="BB88">
+        <v>3.6403660580883643E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>0.27565234330704119</v>
+      </c>
+      <c r="F89">
+        <v>3.160413683198738E-3</v>
+      </c>
+      <c r="G89">
+        <v>4</v>
+      </c>
+      <c r="H89">
+        <v>7.309235426021532E-2</v>
+      </c>
+      <c r="I89">
+        <v>2.1491772632951781E-3</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>9.3198007932008442E-2</v>
+      </c>
+      <c r="L89">
+        <v>2.6545906062996303E-4</v>
+      </c>
+      <c r="M89">
+        <v>4</v>
+      </c>
+      <c r="N89">
+        <v>7.2642752762230034E-2</v>
+      </c>
+      <c r="O89">
+        <v>6.8550583583443681E-4</v>
+      </c>
+      <c r="P89">
+        <v>4</v>
+      </c>
+      <c r="Q89">
+        <v>0.26154935169379101</v>
+      </c>
+      <c r="R89">
+        <v>3.7784587786441068E-3</v>
+      </c>
+      <c r="S89">
+        <v>4</v>
+      </c>
+      <c r="T89">
+        <v>4.7322902424255076E-2</v>
+      </c>
+      <c r="U89">
+        <v>1.6418831935808684E-3</v>
+      </c>
+      <c r="V89">
+        <v>4</v>
+      </c>
+      <c r="W89">
+        <v>6.8113264380342667E-2</v>
+      </c>
+      <c r="X89">
+        <v>1.2151390220224185E-3</v>
+      </c>
+      <c r="Y89">
+        <v>4</v>
+      </c>
+      <c r="Z89">
+        <v>3.4612586540160771E-2</v>
+      </c>
+      <c r="AA89">
+        <v>2.9123133331126769E-3</v>
+      </c>
+      <c r="AB89">
+        <v>4</v>
+      </c>
+      <c r="AE89">
+        <v>4</v>
+      </c>
+      <c r="AH89">
+        <v>4</v>
+      </c>
+      <c r="AK89">
+        <v>4</v>
+      </c>
+      <c r="AL89">
+        <v>7.0442019721828952E-2</v>
+      </c>
+      <c r="AM89">
+        <v>2.9138583778326975E-3</v>
+      </c>
+      <c r="AN89">
+        <v>4</v>
+      </c>
+      <c r="AO89">
+        <v>0</v>
+      </c>
+      <c r="AP89">
+        <v>0</v>
+      </c>
+      <c r="AQ89">
+        <v>4</v>
+      </c>
+      <c r="AR89">
+        <v>4.2371390996231412E-2</v>
+      </c>
+      <c r="AS89">
+        <v>7.5245535206891793E-4</v>
+      </c>
+      <c r="AT89">
+        <v>4</v>
+      </c>
+      <c r="AU89">
+        <v>0.14330433669228379</v>
+      </c>
+      <c r="AV89">
+        <v>1.4890591077530723E-3</v>
+      </c>
+      <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>0.24909760868200057</v>
+      </c>
+      <c r="AY89">
+        <v>4.4170020398309612E-3</v>
+      </c>
+      <c r="AZ89">
+        <v>4</v>
+      </c>
+      <c r="BA89">
+        <v>0.17967572167001042</v>
+      </c>
+      <c r="BB89">
+        <v>2.556267053567274E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>0.20542864660279928</v>
+      </c>
+      <c r="F90">
+        <v>3.0803184954234239E-3</v>
+      </c>
+      <c r="G90">
+        <v>5</v>
+      </c>
+      <c r="H90">
+        <v>1.0678521546405141E-2</v>
+      </c>
+      <c r="I90">
+        <v>5.1475797963438199E-4</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+      <c r="K90">
+        <v>1.4998049035171546E-2</v>
+      </c>
+      <c r="L90">
+        <v>4.5037388625486236E-4</v>
+      </c>
+      <c r="M90">
+        <v>5</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>5</v>
+      </c>
+      <c r="Q90">
+        <v>0.20866449123088446</v>
+      </c>
+      <c r="R90">
+        <v>2.7376414491624076E-3</v>
+      </c>
+      <c r="S90">
+        <v>5</v>
+      </c>
+      <c r="T90">
+        <v>4.1231005278019048E-3</v>
+      </c>
+      <c r="U90">
+        <v>1.6116541784547519E-4</v>
+      </c>
+      <c r="V90">
+        <v>5</v>
+      </c>
+      <c r="W90">
+        <v>5.6999327879672483E-3</v>
+      </c>
+      <c r="X90">
+        <v>2.4000030125357859E-4</v>
+      </c>
+      <c r="Y90">
+        <v>5</v>
+      </c>
+      <c r="AB90">
+        <v>5</v>
+      </c>
+      <c r="AE90">
+        <v>5</v>
+      </c>
+      <c r="AH90">
+        <v>5</v>
+      </c>
+      <c r="AK90">
+        <v>5</v>
+      </c>
+      <c r="AL90">
+        <v>6.6929482085668372E-3</v>
+      </c>
+      <c r="AM90">
+        <v>3.5686069880344233E-4</v>
+      </c>
+      <c r="AN90">
+        <v>5</v>
+      </c>
+      <c r="AQ90">
+        <v>5</v>
+      </c>
+      <c r="AT90">
+        <v>5</v>
+      </c>
+      <c r="AU90">
+        <v>3.619742425899853E-2</v>
+      </c>
+      <c r="AV90">
+        <v>1.0361560769177459E-3</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
+        <v>5.3835242813014585E-2</v>
+      </c>
+      <c r="AY90">
+        <v>2.1967324403750605E-3</v>
+      </c>
+      <c r="AZ90">
+        <v>5</v>
+      </c>
+      <c r="BA90">
+        <v>3.8431910855116359E-2</v>
+      </c>
+      <c r="BB90">
+        <v>1.3317346818412163E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>8.9147702191444675E-2</v>
+      </c>
+      <c r="F91">
+        <v>1.5864832224246847E-3</v>
+      </c>
+      <c r="G91">
+        <v>6</v>
+      </c>
+      <c r="H91">
+        <v>7.9844003569541557E-4</v>
+      </c>
+      <c r="I91">
+        <v>9.4406758624439178E-5</v>
+      </c>
+      <c r="J91">
+        <v>6</v>
+      </c>
+      <c r="K91">
+        <v>1.2660681758629696E-3</v>
+      </c>
+      <c r="L91">
+        <v>4.4105860211496095E-5</v>
+      </c>
+      <c r="M91">
+        <v>6</v>
+      </c>
+      <c r="P91">
+        <v>6</v>
+      </c>
+      <c r="Q91">
+        <v>9.3605232725711529E-2</v>
+      </c>
+      <c r="R91">
+        <v>1.2795215403956922E-3</v>
+      </c>
+      <c r="S91">
+        <v>6</v>
+      </c>
+      <c r="V91">
+        <v>6</v>
+      </c>
+      <c r="Y91">
+        <v>6</v>
+      </c>
+      <c r="AB91">
+        <v>6</v>
+      </c>
+      <c r="AE91">
+        <v>6</v>
+      </c>
+      <c r="AH91">
+        <v>6</v>
+      </c>
+      <c r="AK91">
+        <v>6</v>
+      </c>
+      <c r="AN91">
+        <v>6</v>
+      </c>
+      <c r="AQ91">
+        <v>6</v>
+      </c>
+      <c r="AT91">
+        <v>6</v>
+      </c>
+      <c r="AU91">
+        <v>3.7436419772183872E-3</v>
+      </c>
+      <c r="AV91">
+        <v>2.7043568125332417E-4</v>
+      </c>
+      <c r="AW91">
+        <v>6</v>
+      </c>
+      <c r="AX91">
+        <v>4.9174596393339572E-3</v>
+      </c>
+      <c r="AY91">
+        <v>2.6731086908908308E-4</v>
+      </c>
+      <c r="AZ91">
+        <v>6</v>
+      </c>
+      <c r="BA91">
+        <v>3.2685518079173027E-3</v>
+      </c>
+      <c r="BB91">
+        <v>1.5894170331594699E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>7</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+      <c r="E92">
+        <v>2.0496077752520835E-2</v>
+      </c>
+      <c r="F92">
+        <v>7.6242792475940402E-4</v>
+      </c>
+      <c r="G92">
+        <v>7</v>
+      </c>
+      <c r="J92">
+        <v>7</v>
+      </c>
+      <c r="M92">
+        <v>7</v>
+      </c>
+      <c r="P92">
+        <v>7</v>
+      </c>
+      <c r="Q92">
+        <v>2.5454851336376479E-2</v>
+      </c>
+      <c r="R92">
+        <v>9.4753293915211638E-4</v>
+      </c>
+      <c r="S92">
+        <v>7</v>
+      </c>
+      <c r="V92">
+        <v>7</v>
+      </c>
+      <c r="Y92">
+        <v>7</v>
+      </c>
+      <c r="AB92">
+        <v>7</v>
+      </c>
+      <c r="AE92">
+        <v>7</v>
+      </c>
+      <c r="AH92">
+        <v>7</v>
+      </c>
+      <c r="AK92">
+        <v>7</v>
+      </c>
+      <c r="AN92">
+        <v>7</v>
+      </c>
+      <c r="AQ92">
+        <v>7</v>
+      </c>
+      <c r="AT92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>7</v>
+      </c>
+      <c r="AZ92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>8</v>
+      </c>
+      <c r="E93">
+        <v>2.7987927771041059E-3</v>
+      </c>
+      <c r="F93">
+        <v>2.1620826052517905E-4</v>
+      </c>
+      <c r="G93">
+        <v>8</v>
+      </c>
+      <c r="J93">
+        <v>8</v>
+      </c>
+      <c r="M93">
+        <v>8</v>
+      </c>
+      <c r="P93">
+        <v>8</v>
+      </c>
+      <c r="Q93">
+        <v>3.8708097212982774E-3</v>
+      </c>
+      <c r="R93">
+        <v>2.4768506950539714E-4</v>
+      </c>
+      <c r="S93">
+        <v>8</v>
+      </c>
+      <c r="V93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>8</v>
+      </c>
+      <c r="AB93">
+        <v>8</v>
+      </c>
+      <c r="AE93">
+        <v>8</v>
+      </c>
+      <c r="AH93">
+        <v>8</v>
+      </c>
+      <c r="AK93">
+        <v>8</v>
+      </c>
+      <c r="AN93">
+        <v>8</v>
+      </c>
+      <c r="AQ93">
+        <v>8</v>
+      </c>
+      <c r="AT93">
+        <v>8</v>
+      </c>
+      <c r="AW93">
+        <v>8</v>
+      </c>
+      <c r="AZ93">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>9</v>
+      </c>
+      <c r="D94">
+        <v>9</v>
+      </c>
+      <c r="E94">
+        <v>2.4534867089516537E-4</v>
+      </c>
+      <c r="F94">
+        <v>4.1906904675238078E-5</v>
+      </c>
+      <c r="G94">
+        <v>9</v>
+      </c>
+      <c r="J94">
+        <v>9</v>
+      </c>
+      <c r="M94">
+        <v>9</v>
+      </c>
+      <c r="P94">
+        <v>9</v>
+      </c>
+      <c r="Q94">
+        <v>3.5455709377424545E-4</v>
+      </c>
+      <c r="R94">
+        <v>3.126468344184919E-4</v>
+      </c>
+      <c r="S94">
+        <v>9</v>
+      </c>
+      <c r="V94">
+        <v>9</v>
+      </c>
+      <c r="Y94">
+        <v>9</v>
+      </c>
+      <c r="AB94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>9</v>
+      </c>
+      <c r="AH94">
+        <v>9</v>
+      </c>
+      <c r="AK94">
+        <v>9</v>
+      </c>
+      <c r="AN94">
+        <v>9</v>
+      </c>
+      <c r="AQ94">
+        <v>9</v>
+      </c>
+      <c r="AT94">
+        <v>9</v>
+      </c>
+      <c r="AW94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95">
+        <v>1.000093161915409</v>
+      </c>
+      <c r="C95">
+        <v>0.43838865106469482</v>
+      </c>
+      <c r="D95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95">
+        <v>1.0000000382259788</v>
+      </c>
+      <c r="F95">
+        <v>2.9891699564964382E-2</v>
+      </c>
+      <c r="G95" t="s">
+        <v>105</v>
+      </c>
+      <c r="H95">
+        <v>1.0000001279369037</v>
+      </c>
+      <c r="I95">
+        <v>2.3422745141131591E-2</v>
+      </c>
+      <c r="J95" t="s">
+        <v>105</v>
+      </c>
+      <c r="K95">
+        <v>1.0000000372589442</v>
+      </c>
+      <c r="L95">
+        <v>1.0006811266264928E-2</v>
+      </c>
+      <c r="M95" t="s">
+        <v>105</v>
+      </c>
+      <c r="N95">
+        <v>1.0000001377539398</v>
+      </c>
+      <c r="O95">
+        <v>9.4400885097674376E-3</v>
+      </c>
+      <c r="P95" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q95">
+        <v>0.99999997668372587</v>
+      </c>
+      <c r="R95">
+        <v>2.0117328744001278E-2</v>
+      </c>
+      <c r="S95" t="s">
+        <v>105</v>
+      </c>
+      <c r="T95">
+        <v>1.0000000118503876</v>
+      </c>
+      <c r="U95">
+        <v>1.2115734055683882E-2</v>
+      </c>
+      <c r="V95" t="s">
+        <v>105</v>
+      </c>
+      <c r="W95">
+        <v>1.0000000189870411</v>
+      </c>
+      <c r="X95">
+        <v>1.8255691065374235E-2</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z95">
+        <v>1.0000001311368834</v>
+      </c>
+      <c r="AA95">
+        <v>1.2361950503653449E-2</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC95">
+        <v>1</v>
+      </c>
+      <c r="AD95">
+        <v>1.3420549962238688E-2</v>
+      </c>
+      <c r="AE95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF95">
+        <v>0.99999719432917811</v>
+      </c>
+      <c r="AG95">
+        <v>6.6498967805398435E-2</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI95">
+        <v>1.0000002483175696</v>
+      </c>
+      <c r="AJ95">
+        <v>1.8092338690937612E-2</v>
+      </c>
+      <c r="AK95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL95">
+        <v>0.99999998781598765</v>
+      </c>
+      <c r="AM95">
+        <v>2.1867991751825789E-2</v>
+      </c>
+      <c r="AN95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO95">
+        <v>1.0000003127520585</v>
+      </c>
+      <c r="AP95">
+        <v>1.7001912663101335E-2</v>
+      </c>
+      <c r="AQ95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AR95">
+        <v>1.0000000646487293</v>
+      </c>
+      <c r="AS95">
+        <v>1.3129031689509695E-2</v>
+      </c>
+      <c r="AT95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU95">
+        <v>0.99999997621955294</v>
+      </c>
+      <c r="AV95">
+        <v>1.1830945165947567E-2</v>
+      </c>
+      <c r="AW95" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX95">
+        <v>1.000000012383762</v>
+      </c>
+      <c r="AY95">
+        <v>2.0898508765489487E-2</v>
+      </c>
+      <c r="AZ95" t="s">
+        <v>105</v>
+      </c>
+      <c r="BA95">
+        <v>0.99999998720236116</v>
+      </c>
+      <c r="BB95">
+        <v>1.4130910203100613E-2</v>
+      </c>
+      <c r="BC95">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15414,4 +22718,1573 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085D25DA-70CA-3F46-8019-FE15E30FBB22}">
+  <dimension ref="A1:D111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.45974192409787951</v>
+      </c>
+      <c r="D3">
+        <v>0.1602529864836052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0.41450237204668711</v>
+      </c>
+      <c r="D4">
+        <v>6.0159034991074868E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0.12584886577084237</v>
+      </c>
+      <c r="D5">
+        <v>0.21797662959001476</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.8441723502002888E-3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.1854454246304992E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.7854948239952726E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.1197428649555204E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.12789869827205977</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3.2792433439849896E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.2236333080619608</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.790500618712206E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.27565234330704119</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.160413683198738E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.20542864660279928</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.0803184954234239E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.9147702191444675E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.5864832224246847E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.0496077752520835E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.6242792475940402E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.7987927771041059E-3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.1620826052517905E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.4534867089516537E-4</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.1906904675238078E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4.7184744620100583E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.0109409945412448E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0.24281717702579927</v>
+      </c>
+      <c r="D18">
+        <v>3.5094490099652916E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0.36511710057388264</v>
+      </c>
+      <c r="D19">
+        <v>1.1179763828714634E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>0.26031178987480524</v>
+      </c>
+      <c r="D20">
+        <v>5.8740962014435403E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>7.309235426021532E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.1491772632951781E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>1.0678521546405141E-2</v>
+      </c>
+      <c r="D22">
+        <v>5.1475797963438199E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>7.9844003569541557E-4</v>
+      </c>
+      <c r="D23">
+        <v>9.4406758624439178E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.136346222023491E-2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7.4436915372595855E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.22092765610844137</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.2995110184319632E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.35356634508276813</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2.0737547606765015E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.27468044870445679</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.1292375263341837E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>9.3198007932008442E-2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.6545906062996303E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.4998049035171546E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <v>4.5037388625486236E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.2660681758629696E-3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>4.4105860211496095E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>4.235699401009111E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.0620737667494623E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>0.21486419110315236</v>
+      </c>
+      <c r="D32">
+        <v>1.4631302714420969E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0.37786954203528822</v>
+      </c>
+      <c r="D33">
+        <v>2.773448226618742E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>0.29226665784317801</v>
+      </c>
+      <c r="D34">
+        <v>2.4559304091226995E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>7.2642752762230034E-2</v>
+      </c>
+      <c r="D35">
+        <v>6.8550583583443681E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.0194238889219326E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.90559450366678E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4.562909962695335E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.256039252863573E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.12545546402105859</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2.8984867869794283E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.2152218803446585</v>
+      </c>
+      <c r="D40" s="1">
+        <v>4.753721589213283E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.26154935169379101</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.7784587786441068E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.20866449123088446</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.7376414491624076E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" s="1">
+        <v>9.3605232725711529E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.2795215403956922E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.5454851336376479E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9.4753293915211638E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1">
+        <v>3.8708097212982774E-3</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2.4768506950539714E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46" s="1">
+        <v>3.5455709377424545E-4</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3.126468344184919E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.1301628119035623</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.852046950940238E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.26218625756683678</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2.5588306689468799E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.33951318033635292</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3.0947714983804268E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.2166917590915787</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.8070363259899951E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4.7322902424255076E-2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.6418831935808684E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4.1231005278019048E-3</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1.6116541784547519E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>2.9493107407919272E-2</v>
+      </c>
+      <c r="D53">
+        <v>1.3546518787517655E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>0.1611415200763395</v>
+      </c>
+      <c r="D54">
+        <v>7.2437005778551019E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>0.42089024839498562</v>
+      </c>
+      <c r="D55">
+        <v>4.6558962852220453E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>0.31466194593948654</v>
+      </c>
+      <c r="D56">
+        <v>3.5463030002693243E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>6.8113264380342667E-2</v>
+      </c>
+      <c r="D57">
+        <v>1.2151390220224185E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>5.6999327879672483E-3</v>
+      </c>
+      <c r="D58">
+        <v>2.4000030125357859E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5.167582110643118E-2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>1.5536369952495429E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.24602016514511679</v>
+      </c>
+      <c r="D60" s="1">
+        <v>1.322536294782751E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.38594424717639803</v>
+      </c>
+      <c r="D61" s="1">
+        <v>3.285175172402116E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.28174731116877649</v>
+      </c>
+      <c r="D62" s="1">
+        <v>3.2882887081063608E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63">
+        <v>4</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3.4612586540160771E-2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2.9123133331126769E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.17114060681098761</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.9422739044727272E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.36655829014890245</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4.09503474217939E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.39550498662546324</v>
+      </c>
+      <c r="D66" s="1">
+        <v>3.4610092399428478E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6.6796116414646681E-2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.9222320756437225E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.2078773562530892</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2.4616888342130785E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.43055291444214544</v>
+      </c>
+      <c r="D69" s="1">
+        <v>2.8520616860525465E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.36156692363394344</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.3361462602742182E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0.19444840504751823</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5.5617635609968756E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>65</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.3908705520396219</v>
+      </c>
+      <c r="D72" s="1">
+        <v>8.3101456522643186E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.35548474045119788</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.2906034361985153E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5.9196550779231492E-2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>9.2982604147790371E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2.805792587776083E-2</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.302789886620059E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.15216687941628107</v>
+      </c>
+      <c r="D76" s="1">
+        <v>9.5609005817229829E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.43438327229958418</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3.4724510547551168E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.30825694229196582</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4.26113115209149E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" s="1">
+        <v>7.0442019721828952E-2</v>
+      </c>
+      <c r="D79" s="1">
+        <v>2.9138583778326975E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+      <c r="C80" s="1">
+        <v>6.6929482085668372E-3</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3.5686069880344233E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0.79386005200875365</v>
+      </c>
+      <c r="D81">
+        <v>7.8137789974078928E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0.18567657834149318</v>
+      </c>
+      <c r="D82">
+        <v>6.6415691807805537E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>2.046368240181173E-2</v>
+      </c>
+      <c r="D83">
+        <v>2.5465644849128875E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>71</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4.9144487260389814E-2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1.5006616155571909E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.22826684143251483</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1.2633113442371499E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.3903444499562399</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4.701597318276198E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>71</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.28987289500335328</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4.9110060593702386E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>71</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" s="1">
+        <v>4.2371390996231412E-2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>7.5245535206891793E-4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>73</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>5.4471571773677785E-2</v>
+      </c>
+      <c r="D91">
+        <v>1.4282015715543698E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>73</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>0.1683361960666544</v>
+      </c>
+      <c r="D92">
+        <v>8.2706087142498687E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>73</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>0.29624412521071136</v>
+      </c>
+      <c r="D93">
+        <v>4.0052511993344513E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>0.29770268024000873</v>
+      </c>
+      <c r="D94">
+        <v>2.7747806577096152E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>73</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>0.14330433669228379</v>
+      </c>
+      <c r="D95">
+        <v>1.4890591077530723E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>3.619742425899853E-2</v>
+      </c>
+      <c r="D96">
+        <v>1.0361560769177459E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>73</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>3.7436419772183872E-3</v>
+      </c>
+      <c r="D97">
+        <v>2.7043568125332417E-4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1.804722583040011E-2</v>
+      </c>
+      <c r="D98">
+        <v>1.904885653308374E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
+        <v>5.1473376464784594E-2</v>
+      </c>
+      <c r="D99">
+        <v>3.276510367302146E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>0.21581953683588381</v>
+      </c>
+      <c r="D100">
+        <v>6.1324957552158959E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>0.40680956211834435</v>
+      </c>
+      <c r="D101">
+        <v>2.7035716403679675E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>0.24909760868200057</v>
+      </c>
+      <c r="D102">
+        <v>4.4170020398309612E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103">
+        <v>5.3835242813014585E-2</v>
+      </c>
+      <c r="D103">
+        <v>2.1967324403750605E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>4.9174596393339572E-3</v>
+      </c>
+      <c r="D104">
+        <v>2.6731086908908308E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>2.3487382844179967E-2</v>
+      </c>
+      <c r="D105">
+        <v>7.8559899096872633E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>0.136600452535794</v>
+      </c>
+      <c r="D106">
+        <v>2.793344811827355E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>0.28999642261227093</v>
+      </c>
+      <c r="D107">
+        <v>2.8646569034917304E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>0.32853954487707221</v>
+      </c>
+      <c r="D108">
+        <v>3.6403660580883643E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109">
+        <v>0.17967572167001042</v>
+      </c>
+      <c r="D109">
+        <v>2.556267053567274E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>3.8431910855116359E-2</v>
+      </c>
+      <c r="D110">
+        <v>1.3317346818412163E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>3.2685518079173027E-3</v>
+      </c>
+      <c r="D111">
+        <v>1.5894170331594699E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>